--- a/escenarios_montecarlo/escenario_010.xlsx
+++ b/escenarios_montecarlo/escenario_010.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19.44798135013396</v>
+        <v>15.84715941020894</v>
       </c>
       <c r="D2" t="n">
-        <v>23.32685381998228</v>
+        <v>24.46529152406695</v>
       </c>
       <c r="E2" t="n">
-        <v>18.44532570834931</v>
+        <v>20.3024700846995</v>
       </c>
       <c r="F2" t="n">
-        <v>19.43235494193476</v>
+        <v>24.35142340154388</v>
       </c>
       <c r="G2" t="n">
-        <v>26.08346909627776</v>
+        <v>8.05992481940636</v>
       </c>
       <c r="H2" t="n">
-        <v>20.87759811722354</v>
+        <v>32.03508569016527</v>
       </c>
       <c r="I2" t="n">
-        <v>27.88987872373065</v>
+        <v>11.04369566756189</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8605672983777</v>
+        <v>66.38131491065123</v>
       </c>
       <c r="K2" t="n">
-        <v>64.96597814813448</v>
+        <v>10.96760271990073</v>
       </c>
       <c r="L2" t="n">
-        <v>18.89617985491179</v>
+        <v>212.3771038548156</v>
       </c>
       <c r="M2" t="n">
-        <v>16.16058981326202</v>
+        <v>60.85521789621669</v>
       </c>
       <c r="N2" t="n">
-        <v>45.76414700817872</v>
+        <v>92.21856327898418</v>
       </c>
       <c r="O2" t="n">
-        <v>79.50316743854826</v>
+        <v>72.19279425627579</v>
       </c>
       <c r="P2" t="n">
-        <v>194.3362136993567</v>
+        <v>67.48729189383459</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.7250475957418</v>
+        <v>52.25482348971759</v>
       </c>
       <c r="R2" t="n">
-        <v>55.18184768266406</v>
+        <v>30.57358924443046</v>
       </c>
       <c r="S2" t="n">
-        <v>74.99230693262994</v>
+        <v>38.42764830737831</v>
       </c>
       <c r="T2" t="n">
-        <v>129.968809488787</v>
+        <v>97.1441772567745</v>
       </c>
       <c r="U2" t="n">
-        <v>48.3976017745733</v>
+        <v>75.23004354570818</v>
       </c>
       <c r="V2" t="n">
-        <v>77.95097910163005</v>
+        <v>47.68849228646344</v>
       </c>
       <c r="W2" t="n">
-        <v>56.09584222626607</v>
+        <v>40.02080534291669</v>
       </c>
       <c r="X2" t="n">
-        <v>72.32497419464175</v>
+        <v>48.55120386489369</v>
       </c>
       <c r="Y2" t="n">
-        <v>48.06972520110443</v>
+        <v>61.86328559904726</v>
       </c>
       <c r="Z2" t="n">
-        <v>86.60200739041197</v>
+        <v>63.67683465940411</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.44093882326943</v>
+        <v>102.3383299517068</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.32075694164797</v>
+        <v>92.74840264702404</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.4351257569969</v>
+        <v>132.7961452636324</v>
       </c>
       <c r="AD2" t="n">
-        <v>136.202109612281</v>
+        <v>142.444736051856</v>
       </c>
       <c r="AE2" t="n">
-        <v>149.3908833014175</v>
+        <v>69.18692804803744</v>
       </c>
       <c r="AF2" t="n">
-        <v>106.7338553511343</v>
+        <v>158.4905848085182</v>
       </c>
       <c r="AG2" t="n">
-        <v>150.7525681802261</v>
+        <v>105.7457451835565</v>
       </c>
       <c r="AH2" t="n">
-        <v>114.2887890577091</v>
+        <v>34.92190938525363</v>
       </c>
       <c r="AI2" t="n">
-        <v>105.7371844611087</v>
+        <v>39.42024856817525</v>
       </c>
       <c r="AJ2" t="n">
-        <v>83.86280932691776</v>
+        <v>88.59581749532828</v>
       </c>
       <c r="AK2" t="n">
-        <v>46.69826193789162</v>
+        <v>54.88413803197725</v>
       </c>
       <c r="AL2" t="n">
-        <v>110.4564122879724</v>
+        <v>24.54038294239369</v>
       </c>
       <c r="AM2" t="n">
-        <v>23.71655260239974</v>
+        <v>30.52395250073302</v>
       </c>
       <c r="AN2" t="n">
-        <v>57.90526886611089</v>
+        <v>43.19240664115049</v>
       </c>
       <c r="AO2" t="n">
-        <v>29.75316515618815</v>
+        <v>46.98668505987204</v>
       </c>
       <c r="AP2" t="n">
-        <v>13.78351186415485</v>
+        <v>16.86648200914566</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17.73815286907226</v>
+        <v>32.61697370840527</v>
       </c>
       <c r="AR2" t="n">
-        <v>25.34691920038222</v>
+        <v>35.33838219146975</v>
       </c>
       <c r="AS2" t="n">
-        <v>20.08404544920135</v>
+        <v>14.11417231066534</v>
       </c>
       <c r="AT2" t="n">
-        <v>27.22141947991736</v>
+        <v>35.49028832959309</v>
       </c>
       <c r="AU2" t="n">
-        <v>27.2948899051462</v>
+        <v>14.61896360417265</v>
       </c>
       <c r="AV2" t="n">
-        <v>38.53922551216272</v>
+        <v>21.50325260238689</v>
       </c>
       <c r="AW2" t="n">
-        <v>24.76800728796219</v>
+        <v>35.97655603543957</v>
       </c>
       <c r="AX2" t="n">
-        <v>12.66819828666499</v>
+        <v>21.16380352974261</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.489117679619174</v>
+        <v>0.8139769276079954</v>
       </c>
       <c r="D3" t="n">
-        <v>5.016109907693004</v>
+        <v>5.092400815122146</v>
       </c>
       <c r="E3" t="n">
-        <v>3.196709426942772</v>
+        <v>28.05781736282289</v>
       </c>
       <c r="F3" t="n">
-        <v>1.05265195011857</v>
+        <v>6.421873754146715</v>
       </c>
       <c r="G3" t="n">
-        <v>1.991216970599181</v>
+        <v>2.911528762323846</v>
       </c>
       <c r="H3" t="n">
-        <v>5.760154045893977</v>
+        <v>1.132837924968377</v>
       </c>
       <c r="I3" t="n">
-        <v>3.158710495833834</v>
+        <v>5.515872586034798</v>
       </c>
       <c r="J3" t="n">
-        <v>9.559337736469324</v>
+        <v>6.61927569372315</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9417574070509271</v>
+        <v>1.721481224099479</v>
       </c>
       <c r="L3" t="n">
-        <v>5.558283994022898</v>
+        <v>16.0898196544681</v>
       </c>
       <c r="M3" t="n">
-        <v>2.428142374774536</v>
+        <v>5.271677650808805</v>
       </c>
       <c r="N3" t="n">
-        <v>8.836449605623573</v>
+        <v>4.325067251403036</v>
       </c>
       <c r="O3" t="n">
-        <v>1.845668713905949</v>
+        <v>2.305178614687658</v>
       </c>
       <c r="P3" t="n">
-        <v>3.078061158659843</v>
+        <v>3.933397255793626</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.052151548125432</v>
+        <v>2.850312428465498</v>
       </c>
       <c r="R3" t="n">
-        <v>8.66393660687139</v>
+        <v>3.064024470820313</v>
       </c>
       <c r="S3" t="n">
-        <v>4.442418223378262</v>
+        <v>4.181473691463456</v>
       </c>
       <c r="T3" t="n">
-        <v>5.374062927496579</v>
+        <v>4.263502581589316</v>
       </c>
       <c r="U3" t="n">
-        <v>3.382369829506425</v>
+        <v>4.707448244273701</v>
       </c>
       <c r="V3" t="n">
-        <v>5.940584084247096</v>
+        <v>4.580051056288175</v>
       </c>
       <c r="W3" t="n">
-        <v>8.430242406798937</v>
+        <v>4.134801035504441</v>
       </c>
       <c r="X3" t="n">
-        <v>3.452847664516393</v>
+        <v>4.856233948143978</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.172261990304067</v>
+        <v>6.78085362938667</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.544366288673187</v>
+        <v>4.644596436548858</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.618198712874695</v>
+        <v>3.331113373930042</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.487116502073977</v>
+        <v>2.630747966829363</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.711481730668401</v>
+        <v>8.072831867555101</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.127877507976525</v>
+        <v>6.712927988107157</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.688729493842899</v>
+        <v>4.41137097471709</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.69658921905204</v>
+        <v>3.865002170880455</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.379779134231761</v>
+        <v>4.787303342437729</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.875579515630355</v>
+        <v>4.573589784738604</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.92927248575738</v>
+        <v>11.00818089830567</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.024262241960747</v>
+        <v>7.322458134977292</v>
       </c>
       <c r="AK3" t="n">
-        <v>5.502366106366258</v>
+        <v>3.148699655271236</v>
       </c>
       <c r="AL3" t="n">
-        <v>5.373182255778545</v>
+        <v>2.706424159267418</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.485788787483703</v>
+        <v>7.8057056256605</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.057906687030159</v>
+        <v>5.665859646373532</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.827445367767703</v>
+        <v>2.846684507623257</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.682248347663333</v>
+        <v>2.117894725528155</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.103613569321534</v>
+        <v>6.522581850145532</v>
       </c>
       <c r="AR3" t="n">
-        <v>5.248217486445384</v>
+        <v>2.159732037294764</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.346102671063163</v>
+        <v>18.2370792585724</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.223466286713569</v>
+        <v>1.208352945011345</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.687949317272002</v>
+        <v>3.729356359472259</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.987568555758684</v>
+        <v>3.623457585944432</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.353002204642718</v>
+        <v>6.896401568126189</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.731070861069329</v>
+        <v>0.889717547797652</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.96299157896051</v>
+        <v>14.95424136195586</v>
       </c>
       <c r="D4" t="n">
-        <v>25.19758753611156</v>
+        <v>12.11472273885014</v>
       </c>
       <c r="E4" t="n">
-        <v>15.53096247238173</v>
+        <v>11.1753058185488</v>
       </c>
       <c r="F4" t="n">
-        <v>54.12941570736405</v>
+        <v>18.25615624471452</v>
       </c>
       <c r="G4" t="n">
-        <v>9.574755985778365</v>
+        <v>19.09625107638381</v>
       </c>
       <c r="H4" t="n">
-        <v>8.995846669147749</v>
+        <v>20.98245450114381</v>
       </c>
       <c r="I4" t="n">
-        <v>10.98589937857372</v>
+        <v>372.4024032864376</v>
       </c>
       <c r="J4" t="n">
-        <v>19.25471224053858</v>
+        <v>6.711944780593058</v>
       </c>
       <c r="K4" t="n">
-        <v>49.47165407398164</v>
+        <v>35.01789304260128</v>
       </c>
       <c r="L4" t="n">
-        <v>48.40459636725348</v>
+        <v>97.43116320115449</v>
       </c>
       <c r="M4" t="n">
-        <v>79.47778515747893</v>
+        <v>61.67853170774595</v>
       </c>
       <c r="N4" t="n">
-        <v>54.34697508028967</v>
+        <v>32.68924694390999</v>
       </c>
       <c r="O4" t="n">
-        <v>64.96215748449954</v>
+        <v>76.38512630358449</v>
       </c>
       <c r="P4" t="n">
-        <v>53.46717796158409</v>
+        <v>32.11236867376088</v>
       </c>
       <c r="Q4" t="n">
-        <v>73.52900583023859</v>
+        <v>118.727783183323</v>
       </c>
       <c r="R4" t="n">
-        <v>67.57824328574404</v>
+        <v>26.84622840082463</v>
       </c>
       <c r="S4" t="n">
-        <v>38.0036683197353</v>
+        <v>71.64211180173928</v>
       </c>
       <c r="T4" t="n">
-        <v>39.60029646289103</v>
+        <v>74.49604979207312</v>
       </c>
       <c r="U4" t="n">
-        <v>91.68209328249947</v>
+        <v>24.71569884258287</v>
       </c>
       <c r="V4" t="n">
-        <v>164.23667625</v>
+        <v>100.7339316780745</v>
       </c>
       <c r="W4" t="n">
-        <v>115.2777660692616</v>
+        <v>54.24909397455157</v>
       </c>
       <c r="X4" t="n">
-        <v>24.38467896457152</v>
+        <v>39.5865822220676</v>
       </c>
       <c r="Y4" t="n">
-        <v>172.5421019982799</v>
+        <v>124.5867532471535</v>
       </c>
       <c r="Z4" t="n">
-        <v>80.74431471556777</v>
+        <v>80.19094162533315</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.24478853486632</v>
+        <v>39.24651717493524</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.9310014146912</v>
+        <v>47.01854407078363</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.87290527775858</v>
+        <v>40.02403340625471</v>
       </c>
       <c r="AD4" t="n">
-        <v>61.8705345979868</v>
+        <v>55.05747368517002</v>
       </c>
       <c r="AE4" t="n">
-        <v>171.6929310045545</v>
+        <v>106.2436066743769</v>
       </c>
       <c r="AF4" t="n">
-        <v>69.4269703323518</v>
+        <v>38.77962727886128</v>
       </c>
       <c r="AG4" t="n">
-        <v>73.52432078083518</v>
+        <v>49.58896800451039</v>
       </c>
       <c r="AH4" t="n">
-        <v>26.64383851257813</v>
+        <v>60.01072215023979</v>
       </c>
       <c r="AI4" t="n">
-        <v>62.05491057212313</v>
+        <v>42.99827402593849</v>
       </c>
       <c r="AJ4" t="n">
-        <v>54.44737003797031</v>
+        <v>51.16838704542603</v>
       </c>
       <c r="AK4" t="n">
-        <v>74.64966945</v>
+        <v>29.50056331625488</v>
       </c>
       <c r="AL4" t="n">
-        <v>21.17109282036428</v>
+        <v>21.48884415992261</v>
       </c>
       <c r="AM4" t="n">
-        <v>15.02731469898493</v>
+        <v>29.05311277085778</v>
       </c>
       <c r="AN4" t="n">
-        <v>28.04017857848367</v>
+        <v>22.38489915341463</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.599253978923549</v>
+        <v>29.85069313048188</v>
       </c>
       <c r="AP4" t="n">
-        <v>28.95329654297495</v>
+        <v>17.7701735128288</v>
       </c>
       <c r="AQ4" t="n">
-        <v>10.11731672683845</v>
+        <v>8.984851343433535</v>
       </c>
       <c r="AR4" t="n">
-        <v>9.725591205973407</v>
+        <v>8.114450032548669</v>
       </c>
       <c r="AS4" t="n">
-        <v>22.07703589063987</v>
+        <v>17.16176774419248</v>
       </c>
       <c r="AT4" t="n">
-        <v>12.05037037037037</v>
+        <v>9.723787845015419</v>
       </c>
       <c r="AU4" t="n">
-        <v>22.7677243726074</v>
+        <v>9.996127848723672</v>
       </c>
       <c r="AV4" t="n">
-        <v>11.49882118587201</v>
+        <v>12.12157974538396</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.984275228803579</v>
+        <v>5.227586017197848</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.43551650627741</v>
+        <v>10.48183565919268</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>12.39646513511381</v>
+        <v>34.17060874222425</v>
       </c>
       <c r="D5" t="n">
-        <v>15.11560025245471</v>
+        <v>28.80032255516542</v>
       </c>
       <c r="E5" t="n">
-        <v>29.55153824614681</v>
+        <v>1.146795475678853</v>
       </c>
       <c r="F5" t="n">
-        <v>26.31720224305937</v>
+        <v>160.674479859574</v>
       </c>
       <c r="G5" t="n">
-        <v>24.74022212813269</v>
+        <v>11.95849161226963</v>
       </c>
       <c r="H5" t="n">
-        <v>2.99073752580591</v>
+        <v>5.611632940323676</v>
       </c>
       <c r="I5" t="n">
-        <v>53.96090345523703</v>
+        <v>12.32926003955098</v>
       </c>
       <c r="J5" t="n">
-        <v>11.7736147091674</v>
+        <v>100.7844534864278</v>
       </c>
       <c r="K5" t="n">
-        <v>12.04471944768196</v>
+        <v>7.592026465387906</v>
       </c>
       <c r="L5" t="n">
-        <v>46.64565638659668</v>
+        <v>5.43527316752741</v>
       </c>
       <c r="M5" t="n">
-        <v>34.04440458962559</v>
+        <v>62.7750574139345</v>
       </c>
       <c r="N5" t="n">
-        <v>88.38982230675559</v>
+        <v>20.33694450933439</v>
       </c>
       <c r="O5" t="n">
-        <v>83.73871745890305</v>
+        <v>34.22147950586605</v>
       </c>
       <c r="P5" t="n">
-        <v>94.76224579056915</v>
+        <v>2.823279511183592</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.5819561094141</v>
+        <v>52.46481742606336</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>58.77548744223338</v>
       </c>
       <c r="S5" t="n">
-        <v>22.41487428769663</v>
+        <v>39.91053794217637</v>
       </c>
       <c r="T5" t="n">
-        <v>44.58855315961505</v>
+        <v>74.58620562050081</v>
       </c>
       <c r="U5" t="n">
-        <v>136.5424070483385</v>
+        <v>31.57954892541274</v>
       </c>
       <c r="V5" t="n">
-        <v>62.2897202373688</v>
+        <v>50.35097689214538</v>
       </c>
       <c r="W5" t="n">
-        <v>49.41013889629479</v>
+        <v>73.90677025804017</v>
       </c>
       <c r="X5" t="n">
-        <v>22.13686844153779</v>
+        <v>50.95064359427621</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.48891499706093</v>
+        <v>39.16631874388319</v>
       </c>
       <c r="Z5" t="n">
-        <v>57.90014807550206</v>
+        <v>11.85466405441303</v>
       </c>
       <c r="AA5" t="n">
-        <v>39.37117656924555</v>
+        <v>112.6309387762644</v>
       </c>
       <c r="AB5" t="n">
-        <v>26.39352644020561</v>
+        <v>43.25688299879143</v>
       </c>
       <c r="AC5" t="n">
-        <v>33.65398701335906</v>
+        <v>33.58249369203953</v>
       </c>
       <c r="AD5" t="n">
-        <v>19.76235961892641</v>
+        <v>19.97514276316013</v>
       </c>
       <c r="AE5" t="n">
-        <v>23.00614915710766</v>
+        <v>17.41850637137693</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.22039948345527</v>
+        <v>20.81460988232189</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.85071519339601</v>
+        <v>46.72660629208199</v>
       </c>
       <c r="AH5" t="n">
-        <v>38.80306312824801</v>
+        <v>3.162349519481539</v>
       </c>
       <c r="AI5" t="n">
-        <v>22.02548100126933</v>
+        <v>41.03060233888575</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25.89648721249368</v>
+        <v>29.646357691718</v>
       </c>
       <c r="AK5" t="n">
-        <v>25.50347473840566</v>
+        <v>8.365744277012153</v>
       </c>
       <c r="AL5" t="n">
-        <v>21.90701384865629</v>
+        <v>16.3370203558145</v>
       </c>
       <c r="AM5" t="n">
-        <v>14.18694477561416</v>
+        <v>36.13900927630905</v>
       </c>
       <c r="AN5" t="n">
-        <v>33.94767249184198</v>
+        <v>56.05038374502988</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.54190787251304</v>
+        <v>29.84173083327413</v>
       </c>
       <c r="AP5" t="n">
-        <v>6.418927243141959</v>
+        <v>25.5332084390456</v>
       </c>
       <c r="AQ5" t="n">
-        <v>32.10739102107576</v>
+        <v>20.38076839569494</v>
       </c>
       <c r="AR5" t="n">
-        <v>39.61647522153005</v>
+        <v>36.36356701089277</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.6448081341783389</v>
+        <v>18.46448543620112</v>
       </c>
       <c r="AT5" t="n">
-        <v>21.06839300639195</v>
+        <v>31.27754618362292</v>
       </c>
       <c r="AU5" t="n">
-        <v>42.39395956590052</v>
+        <v>3.88734024403957</v>
       </c>
       <c r="AV5" t="n">
-        <v>21.88247479182084</v>
+        <v>11.46488821744871</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.599120414934407</v>
+        <v>15.16378891157172</v>
       </c>
       <c r="AX5" t="n">
-        <v>28.32246120574264</v>
+        <v>24.14202733075958</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.28916713479831</v>
+        <v>1.359979016784996</v>
       </c>
       <c r="D6" t="n">
-        <v>6.07793130698124</v>
+        <v>10.42439605404817</v>
       </c>
       <c r="E6" t="n">
-        <v>2.275697685539762</v>
+        <v>2.471655965812315</v>
       </c>
       <c r="F6" t="n">
-        <v>10.37919747010905</v>
+        <v>2.797666697575681</v>
       </c>
       <c r="G6" t="n">
-        <v>5.987907638068124</v>
+        <v>8.128496371911892</v>
       </c>
       <c r="H6" t="n">
-        <v>5.170154785151538</v>
+        <v>4.158067466053676</v>
       </c>
       <c r="I6" t="n">
-        <v>11.66196035066649</v>
+        <v>3.738363913051824</v>
       </c>
       <c r="J6" t="n">
-        <v>7.045077</v>
+        <v>3.594182906147358</v>
       </c>
       <c r="K6" t="n">
-        <v>13.85110357545891</v>
+        <v>20.56967009324434</v>
       </c>
       <c r="L6" t="n">
-        <v>27.16447231564053</v>
+        <v>6.958058292647924</v>
       </c>
       <c r="M6" t="n">
-        <v>7.013303166588628</v>
+        <v>10.39587743820613</v>
       </c>
       <c r="N6" t="n">
-        <v>20.31706255546118</v>
+        <v>5.015284632681194</v>
       </c>
       <c r="O6" t="n">
-        <v>60.40735617237288</v>
+        <v>25.19253161744741</v>
       </c>
       <c r="P6" t="n">
-        <v>7.794774214680753</v>
+        <v>7.115527057381489</v>
       </c>
       <c r="Q6" t="n">
-        <v>18.30092200979816</v>
+        <v>27.58695521650138</v>
       </c>
       <c r="R6" t="n">
-        <v>24.2409250098347</v>
+        <v>26.32947519479752</v>
       </c>
       <c r="S6" t="n">
-        <v>48.12950481266703</v>
+        <v>63.51633016026596</v>
       </c>
       <c r="T6" t="n">
-        <v>19.52582998796485</v>
+        <v>24.58653047799589</v>
       </c>
       <c r="U6" t="n">
-        <v>14.07320794125986</v>
+        <v>44.50845247228564</v>
       </c>
       <c r="V6" t="n">
-        <v>18.27834439503346</v>
+        <v>23.30192208777404</v>
       </c>
       <c r="W6" t="n">
-        <v>20.20803864440193</v>
+        <v>24.42770206383382</v>
       </c>
       <c r="X6" t="n">
-        <v>24.42828591703896</v>
+        <v>15.77696003519507</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.42923117063837</v>
+        <v>12.10493927061053</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.80675</v>
+        <v>12.30049252623931</v>
       </c>
       <c r="AA6" t="n">
-        <v>25.26050580025153</v>
+        <v>11.66173938895061</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.24255688904783</v>
+        <v>18.00971228082296</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.218548801974643</v>
+        <v>7.736279520994077</v>
       </c>
       <c r="AD6" t="n">
-        <v>20.97825699241065</v>
+        <v>31.87143675825277</v>
       </c>
       <c r="AE6" t="n">
-        <v>15.46195030885933</v>
+        <v>13.81922565875819</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.80928185006639</v>
+        <v>16.54640292578638</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.063721704857175</v>
+        <v>4.790541967191499</v>
       </c>
       <c r="AH6" t="n">
-        <v>22.262076442088</v>
+        <v>3.83627849916019</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.927912528647798</v>
+        <v>7.944926859429576</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.447226557696669</v>
+        <v>5.158474519848061</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.750403649203143</v>
+        <v>4.113969577499367</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.79312243944629</v>
+        <v>1.416269211358353</v>
       </c>
       <c r="AM6" t="n">
-        <v>6.485593271738721</v>
+        <v>8.303898099842238</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.647986940506873</v>
+        <v>6.600826240615469</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.85478409811211</v>
+        <v>1.501440703926864</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.012177854687494</v>
+        <v>0.964858729212469</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9.167142857142855</v>
+        <v>1.472778245412063</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.398473916186165</v>
+        <v>4.359586166892155</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.9278948285714286</v>
+        <v>0.8239216508863328</v>
       </c>
       <c r="AT6" t="n">
-        <v>5.462421938877028</v>
+        <v>0.5630819086287178</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.6789590618450705</v>
+        <v>0.4395767919034143</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.27992</v>
+        <v>50.0942295962147</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.8518787775247203</v>
+        <v>12.13904196836935</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.814058946789232</v>
+        <v>4.204166254516607</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.68</v>
+        <v>8.169089888865834</v>
       </c>
       <c r="D7" t="n">
-        <v>5.63</v>
+        <v>31.68397307830995</v>
       </c>
       <c r="E7" t="n">
-        <v>9.390000000000001</v>
+        <v>8.288751336396686</v>
       </c>
       <c r="F7" t="n">
-        <v>13.69</v>
+        <v>10.91881926502958</v>
       </c>
       <c r="G7" t="n">
-        <v>120.97</v>
+        <v>15.85429988939425</v>
       </c>
       <c r="H7" t="n">
-        <v>29.74</v>
+        <v>7.28000299191661</v>
       </c>
       <c r="I7" t="n">
-        <v>4.593630400000001</v>
+        <v>5.092060630375418</v>
       </c>
       <c r="J7" t="n">
-        <v>28.29</v>
+        <v>16.12768622643787</v>
       </c>
       <c r="K7" t="n">
-        <v>117.07</v>
+        <v>13.47738464424129</v>
       </c>
       <c r="L7" t="n">
-        <v>32.47</v>
+        <v>136.8637509609334</v>
       </c>
       <c r="M7" t="n">
-        <v>11.81</v>
+        <v>37.23071927992438</v>
       </c>
       <c r="N7" t="n">
-        <v>117.07</v>
+        <v>23.817735429043</v>
       </c>
       <c r="O7" t="n">
-        <v>4.108850628571432</v>
+        <v>69.84958594887907</v>
       </c>
       <c r="P7" t="n">
-        <v>31.9</v>
+        <v>18.47114298607437</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.23</v>
+        <v>8.623476864529941</v>
       </c>
       <c r="R7" t="n">
-        <v>86.68000000000001</v>
+        <v>26.45446719297504</v>
       </c>
       <c r="S7" t="n">
-        <v>28.48</v>
+        <v>13.45234326217924</v>
       </c>
       <c r="T7" t="n">
-        <v>32.45</v>
+        <v>136.3722768587681</v>
       </c>
       <c r="U7" t="n">
-        <v>17.35</v>
+        <v>32.32490513466536</v>
       </c>
       <c r="V7" t="n">
-        <v>38.03</v>
+        <v>7.227944059408699</v>
       </c>
       <c r="W7" t="n">
-        <v>51.13</v>
+        <v>4.760523624910106</v>
       </c>
       <c r="X7" t="n">
-        <v>43.6</v>
+        <v>32.25303965241852</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.13</v>
+        <v>8.264618359318927</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.43</v>
+        <v>20.40216926810025</v>
       </c>
       <c r="AA7" t="n">
-        <v>52.29</v>
+        <v>10.27296468617248</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.05</v>
+        <v>20.43468567688526</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.55</v>
+        <v>5.972324934011029</v>
       </c>
       <c r="AD7" t="n">
-        <v>34.29</v>
+        <v>44.67292148977562</v>
       </c>
       <c r="AE7" t="n">
-        <v>45.35</v>
+        <v>102.9089584626536</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.835981200000001</v>
+        <v>10.92216949388951</v>
       </c>
       <c r="AG7" t="n">
-        <v>4.320048457142858</v>
+        <v>9.629265413723292</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.57</v>
+        <v>6.138493574109063</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>83.69557822520487</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20.9</v>
+        <v>4.378317409733225</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.12</v>
+        <v>11.5426051612059</v>
       </c>
       <c r="AL7" t="n">
-        <v>7.44</v>
+        <v>2.064532342978084</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.77</v>
+        <v>1.963336306493458</v>
       </c>
       <c r="AN7" t="n">
-        <v>12.89</v>
+        <v>1.52689883631825</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.109189189189189</v>
+        <v>27.33304983292211</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.41</v>
+        <v>1.247820931394579</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.71</v>
+        <v>3.168451050885485</v>
       </c>
       <c r="AR7" t="n">
-        <v>16.6</v>
+        <v>8.979782426723517</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.02</v>
+        <v>2.028699183192818</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.1</v>
+        <v>6.132493652671289</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.52</v>
+        <v>3.313075623473821</v>
       </c>
       <c r="AV7" t="n">
-        <v>10.96</v>
+        <v>2.769584101616617</v>
       </c>
       <c r="AW7" t="n">
-        <v>12.83</v>
+        <v>3.338999216606128</v>
       </c>
       <c r="AX7" t="n">
-        <v>20.58</v>
+        <v>12.63773743985281</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.80373733417705</v>
+        <v>20.67076394970933</v>
       </c>
       <c r="D8" t="n">
-        <v>12.88156184465314</v>
+        <v>12.59247763270711</v>
       </c>
       <c r="E8" t="n">
-        <v>85.35658882311077</v>
+        <v>13.67541588723805</v>
       </c>
       <c r="F8" t="n">
-        <v>33.59796379694576</v>
+        <v>33.55069261420071</v>
       </c>
       <c r="G8" t="n">
-        <v>25.80592766830814</v>
+        <v>15.42368487694518</v>
       </c>
       <c r="H8" t="n">
-        <v>13.78435644612622</v>
+        <v>12.07246107971025</v>
       </c>
       <c r="I8" t="n">
-        <v>81.35100511467041</v>
+        <v>9.125986168657475</v>
       </c>
       <c r="J8" t="n">
-        <v>32.72845391976863</v>
+        <v>63.53329002274054</v>
       </c>
       <c r="K8" t="n">
-        <v>16.86356998031967</v>
+        <v>36.88458863008324</v>
       </c>
       <c r="L8" t="n">
-        <v>60.17137726531347</v>
+        <v>54.76820972406588</v>
       </c>
       <c r="M8" t="n">
-        <v>99.68011385553166</v>
+        <v>20.19626336420581</v>
       </c>
       <c r="N8" t="n">
-        <v>82.92775843883119</v>
+        <v>94.40560853284329</v>
       </c>
       <c r="O8" t="n">
-        <v>97.67146771914109</v>
+        <v>77.11903772663332</v>
       </c>
       <c r="P8" t="n">
-        <v>45.34770517939454</v>
+        <v>57.1371492853437</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.19988891620295</v>
+        <v>33.36540093481281</v>
       </c>
       <c r="R8" t="n">
-        <v>53.24086247189675</v>
+        <v>70.75318678417864</v>
       </c>
       <c r="S8" t="n">
-        <v>43.84619498499794</v>
+        <v>32.30222401069044</v>
       </c>
       <c r="T8" t="n">
-        <v>41.02079148150465</v>
+        <v>40.8708697482692</v>
       </c>
       <c r="U8" t="n">
-        <v>72.33981634486159</v>
+        <v>68.95581119179273</v>
       </c>
       <c r="V8" t="n">
-        <v>77.95097910163005</v>
+        <v>90.97724324141176</v>
       </c>
       <c r="W8" t="n">
-        <v>60.3750631542763</v>
+        <v>78.20303983356349</v>
       </c>
       <c r="X8" t="n">
-        <v>53.31192011728454</v>
+        <v>61.49118509799689</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.98065475212854</v>
+        <v>92.27440416143959</v>
       </c>
       <c r="Z8" t="n">
-        <v>47.1082988027807</v>
+        <v>54.88504649215629</v>
       </c>
       <c r="AA8" t="n">
-        <v>69.41553908442418</v>
+        <v>127.4306162306753</v>
       </c>
       <c r="AB8" t="n">
-        <v>117.8220226961033</v>
+        <v>154.7469782659309</v>
       </c>
       <c r="AC8" t="n">
-        <v>143.6458490766138</v>
+        <v>92.86741954424525</v>
       </c>
       <c r="AD8" t="n">
-        <v>119.4094228189704</v>
+        <v>123.0698535663919</v>
       </c>
       <c r="AE8" t="n">
-        <v>115.3985708434105</v>
+        <v>160.3921687052934</v>
       </c>
       <c r="AF8" t="n">
-        <v>56.7572845664184</v>
+        <v>134.523941141248</v>
       </c>
       <c r="AG8" t="n">
-        <v>68.10588180891372</v>
+        <v>159.2012129558736</v>
       </c>
       <c r="AH8" t="n">
-        <v>63.95879409764814</v>
+        <v>98.09141286577002</v>
       </c>
       <c r="AI8" t="n">
-        <v>95.66103447697191</v>
+        <v>75.5207114341399</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55.96253294028818</v>
+        <v>135.3852806096625</v>
       </c>
       <c r="AK8" t="n">
-        <v>33.26278270925696</v>
+        <v>82.67821400262856</v>
       </c>
       <c r="AL8" t="n">
-        <v>26.73901485407334</v>
+        <v>36.08248557407295</v>
       </c>
       <c r="AM8" t="n">
-        <v>28.62422731481</v>
+        <v>26.87161447545687</v>
       </c>
       <c r="AN8" t="n">
-        <v>21.89653942825609</v>
+        <v>27.06645767604338</v>
       </c>
       <c r="AO8" t="n">
-        <v>15.30801951017953</v>
+        <v>46.34748059280528</v>
       </c>
       <c r="AP8" t="n">
-        <v>21.60248137926914</v>
+        <v>26.32976803364211</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18.54451649487723</v>
+        <v>15.0832939374651</v>
       </c>
       <c r="AR8" t="n">
-        <v>20.0702350445438</v>
+        <v>23.12158284514713</v>
       </c>
       <c r="AS8" t="n">
-        <v>22.61635073859687</v>
+        <v>19.56401703813464</v>
       </c>
       <c r="AT8" t="n">
-        <v>12.31594154535442</v>
+        <v>25.2924317184956</v>
       </c>
       <c r="AU8" t="n">
-        <v>18.70873616855626</v>
+        <v>22.30549284773656</v>
       </c>
       <c r="AV8" t="n">
-        <v>15.86601877071085</v>
+        <v>28.80133048250321</v>
       </c>
       <c r="AW8" t="n">
-        <v>35.6146406126446</v>
+        <v>28.74177063460636</v>
       </c>
       <c r="AX8" t="n">
-        <v>17.80520538932734</v>
+        <v>24.78484802264124</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4.248929253107356</v>
+        <v>1.013112346629744</v>
       </c>
       <c r="D9" t="n">
-        <v>2.350623624358034</v>
+        <v>3.53590755348296</v>
       </c>
       <c r="E9" t="n">
-        <v>4.809828728043565</v>
+        <v>3.542668290356589</v>
       </c>
       <c r="F9" t="n">
-        <v>8.564017677782259</v>
+        <v>0.8238784336969329</v>
       </c>
       <c r="G9" t="n">
-        <v>3.307695526134904</v>
+        <v>0.7375129194470197</v>
       </c>
       <c r="H9" t="n">
-        <v>1.910013829595334</v>
+        <v>1.099910789164666</v>
       </c>
       <c r="I9" t="n">
-        <v>10.92863444383886</v>
+        <v>1.137899380292559</v>
       </c>
       <c r="J9" t="n">
-        <v>3.554413800000001</v>
+        <v>27.90018967199423</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9417574070509271</v>
+        <v>1.237503736777484</v>
       </c>
       <c r="L9" t="n">
-        <v>2.858632542088142</v>
+        <v>7.720717696779766</v>
       </c>
       <c r="M9" t="n">
-        <v>3.738153683856377</v>
+        <v>2.817177958021723</v>
       </c>
       <c r="N9" t="n">
-        <v>5.289176839904899</v>
+        <v>2.02857833189923</v>
       </c>
       <c r="O9" t="n">
-        <v>9.503014575553006</v>
+        <v>6.895445996342857</v>
       </c>
       <c r="P9" t="n">
-        <v>4.82032864267278</v>
+        <v>2.886094900668115</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.62551442032832</v>
+        <v>4.193853152219456</v>
       </c>
       <c r="R9" t="n">
-        <v>2.676461794113282</v>
+        <v>3.898289670844677</v>
       </c>
       <c r="S9" t="n">
-        <v>5.304201353044697</v>
+        <v>0.5828205195386893</v>
       </c>
       <c r="T9" t="n">
-        <v>5.478570100759648</v>
+        <v>2.9160565275767</v>
       </c>
       <c r="U9" t="n">
-        <v>3.708247102006665</v>
+        <v>2.614049244540613</v>
       </c>
       <c r="V9" t="n">
-        <v>3.69865265359998</v>
+        <v>3.090746980526685</v>
       </c>
       <c r="W9" t="n">
-        <v>2.782660684586305</v>
+        <v>4.913824619380684</v>
       </c>
       <c r="X9" t="n">
-        <v>11.70204539462708</v>
+        <v>0.7687518265577102</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.864980234219855</v>
+        <v>7.083213263221673</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.695947354747724</v>
+        <v>8.576409396135647</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.365739251335063</v>
+        <v>3.58277277860697</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.905241001187739</v>
+        <v>3.384744689304508</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.111272514260122</v>
+        <v>4.949048410636219</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.63978900017799</v>
+        <v>4.136368787518707</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.601179801025475</v>
+        <v>8.538359380964877</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.051666398129301</v>
+        <v>4.096955037377551</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.606073377540284</v>
+        <v>4.713732134176786</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.856656992223709</v>
+        <v>7.656678583290538</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.763282175010611</v>
+        <v>3.448759855818395</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.971994663224435</v>
+        <v>6.187659178008458</v>
       </c>
       <c r="AK9" t="n">
-        <v>9.201075798040943</v>
+        <v>8.454643419832127</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.24295304851194</v>
+        <v>5.400815248310624</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.971201453191926</v>
+        <v>7.116772514908498</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.640765943978478</v>
+        <v>1.660596384539349</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.553969937017059</v>
+        <v>6.475093834479937</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.1836146001976757</v>
+        <v>3.672777236950278</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.262357239231966</v>
+        <v>17.31928553990852</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.038972542072631</v>
+        <v>9.613987258875333</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.671572973931548</v>
+        <v>2.195107946131963</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.770367945634574</v>
+        <v>5.634418260462104</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.690060005217846</v>
+        <v>1.307561618301247</v>
       </c>
       <c r="AV9" t="n">
-        <v>5.413573827215961</v>
+        <v>0.3302502614864186</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.026956958361545</v>
+        <v>0.467487010219233</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.148019261694442</v>
+        <v>1.586562449962922</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>10.28511124300349</v>
+        <v>9.019474146409843</v>
       </c>
       <c r="D10" t="n">
-        <v>8.750769230769231</v>
+        <v>10.55667269715309</v>
       </c>
       <c r="E10" t="n">
-        <v>7.66533780348984</v>
+        <v>8.553241039536836</v>
       </c>
       <c r="F10" t="n">
-        <v>25.78641465856683</v>
+        <v>7.138750507932311</v>
       </c>
       <c r="G10" t="n">
-        <v>22.04837005975252</v>
+        <v>23.89855467533551</v>
       </c>
       <c r="H10" t="n">
-        <v>8.449198627966839</v>
+        <v>20.89868929625509</v>
       </c>
       <c r="I10" t="n">
-        <v>31.67382272363445</v>
+        <v>109.6621207814808</v>
       </c>
       <c r="J10" t="n">
-        <v>42.67731847216708</v>
+        <v>13.02437271453812</v>
       </c>
       <c r="K10" t="n">
-        <v>51.61418732549946</v>
+        <v>15.63027157648963</v>
       </c>
       <c r="L10" t="n">
-        <v>55.23328182148433</v>
+        <v>115.8004349425342</v>
       </c>
       <c r="M10" t="n">
-        <v>35.22136025837528</v>
+        <v>70.47246622789648</v>
       </c>
       <c r="N10" t="n">
-        <v>50.55000607943962</v>
+        <v>51.15185313575795</v>
       </c>
       <c r="O10" t="n">
-        <v>29.16114545469673</v>
+        <v>23.76140555862509</v>
       </c>
       <c r="P10" t="n">
-        <v>26.80495617254564</v>
+        <v>76.33103487789654</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.76694237614566</v>
+        <v>55.8298910682334</v>
       </c>
       <c r="R10" t="n">
-        <v>79.68556368381492</v>
+        <v>78.11750899937518</v>
       </c>
       <c r="S10" t="n">
-        <v>45.84052677871608</v>
+        <v>23.02975957747951</v>
       </c>
       <c r="T10" t="n">
-        <v>44.94320628515443</v>
+        <v>96.64909292073129</v>
       </c>
       <c r="U10" t="n">
-        <v>45.23835730641598</v>
+        <v>101.1405512847024</v>
       </c>
       <c r="V10" t="n">
-        <v>63.74932576809319</v>
+        <v>112.1168651953901</v>
       </c>
       <c r="W10" t="n">
-        <v>88.51232916841755</v>
+        <v>99.47283693696509</v>
       </c>
       <c r="X10" t="n">
-        <v>66.39260791313569</v>
+        <v>61.02512768146565</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.30892418663413</v>
+        <v>34.89444769752248</v>
       </c>
       <c r="Z10" t="n">
-        <v>31.92679669748319</v>
+        <v>96.16344047354899</v>
       </c>
       <c r="AA10" t="n">
-        <v>83.68821535536863</v>
+        <v>65.37782033104008</v>
       </c>
       <c r="AB10" t="n">
-        <v>33.49145481222637</v>
+        <v>42.96295765466654</v>
       </c>
       <c r="AC10" t="n">
-        <v>75.38578588453225</v>
+        <v>52.96977171220601</v>
       </c>
       <c r="AD10" t="n">
-        <v>182.0095345380677</v>
+        <v>100.6529947464014</v>
       </c>
       <c r="AE10" t="n">
-        <v>97.53321472100419</v>
+        <v>82.07099667889916</v>
       </c>
       <c r="AF10" t="n">
-        <v>59.93879014392225</v>
+        <v>35.12129340735689</v>
       </c>
       <c r="AG10" t="n">
-        <v>75.93778251379271</v>
+        <v>69.67779005699046</v>
       </c>
       <c r="AH10" t="n">
-        <v>54.9349276597507</v>
+        <v>42.16454019159375</v>
       </c>
       <c r="AI10" t="n">
-        <v>16.28495511073945</v>
+        <v>79.04592503815648</v>
       </c>
       <c r="AJ10" t="n">
-        <v>68.43666666666667</v>
+        <v>32.21903498025405</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.53328999015333</v>
+        <v>12.81889006708741</v>
       </c>
       <c r="AL10" t="n">
-        <v>68.2738409030904</v>
+        <v>25.95264594486725</v>
       </c>
       <c r="AM10" t="n">
-        <v>8.406414222222223</v>
+        <v>34.50210857935822</v>
       </c>
       <c r="AN10" t="n">
-        <v>17.64150189272128</v>
+        <v>28.31699467331898</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.599253978923549</v>
+        <v>24.6986190538564</v>
       </c>
       <c r="AP10" t="n">
-        <v>12.8586800478696</v>
+        <v>26.3627601271073</v>
       </c>
       <c r="AQ10" t="n">
-        <v>13.72203389830509</v>
+        <v>20.45371723692738</v>
       </c>
       <c r="AR10" t="n">
-        <v>17.53315081652258</v>
+        <v>21.52015066145153</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.075391751509922</v>
+        <v>30.93639869737557</v>
       </c>
       <c r="AT10" t="n">
-        <v>22.666403375</v>
+        <v>27.34213365585196</v>
       </c>
       <c r="AU10" t="n">
-        <v>11.58758705530693</v>
+        <v>7.939818859047716</v>
       </c>
       <c r="AV10" t="n">
-        <v>7.30561156496345</v>
+        <v>20.83152345758416</v>
       </c>
       <c r="AW10" t="n">
-        <v>11.09564569635931</v>
+        <v>33.64638866844874</v>
       </c>
       <c r="AX10" t="n">
-        <v>19.00778400145751</v>
+        <v>9.152312455908765</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>7.313880182016407</v>
+        <v>72.43470119111753</v>
       </c>
       <c r="D11" t="n">
-        <v>34.712604713753</v>
+        <v>102.4281930592645</v>
       </c>
       <c r="E11" t="n">
-        <v>45.10932209412682</v>
+        <v>24.93345302233769</v>
       </c>
       <c r="F11" t="n">
-        <v>21.01803429344916</v>
+        <v>2.687966533536346</v>
       </c>
       <c r="G11" t="n">
-        <v>33.51902445265665</v>
+        <v>12.88821359745889</v>
       </c>
       <c r="H11" t="n">
-        <v>41.83866078155815</v>
+        <v>25.96711499405236</v>
       </c>
       <c r="I11" t="n">
-        <v>81.08529585665055</v>
+        <v>29.90773038112718</v>
       </c>
       <c r="J11" t="n">
-        <v>87.48609012629693</v>
+        <v>48.09285730294408</v>
       </c>
       <c r="K11" t="n">
-        <v>55.89248741712071</v>
+        <v>15.81541025740198</v>
       </c>
       <c r="L11" t="n">
-        <v>113.665816734612</v>
+        <v>8.287147727181678</v>
       </c>
       <c r="M11" t="n">
-        <v>8.331352764440481</v>
+        <v>30.53118420788704</v>
       </c>
       <c r="N11" t="n">
-        <v>88.38982230675559</v>
+        <v>33.77086950773523</v>
       </c>
       <c r="O11" t="n">
-        <v>26.88578717541422</v>
+        <v>59.85489368819677</v>
       </c>
       <c r="P11" t="n">
-        <v>11.99158879991709</v>
+        <v>110.1591723260888</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.78283203159395</v>
+        <v>25.69269132772997</v>
       </c>
       <c r="R11" t="n">
-        <v>133.3078844211746</v>
+        <v>38.16774432263478</v>
       </c>
       <c r="S11" t="n">
-        <v>22.41487428769663</v>
+        <v>37.68482477446768</v>
       </c>
       <c r="T11" t="n">
-        <v>93.25111653484575</v>
+        <v>12.07397441074423</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>114.298717678533</v>
       </c>
       <c r="V11" t="n">
-        <v>37.23575889261014</v>
+        <v>62.440241827434</v>
       </c>
       <c r="W11" t="n">
-        <v>21.00064084414281</v>
+        <v>35.82091728132696</v>
       </c>
       <c r="X11" t="n">
-        <v>50.72388956711487</v>
+        <v>198.4471999428295</v>
       </c>
       <c r="Y11" t="n">
-        <v>76.22661933545341</v>
+        <v>22.04488152072456</v>
       </c>
       <c r="Z11" t="n">
-        <v>101.1003565394803</v>
+        <v>49.63072643940282</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.05033126941109</v>
+        <v>31.81720335005276</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.87566264271342</v>
+        <v>10.57462925201539</v>
       </c>
       <c r="AC11" t="n">
-        <v>56.84486478779308</v>
+        <v>25.84747732377548</v>
       </c>
       <c r="AD11" t="n">
-        <v>56.08432135501945</v>
+        <v>39.68080876921003</v>
       </c>
       <c r="AE11" t="n">
-        <v>23.77096063219695</v>
+        <v>93.1678978233124</v>
       </c>
       <c r="AF11" t="n">
-        <v>55.23449774643768</v>
+        <v>44.32364286997718</v>
       </c>
       <c r="AG11" t="n">
-        <v>62.29678663999217</v>
+        <v>16.58472974131097</v>
       </c>
       <c r="AH11" t="n">
-        <v>10.27387499760842</v>
+        <v>30.78222807252947</v>
       </c>
       <c r="AI11" t="n">
-        <v>10.56111631954404</v>
+        <v>6.024387467556449</v>
       </c>
       <c r="AJ11" t="n">
-        <v>31.07639916503323</v>
+        <v>8.461483448392634</v>
       </c>
       <c r="AK11" t="n">
-        <v>31.51192322617854</v>
+        <v>45.94894228246206</v>
       </c>
       <c r="AL11" t="n">
-        <v>40.40664440340616</v>
+        <v>31.39741302776393</v>
       </c>
       <c r="AM11" t="n">
-        <v>18.75224949208669</v>
+        <v>8.783857440972199</v>
       </c>
       <c r="AN11" t="n">
-        <v>35.31625294346929</v>
+        <v>62.73922364322468</v>
       </c>
       <c r="AO11" t="n">
-        <v>20.10954647717899</v>
+        <v>9.822657745794379</v>
       </c>
       <c r="AP11" t="n">
-        <v>20.9909114354816</v>
+        <v>29.68157958642641</v>
       </c>
       <c r="AQ11" t="n">
-        <v>45.25491494305176</v>
+        <v>11.79580792556048</v>
       </c>
       <c r="AR11" t="n">
-        <v>26.1811400462432</v>
+        <v>53.36610908281058</v>
       </c>
       <c r="AS11" t="n">
-        <v>30.91142467943846</v>
+        <v>72.87147586005584</v>
       </c>
       <c r="AT11" t="n">
-        <v>4.688705640255082</v>
+        <v>18.6726431549784</v>
       </c>
       <c r="AU11" t="n">
-        <v>23.77016097502075</v>
+        <v>90.50652272241589</v>
       </c>
       <c r="AV11" t="n">
-        <v>28.83283998240115</v>
+        <v>23.4543414362088</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.3590762694402958</v>
+        <v>39.51135157678497</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.054982566455598</v>
+        <v>38.32126253580847</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.558571428571428</v>
+        <v>2.97489002220615</v>
       </c>
       <c r="D12" t="n">
-        <v>3.578172656799033</v>
+        <v>6.52668514672291</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9368625620571137</v>
+        <v>3.741747596707349</v>
       </c>
       <c r="F12" t="n">
-        <v>2.754461428741346</v>
+        <v>21.7615494876671</v>
       </c>
       <c r="G12" t="n">
-        <v>4.920742872499149</v>
+        <v>2.950222192432202</v>
       </c>
       <c r="H12" t="n">
-        <v>25.71910557903204</v>
+        <v>3.275363285747166</v>
       </c>
       <c r="I12" t="n">
-        <v>1.722471876602732</v>
+        <v>5.348344786553721</v>
       </c>
       <c r="J12" t="n">
-        <v>10.71889239899278</v>
+        <v>87.4364595513389</v>
       </c>
       <c r="K12" t="n">
-        <v>30.36239419527866</v>
+        <v>22.69523208118543</v>
       </c>
       <c r="L12" t="n">
-        <v>12.13050392790257</v>
+        <v>18.63750567643827</v>
       </c>
       <c r="M12" t="n">
-        <v>2.253568065506653</v>
+        <v>196.1915337115996</v>
       </c>
       <c r="N12" t="n">
-        <v>5.288668251595821</v>
+        <v>46.2667360819321</v>
       </c>
       <c r="O12" t="n">
-        <v>25.16920977291293</v>
+        <v>21.39436064851947</v>
       </c>
       <c r="P12" t="n">
-        <v>12.15502739712861</v>
+        <v>50.55525749645579</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.45049850070562</v>
+        <v>73.43243738245974</v>
       </c>
       <c r="R12" t="n">
-        <v>12.26188054545545</v>
+        <v>3.965111945756003</v>
       </c>
       <c r="S12" t="n">
-        <v>28.3301436366003</v>
+        <v>15.09273423795225</v>
       </c>
       <c r="T12" t="n">
-        <v>74.27600333904427</v>
+        <v>42.34100053280384</v>
       </c>
       <c r="U12" t="n">
-        <v>9.813085152630919</v>
+        <v>28.45932648168706</v>
       </c>
       <c r="V12" t="n">
-        <v>19.50223700537837</v>
+        <v>20.86395630183963</v>
       </c>
       <c r="W12" t="n">
-        <v>18.87414325227427</v>
+        <v>29.0502867496367</v>
       </c>
       <c r="X12" t="n">
-        <v>23.07640707665552</v>
+        <v>16.83630927795026</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.69004503315917</v>
+        <v>13.69638776635196</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.58145525434705</v>
+        <v>11.03031119197589</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.94781532066724</v>
+        <v>12.89445350216931</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.49053471969034</v>
+        <v>17.78671036725396</v>
       </c>
       <c r="AC12" t="n">
-        <v>23.34530607231411</v>
+        <v>24.04749716744924</v>
       </c>
       <c r="AD12" t="n">
-        <v>25.73901971959421</v>
+        <v>12.56774446038893</v>
       </c>
       <c r="AE12" t="n">
-        <v>37.14564917538868</v>
+        <v>20.23548034005951</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.806136062612882</v>
+        <v>19.53428867831258</v>
       </c>
       <c r="AG12" t="n">
-        <v>30.32316455623264</v>
+        <v>21.71051858748889</v>
       </c>
       <c r="AH12" t="n">
-        <v>10.26502066011358</v>
+        <v>6.227453677007399</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.153401471908044</v>
+        <v>20.19773513533274</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.95364564618911</v>
+        <v>12.68058983611917</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.761822167487287</v>
+        <v>12.20371463040844</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.519922635298849</v>
+        <v>8.076533799202233</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.865427960901715</v>
+        <v>7.381664315295876</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.229356124458277</v>
+        <v>1.118261384887859</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.56126220540675</v>
+        <v>2.908159907967752</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.929067489682404</v>
+        <v>3.102285275600529</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.876412893569343</v>
+        <v>0.8628808221822428</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.538681615940813</v>
+        <v>11.59895127284451</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.66</v>
+        <v>0.6653808051620369</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.122808109629757</v>
+        <v>7.000370596842244</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.400936274320953</v>
+        <v>0.7408565546508946</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.012672275402042</v>
+        <v>14.63652996946751</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.555919870314146</v>
+        <v>2.095519223225885</v>
       </c>
       <c r="AX12" t="n">
-        <v>5.505314583371795</v>
+        <v>1.00029135530138</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2.3</v>
+        <v>10.68477733434776</v>
       </c>
       <c r="D13" t="n">
-        <v>9.51</v>
+        <v>5.489289396466264</v>
       </c>
       <c r="E13" t="n">
-        <v>13.69</v>
+        <v>17.51975052211126</v>
       </c>
       <c r="F13" t="n">
-        <v>13.69</v>
+        <v>12.60181930979548</v>
       </c>
       <c r="G13" t="n">
-        <v>27.08</v>
+        <v>8.557308960629182</v>
       </c>
       <c r="H13" t="n">
-        <v>5.885681124827466</v>
+        <v>1.055272629023887</v>
       </c>
       <c r="I13" t="n">
-        <v>61.16</v>
+        <v>2.392916359327382</v>
       </c>
       <c r="J13" t="n">
-        <v>8.65</v>
+        <v>15.27903043067315</v>
       </c>
       <c r="K13" t="n">
-        <v>64.97</v>
+        <v>56.26318315354485</v>
       </c>
       <c r="L13" t="n">
-        <v>11.81</v>
+        <v>7.860883811037387</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>13.5743638264213</v>
       </c>
       <c r="N13" t="n">
-        <v>30.63</v>
+        <v>28.250757684803</v>
       </c>
       <c r="O13" t="n">
-        <v>32.65</v>
+        <v>4.689793418581714</v>
       </c>
       <c r="P13" t="n">
-        <v>118.71</v>
+        <v>12.74294196434483</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.74</v>
+        <v>43.64137045068255</v>
       </c>
       <c r="R13" t="n">
-        <v>43.94</v>
+        <v>13.19872306389986</v>
       </c>
       <c r="S13" t="n">
-        <v>30.65</v>
+        <v>1.119625615759715</v>
       </c>
       <c r="T13" t="n">
-        <v>40.1</v>
+        <v>10.55910681649322</v>
       </c>
       <c r="U13" t="n">
-        <v>25.16</v>
+        <v>74.38414898015259</v>
       </c>
       <c r="V13" t="n">
-        <v>40.1</v>
+        <v>22.99879963166986</v>
       </c>
       <c r="W13" t="n">
-        <v>21.4</v>
+        <v>23.89051386848989</v>
       </c>
       <c r="X13" t="n">
-        <v>9.869999999999999</v>
+        <v>42.48182465622321</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>11.84969649798825</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.76512070701881</v>
+        <v>8.923403096008087</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.07</v>
+        <v>20.24783833820359</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>1.50248375862663</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>6.095235684741917</v>
       </c>
       <c r="AD13" t="n">
-        <v>32.06</v>
+        <v>9.902301669003723</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.25</v>
+        <v>5.18747534711358</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.37</v>
+        <v>7.146407550910364</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.37</v>
+        <v>16.89358368261513</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.37</v>
+        <v>26.9481006721639</v>
       </c>
       <c r="AI13" t="n">
-        <v>40.27</v>
+        <v>8.453612626712202</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11.14</v>
+        <v>6.32259843286954</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.83792161585027</v>
+        <v>7.273275633068558</v>
       </c>
       <c r="AL13" t="n">
-        <v>10.68</v>
+        <v>2.67728402668326</v>
       </c>
       <c r="AM13" t="n">
-        <v>19.21</v>
+        <v>0.658366846231645</v>
       </c>
       <c r="AN13" t="n">
-        <v>71.84</v>
+        <v>5.122583677315403</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.86</v>
+        <v>1.653352183097949</v>
       </c>
       <c r="AP13" t="n">
-        <v>12.1</v>
+        <v>18.6108793087938</v>
       </c>
       <c r="AQ13" t="n">
-        <v>10.34</v>
+        <v>9.611185960733801</v>
       </c>
       <c r="AR13" t="n">
-        <v>8.17</v>
+        <v>6.412094770305167</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.32</v>
+        <v>8.769513569180704</v>
       </c>
       <c r="AT13" t="n">
-        <v>10.71</v>
+        <v>30.41805464509459</v>
       </c>
       <c r="AU13" t="n">
-        <v>14.6</v>
+        <v>16.39789215345817</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.54</v>
+        <v>23.90794101841208</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.6436819436477933</v>
+        <v>7.627802388856258</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.12</v>
+        <v>11.43512379215822</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>15.61404110455658</v>
+        <v>17.77761258606593</v>
       </c>
       <c r="D14" t="n">
-        <v>20.04139777391745</v>
+        <v>18.07652147233151</v>
       </c>
       <c r="E14" t="n">
-        <v>34.59348928355157</v>
+        <v>43.59047778538422</v>
       </c>
       <c r="F14" t="n">
-        <v>19.31302276737841</v>
+        <v>28.01046122535356</v>
       </c>
       <c r="G14" t="n">
-        <v>38.94483345679975</v>
+        <v>30.40275390738917</v>
       </c>
       <c r="H14" t="n">
-        <v>55.05065530728693</v>
+        <v>45.2396724220706</v>
       </c>
       <c r="I14" t="n">
-        <v>139.7424397878208</v>
+        <v>93.27247063610135</v>
       </c>
       <c r="J14" t="n">
-        <v>16.49769599816576</v>
+        <v>66.73497738721403</v>
       </c>
       <c r="K14" t="n">
-        <v>20.17217747971551</v>
+        <v>35.15205577868107</v>
       </c>
       <c r="L14" t="n">
-        <v>79.39569273730774</v>
+        <v>25.78721250334827</v>
       </c>
       <c r="M14" t="n">
-        <v>65.02305607671191</v>
+        <v>47.62901074617525</v>
       </c>
       <c r="N14" t="n">
-        <v>84.43292789143948</v>
+        <v>35.32928600473663</v>
       </c>
       <c r="O14" t="n">
-        <v>41.58306948783286</v>
+        <v>52.86847501468127</v>
       </c>
       <c r="P14" t="n">
-        <v>37.52333864740454</v>
+        <v>52.3342467639957</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.69182938313293</v>
+        <v>42.5877139339596</v>
       </c>
       <c r="R14" t="n">
-        <v>38.64921067717739</v>
+        <v>36.69860791445968</v>
       </c>
       <c r="S14" t="n">
-        <v>38.26659797724854</v>
+        <v>71.29303865131588</v>
       </c>
       <c r="T14" t="n">
-        <v>129.968809488787</v>
+        <v>64.5320856768288</v>
       </c>
       <c r="U14" t="n">
-        <v>67.97316827546315</v>
+        <v>52.64272445499331</v>
       </c>
       <c r="V14" t="n">
-        <v>40.55589682849365</v>
+        <v>44.03121200469424</v>
       </c>
       <c r="W14" t="n">
-        <v>37.9204633272664</v>
+        <v>89.12734304230209</v>
       </c>
       <c r="X14" t="n">
-        <v>64.57120895428339</v>
+        <v>52.70563215682346</v>
       </c>
       <c r="Y14" t="n">
-        <v>60.67712016064801</v>
+        <v>78.71317692922888</v>
       </c>
       <c r="Z14" t="n">
-        <v>60.30436374591852</v>
+        <v>79.38921516670472</v>
       </c>
       <c r="AA14" t="n">
-        <v>57.54117068560836</v>
+        <v>70.01974953206398</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.9559350657239</v>
+        <v>116.0618020570917</v>
       </c>
       <c r="AC14" t="n">
-        <v>127.218714949453</v>
+        <v>123.3914837358335</v>
       </c>
       <c r="AD14" t="n">
-        <v>105.3485838730495</v>
+        <v>45.58942813489257</v>
       </c>
       <c r="AE14" t="n">
-        <v>60.20050070654818</v>
+        <v>71.68885530074054</v>
       </c>
       <c r="AF14" t="n">
-        <v>129.655900877452</v>
+        <v>104.0177924847033</v>
       </c>
       <c r="AG14" t="n">
-        <v>145.534861771955</v>
+        <v>66.12159782377346</v>
       </c>
       <c r="AH14" t="n">
-        <v>133.6367967364737</v>
+        <v>49.34806948836155</v>
       </c>
       <c r="AI14" t="n">
-        <v>45.32913629281829</v>
+        <v>60.65484560224599</v>
       </c>
       <c r="AJ14" t="n">
-        <v>87.54568050299503</v>
+        <v>33.315505492285</v>
       </c>
       <c r="AK14" t="n">
-        <v>48.1951433853335</v>
+        <v>26.47140505082249</v>
       </c>
       <c r="AL14" t="n">
-        <v>68.21371765199731</v>
+        <v>34.55487717025377</v>
       </c>
       <c r="AM14" t="n">
-        <v>48.73544843590224</v>
+        <v>31.76033244343403</v>
       </c>
       <c r="AN14" t="n">
-        <v>22.95743973319168</v>
+        <v>33.82979120456927</v>
       </c>
       <c r="AO14" t="n">
-        <v>27.50238540202561</v>
+        <v>36.69687746539449</v>
       </c>
       <c r="AP14" t="n">
-        <v>31.91803935427077</v>
+        <v>21.66437610760953</v>
       </c>
       <c r="AQ14" t="n">
-        <v>28.07626381775497</v>
+        <v>17.45737458072236</v>
       </c>
       <c r="AR14" t="n">
-        <v>38.12454710353367</v>
+        <v>36.25780829005572</v>
       </c>
       <c r="AS14" t="n">
-        <v>31.59346584916528</v>
+        <v>18.05485221984823</v>
       </c>
       <c r="AT14" t="n">
-        <v>14.567448769644</v>
+        <v>15.05178088664686</v>
       </c>
       <c r="AU14" t="n">
-        <v>13.06634568327597</v>
+        <v>16.47483164141279</v>
       </c>
       <c r="AV14" t="n">
-        <v>18.78704138337447</v>
+        <v>19.57397129805668</v>
       </c>
       <c r="AW14" t="n">
-        <v>22.75653010582943</v>
+        <v>14.35235808858848</v>
       </c>
       <c r="AX14" t="n">
-        <v>21.26189730145372</v>
+        <v>10.01858402444455</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>3.039940812976051</v>
+        <v>0.1388391524647336</v>
       </c>
       <c r="D15" t="n">
-        <v>5.016109907693004</v>
+        <v>1.147128810348837</v>
       </c>
       <c r="E15" t="n">
-        <v>1.964881621638986</v>
+        <v>2.056483494786491</v>
       </c>
       <c r="F15" t="n">
-        <v>2.910063356110427</v>
+        <v>9.521362031183399</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08753354958353478</v>
+        <v>0.6539235823302401</v>
       </c>
       <c r="H15" t="n">
-        <v>1.686578560939794</v>
+        <v>1.236482081995247</v>
       </c>
       <c r="I15" t="n">
-        <v>2.530976319283829</v>
+        <v>43.10191017249547</v>
       </c>
       <c r="J15" t="n">
-        <v>4.110608833358781</v>
+        <v>5.097917316079764</v>
       </c>
       <c r="K15" t="n">
-        <v>5.762364479767692</v>
+        <v>6.506633429901538</v>
       </c>
       <c r="L15" t="n">
-        <v>3.362843379768259</v>
+        <v>7.121638811846874</v>
       </c>
       <c r="M15" t="n">
-        <v>20.87317769669846</v>
+        <v>1.134332636753387</v>
       </c>
       <c r="N15" t="n">
-        <v>7.492409532215357</v>
+        <v>2.34325539619587</v>
       </c>
       <c r="O15" t="n">
-        <v>2.345614074255989</v>
+        <v>1.892501519237813</v>
       </c>
       <c r="P15" t="n">
-        <v>8.55497978590944</v>
+        <v>10.79861776933694</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.352418848558913</v>
+        <v>6.898018224437267</v>
       </c>
       <c r="R15" t="n">
-        <v>2.674096681742274</v>
+        <v>3.787340723170426</v>
       </c>
       <c r="S15" t="n">
-        <v>6.475335161583165</v>
+        <v>2.049116271336102</v>
       </c>
       <c r="T15" t="n">
-        <v>2.653259216747306</v>
+        <v>1.817174423194276</v>
       </c>
       <c r="U15" t="n">
-        <v>4.763982716219908</v>
+        <v>3.891533968159437</v>
       </c>
       <c r="V15" t="n">
-        <v>2.305141610133308</v>
+        <v>1.672096158970265</v>
       </c>
       <c r="W15" t="n">
-        <v>4.955773145264675</v>
+        <v>5.999424014721103</v>
       </c>
       <c r="X15" t="n">
-        <v>5.719903145598169</v>
+        <v>5.333213599865265</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.827909692730144</v>
+        <v>4.643895147167227</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.256858428467697</v>
+        <v>2.032636479512161</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.661464769648199</v>
+        <v>8.015077341537838</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.04572225894103</v>
+        <v>4.739648528777582</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.361887822816668</v>
+        <v>5.870471339706985</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.9410340826097</v>
+        <v>3.589550378697284</v>
       </c>
       <c r="AE15" t="n">
-        <v>3.104958815805181</v>
+        <v>4.649787293013655</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.693562432365149</v>
+        <v>3.404505612807796</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.23453152187153</v>
+        <v>6.177923658238631</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.971555074014994</v>
+        <v>4.733428080353835</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.740766786420171</v>
+        <v>7.448014912927008</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.535449367522251</v>
+        <v>5.414923374178251</v>
       </c>
       <c r="AK15" t="n">
-        <v>6.869133013273088</v>
+        <v>5.901023949745658</v>
       </c>
       <c r="AL15" t="n">
-        <v>5.039484135208555</v>
+        <v>4.87968000012215</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.103569536389171</v>
+        <v>4.607579210196337</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.882483870752044</v>
+        <v>4.007103946109066</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.7187002006652</v>
+        <v>3.119285290994383</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.292471358428805</v>
+        <v>3.362315151212494</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.32772382484729</v>
+        <v>3.233506462415329</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.861908969680256</v>
+        <v>2.167171784401934</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.591914790607601</v>
+        <v>1.866017758614021</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.223466286713569</v>
+        <v>1.554172286657656</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.596788881587081</v>
+        <v>2.349353867965202</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.21558964568987</v>
+        <v>0.2339123697938072</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.691566466028186</v>
+        <v>2.257065231679522</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.402101567114099</v>
+        <v>19.09772839946088</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>12.27588807449592</v>
+        <v>11.19409400853523</v>
       </c>
       <c r="D16" t="n">
-        <v>11.10090780406115</v>
+        <v>5.369644842621286</v>
       </c>
       <c r="E16" t="n">
-        <v>7.66533780348984</v>
+        <v>8.948642443769462</v>
       </c>
       <c r="F16" t="n">
-        <v>5.282981179422835</v>
+        <v>16.7945635234544</v>
       </c>
       <c r="G16" t="n">
-        <v>8.613623874940787</v>
+        <v>7.591417360694453</v>
       </c>
       <c r="H16" t="n">
-        <v>78.9011265933859</v>
+        <v>44.46127172092304</v>
       </c>
       <c r="I16" t="n">
-        <v>219.6434835851854</v>
+        <v>9.919381398887607</v>
       </c>
       <c r="J16" t="n">
-        <v>22.66721864211301</v>
+        <v>79.2810052852644</v>
       </c>
       <c r="K16" t="n">
-        <v>70.21046128464421</v>
+        <v>24.83909009552071</v>
       </c>
       <c r="L16" t="n">
-        <v>166.1150583888731</v>
+        <v>60.29495891705461</v>
       </c>
       <c r="M16" t="n">
-        <v>53.16468774301322</v>
+        <v>53.02160250764664</v>
       </c>
       <c r="N16" t="n">
-        <v>103.4953055366212</v>
+        <v>55.96393924136628</v>
       </c>
       <c r="O16" t="n">
-        <v>37.00012856903768</v>
+        <v>53.73840825413201</v>
       </c>
       <c r="P16" t="n">
-        <v>70.88054209120585</v>
+        <v>322.9153243669973</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.75684736344117</v>
+        <v>21.6606343820007</v>
       </c>
       <c r="R16" t="n">
-        <v>79.04898434599896</v>
+        <v>74.36666501561145</v>
       </c>
       <c r="S16" t="n">
-        <v>81.9570709536282</v>
+        <v>70.36101689003115</v>
       </c>
       <c r="T16" t="n">
-        <v>70.12260397731956</v>
+        <v>39.64826099777387</v>
       </c>
       <c r="U16" t="n">
-        <v>81.88773341524802</v>
+        <v>188.9201546915316</v>
       </c>
       <c r="V16" t="n">
-        <v>60.74201973003476</v>
+        <v>73.31068243005913</v>
       </c>
       <c r="W16" t="n">
-        <v>40.61469234057648</v>
+        <v>119.0308871221491</v>
       </c>
       <c r="X16" t="n">
-        <v>76.71101060770658</v>
+        <v>143.0111514263895</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.99858424283431</v>
+        <v>48.37022065706139</v>
       </c>
       <c r="Z16" t="n">
-        <v>41.91018371717324</v>
+        <v>43.24370898024006</v>
       </c>
       <c r="AA16" t="n">
-        <v>73.29547586371622</v>
+        <v>84.99691426445382</v>
       </c>
       <c r="AB16" t="n">
-        <v>60.53698560070078</v>
+        <v>206.6104434241626</v>
       </c>
       <c r="AC16" t="n">
-        <v>120.3686079398096</v>
+        <v>76.20347613708398</v>
       </c>
       <c r="AD16" t="n">
-        <v>59.3351728717918</v>
+        <v>56.02340157721653</v>
       </c>
       <c r="AE16" t="n">
-        <v>68.87249700256334</v>
+        <v>146.7944913081907</v>
       </c>
       <c r="AF16" t="n">
-        <v>55.35658484385594</v>
+        <v>86.44352976710948</v>
       </c>
       <c r="AG16" t="n">
-        <v>89.62140741455784</v>
+        <v>44.28985497907377</v>
       </c>
       <c r="AH16" t="n">
-        <v>26.64383851257813</v>
+        <v>107.4133072816849</v>
       </c>
       <c r="AI16" t="n">
-        <v>23.93021961396864</v>
+        <v>48.58053576715695</v>
       </c>
       <c r="AJ16" t="n">
-        <v>74.07735035316553</v>
+        <v>28.86721877821777</v>
       </c>
       <c r="AK16" t="n">
-        <v>26.56102648312655</v>
+        <v>73.87311680659317</v>
       </c>
       <c r="AL16" t="n">
-        <v>10.88203846658</v>
+        <v>18.16024572219802</v>
       </c>
       <c r="AM16" t="n">
-        <v>31.59775849854029</v>
+        <v>39.90635903733592</v>
       </c>
       <c r="AN16" t="n">
-        <v>45.10770421593185</v>
+        <v>21.52784725220354</v>
       </c>
       <c r="AO16" t="n">
-        <v>47.58011697292384</v>
+        <v>21.52611320376526</v>
       </c>
       <c r="AP16" t="n">
-        <v>13.88983282889147</v>
+        <v>17.19322458508928</v>
       </c>
       <c r="AQ16" t="n">
-        <v>15.12653558022219</v>
+        <v>12.96693447336125</v>
       </c>
       <c r="AR16" t="n">
-        <v>13.69783298826777</v>
+        <v>18.53123606764555</v>
       </c>
       <c r="AS16" t="n">
-        <v>14.42871583290356</v>
+        <v>15.17550044550651</v>
       </c>
       <c r="AT16" t="n">
-        <v>14.08644393507979</v>
+        <v>10.98870153458646</v>
       </c>
       <c r="AU16" t="n">
-        <v>11.1833417903248</v>
+        <v>15.74584440550777</v>
       </c>
       <c r="AV16" t="n">
-        <v>12.35931561379652</v>
+        <v>13.86753491106492</v>
       </c>
       <c r="AW16" t="n">
-        <v>7.872598088453091</v>
+        <v>14.8170954654287</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.791590493601463</v>
+        <v>7.993447432481179</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>23.29200338638153</v>
+        <v>14.61894911950013</v>
       </c>
       <c r="D17" t="n">
-        <v>15.54675634108692</v>
+        <v>105.2062200376659</v>
       </c>
       <c r="E17" t="n">
-        <v>23.35474237129252</v>
+        <v>11.25553383146531</v>
       </c>
       <c r="F17" t="n">
-        <v>17.80285639006983</v>
+        <v>7.702947493975332</v>
       </c>
       <c r="G17" t="n">
-        <v>33.51902445265665</v>
+        <v>53.85927639447664</v>
       </c>
       <c r="H17" t="n">
-        <v>19.01531071869286</v>
+        <v>39.97020236669785</v>
       </c>
       <c r="I17" t="n">
-        <v>36.32499519685987</v>
+        <v>102.5245595923925</v>
       </c>
       <c r="J17" t="n">
-        <v>87.48609012629693</v>
+        <v>94.63187746822712</v>
       </c>
       <c r="K17" t="n">
-        <v>44.75815635349109</v>
+        <v>13.33250238459643</v>
       </c>
       <c r="L17" t="n">
-        <v>27.19043047834219</v>
+        <v>81.43281546293782</v>
       </c>
       <c r="M17" t="n">
-        <v>63.26003977660318</v>
+        <v>50.14258680299702</v>
       </c>
       <c r="N17" t="n">
-        <v>25.34404593883828</v>
+        <v>60.59600000924397</v>
       </c>
       <c r="O17" t="n">
-        <v>18.56490087497525</v>
+        <v>13.33967015486666</v>
       </c>
       <c r="P17" t="n">
-        <v>26.84257773810269</v>
+        <v>173.47107094516</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>50.04389883380819</v>
       </c>
       <c r="R17" t="n">
-        <v>52.65733863624248</v>
+        <v>172.0650688992444</v>
       </c>
       <c r="S17" t="n">
-        <v>56.09846114374294</v>
+        <v>26.83588326915661</v>
       </c>
       <c r="T17" t="n">
-        <v>33.33991893146228</v>
+        <v>24.00667579697077</v>
       </c>
       <c r="U17" t="n">
-        <v>49.74264498214853</v>
+        <v>108.4851974848372</v>
       </c>
       <c r="V17" t="n">
-        <v>89.77333630684228</v>
+        <v>17.69262661929428</v>
       </c>
       <c r="W17" t="n">
-        <v>79.73851152625124</v>
+        <v>34.06817665428398</v>
       </c>
       <c r="X17" t="n">
-        <v>22.13686844153779</v>
+        <v>25.4352616235684</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.39202695387654</v>
+        <v>25.61203504556623</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.81429176967008</v>
+        <v>22.98059589130342</v>
       </c>
       <c r="AA17" t="n">
-        <v>17.95971145384644</v>
+        <v>40.24426510201138</v>
       </c>
       <c r="AB17" t="n">
-        <v>66.43708952304158</v>
+        <v>47.74361268389207</v>
       </c>
       <c r="AC17" t="n">
-        <v>35.41940840688756</v>
+        <v>36.6633012706657</v>
       </c>
       <c r="AD17" t="n">
-        <v>37.39796726522027</v>
+        <v>14.11195202783024</v>
       </c>
       <c r="AE17" t="n">
-        <v>28.65580201226859</v>
+        <v>10.63402364326379</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.11026530982492</v>
+        <v>11.42994450358841</v>
       </c>
       <c r="AG17" t="n">
-        <v>30.43961240449907</v>
+        <v>31.24859819513507</v>
       </c>
       <c r="AH17" t="n">
-        <v>30.6266586180495</v>
+        <v>6.181954104451831</v>
       </c>
       <c r="AI17" t="n">
-        <v>48.495660446332</v>
+        <v>10.99033891033774</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14.38060267525022</v>
+        <v>28.77732962642041</v>
       </c>
       <c r="AK17" t="n">
-        <v>26.23717935741955</v>
+        <v>17.47675645603082</v>
       </c>
       <c r="AL17" t="n">
-        <v>43.27917717223156</v>
+        <v>19.36839464173212</v>
       </c>
       <c r="AM17" t="n">
-        <v>18.32891737399859</v>
+        <v>9.41283377962851</v>
       </c>
       <c r="AN17" t="n">
-        <v>29.03548523525645</v>
+        <v>20.0327840072263</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.108026687203711</v>
+        <v>17.60402982536135</v>
       </c>
       <c r="AP17" t="n">
-        <v>20.9909114354816</v>
+        <v>6.155313493385261</v>
       </c>
       <c r="AQ17" t="n">
-        <v>40.50773884640419</v>
+        <v>24.95952635132825</v>
       </c>
       <c r="AR17" t="n">
-        <v>45.67821479277269</v>
+        <v>22.8186523078194</v>
       </c>
       <c r="AS17" t="n">
-        <v>23.12293795573769</v>
+        <v>5.480738885976868</v>
       </c>
       <c r="AT17" t="n">
-        <v>21.45236320388143</v>
+        <v>20.45105065894027</v>
       </c>
       <c r="AU17" t="n">
-        <v>10.22894282712983</v>
+        <v>16.34427775300739</v>
       </c>
       <c r="AV17" t="n">
-        <v>25.19013975787022</v>
+        <v>28.26231058712916</v>
       </c>
       <c r="AW17" t="n">
-        <v>31.17564467136161</v>
+        <v>44.05622877693826</v>
       </c>
       <c r="AX17" t="n">
-        <v>19.96091456967532</v>
+        <v>16.01407010954635</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.87915138687025</v>
+        <v>2.217695957800105</v>
       </c>
       <c r="D18" t="n">
-        <v>13.02698050309824</v>
+        <v>1.36257635968343</v>
       </c>
       <c r="E18" t="n">
-        <v>8.816616958167128</v>
+        <v>0.7610257075562328</v>
       </c>
       <c r="F18" t="n">
-        <v>5.69544602891771</v>
+        <v>4.551235934591601</v>
       </c>
       <c r="G18" t="n">
-        <v>8.861032122786574</v>
+        <v>5.962620024241613</v>
       </c>
       <c r="H18" t="n">
-        <v>10.01263146510971</v>
+        <v>10.2446885913918</v>
       </c>
       <c r="I18" t="n">
-        <v>2.57481433440757</v>
+        <v>77.59973833088961</v>
       </c>
       <c r="J18" t="n">
-        <v>20.49152056827865</v>
+        <v>11.22572917239944</v>
       </c>
       <c r="K18" t="n">
-        <v>14.57619785896826</v>
+        <v>16.1903658000592</v>
       </c>
       <c r="L18" t="n">
-        <v>3.328860905763656</v>
+        <v>8.719512907222532</v>
       </c>
       <c r="M18" t="n">
-        <v>21.4816214567613</v>
+        <v>32.09227203845565</v>
       </c>
       <c r="N18" t="n">
-        <v>86.37530478968556</v>
+        <v>42.78306607548828</v>
       </c>
       <c r="O18" t="n">
-        <v>32.78761539245821</v>
+        <v>24.74315569983205</v>
       </c>
       <c r="P18" t="n">
-        <v>22.62799194891499</v>
+        <v>41.72511641836038</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.38516491964978</v>
+        <v>24.4506752278466</v>
       </c>
       <c r="R18" t="n">
-        <v>26.07839610318297</v>
+        <v>31.87877493449278</v>
       </c>
       <c r="S18" t="n">
-        <v>11.44851895889905</v>
+        <v>11.20339468583732</v>
       </c>
       <c r="T18" t="n">
-        <v>40.55973121183241</v>
+        <v>31.09981211555398</v>
       </c>
       <c r="U18" t="n">
-        <v>10.68775616077597</v>
+        <v>10.29714416266606</v>
       </c>
       <c r="V18" t="n">
-        <v>11.59354764910931</v>
+        <v>25.52969310009537</v>
       </c>
       <c r="W18" t="n">
-        <v>32.77610512701448</v>
+        <v>46.20894335797966</v>
       </c>
       <c r="X18" t="n">
-        <v>8.844905018869254</v>
+        <v>10.65168941995965</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.05080651841219</v>
+        <v>8.296208113167392</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.23703546777977</v>
+        <v>13.83548099618203</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.31327371139133</v>
+        <v>23.99681093319991</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.03977060420499</v>
+        <v>22.65987306322948</v>
       </c>
       <c r="AC18" t="n">
-        <v>25.63763744809103</v>
+        <v>20.31835290339655</v>
       </c>
       <c r="AD18" t="n">
-        <v>32.55784248360584</v>
+        <v>7.045723711023059</v>
       </c>
       <c r="AE18" t="n">
-        <v>15.05092832894013</v>
+        <v>11.08502128597778</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.27245119194506</v>
+        <v>8.814343306699918</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.014000885078049</v>
+        <v>7.715237317294136</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.82790910415051</v>
+        <v>3.147160446360866</v>
       </c>
       <c r="AI18" t="n">
-        <v>14.35840852912267</v>
+        <v>15.88880070087058</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.76522164289347</v>
+        <v>30.52985861157717</v>
       </c>
       <c r="AK18" t="n">
-        <v>7.785383323664144</v>
+        <v>10.21912589260234</v>
       </c>
       <c r="AL18" t="n">
-        <v>6.444293844122535</v>
+        <v>2.493830288615052</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.257331170295289</v>
+        <v>3.658444229373948</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.48166</v>
+        <v>2.237680272643942</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.667576868982517</v>
+        <v>2.286844757745683</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.91103119892413</v>
+        <v>2.71745053199195</v>
       </c>
       <c r="AQ18" t="n">
-        <v>5.281364944698067</v>
+        <v>3.229557819897054</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.166787340250506</v>
+        <v>2.023322297353029</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.712279221890667</v>
+        <v>1.897076230436616</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.714285714285714</v>
+        <v>3.974086132988059</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.919380531631944</v>
+        <v>10.65216524269953</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.012672275402042</v>
+        <v>2.152960305857786</v>
       </c>
       <c r="AW18" t="n">
-        <v>9.427137181458228</v>
+        <v>3.953011020347095</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.949629024430352</v>
+        <v>1.516782509850024</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>7.634952107739402</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4143856447688563</v>
+        <v>12.79327666105026</v>
       </c>
       <c r="E19" t="n">
-        <v>5.63</v>
+        <v>11.24397715059948</v>
       </c>
       <c r="F19" t="n">
-        <v>34.46</v>
+        <v>3.52322767534528</v>
       </c>
       <c r="G19" t="n">
-        <v>24.23</v>
+        <v>7.495511987212589</v>
       </c>
       <c r="H19" t="n">
-        <v>2.4</v>
+        <v>34.8369579495137</v>
       </c>
       <c r="I19" t="n">
-        <v>7.62</v>
+        <v>5.606238930171951</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>88.87859632299103</v>
       </c>
       <c r="K19" t="n">
-        <v>28.7</v>
+        <v>8.061087872866558</v>
       </c>
       <c r="L19" t="n">
-        <v>12</v>
+        <v>89.57473574835787</v>
       </c>
       <c r="M19" t="n">
-        <v>45.63</v>
+        <v>13.61104778236882</v>
       </c>
       <c r="N19" t="n">
-        <v>15.1440221892929</v>
+        <v>113.8218763523874</v>
       </c>
       <c r="O19" t="n">
-        <v>18.9</v>
+        <v>99.66330695913649</v>
       </c>
       <c r="P19" t="n">
-        <v>14.08</v>
+        <v>27.49009164627636</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.84</v>
+        <v>20.3484958798585</v>
       </c>
       <c r="R19" t="n">
-        <v>1.52</v>
+        <v>38.52767272746227</v>
       </c>
       <c r="S19" t="n">
-        <v>24.29</v>
+        <v>11.59113968752255</v>
       </c>
       <c r="T19" t="n">
-        <v>56.58</v>
+        <v>96.34638648227718</v>
       </c>
       <c r="U19" t="n">
-        <v>21.94</v>
+        <v>4.252421842159047</v>
       </c>
       <c r="V19" t="n">
-        <v>53.45</v>
+        <v>51.69447926431865</v>
       </c>
       <c r="W19" t="n">
-        <v>3.67</v>
+        <v>33.57848405816731</v>
       </c>
       <c r="X19" t="n">
-        <v>9.869999999999999</v>
+        <v>14.68023148486222</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.2</v>
+        <v>7.807434946901887</v>
       </c>
       <c r="Z19" t="n">
-        <v>35.23</v>
+        <v>33.61771018028636</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.68</v>
+        <v>3.547336246297692</v>
       </c>
       <c r="AB19" t="n">
-        <v>72.67</v>
+        <v>26.44086560199563</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.717655400000001</v>
+        <v>6.791666556456752</v>
       </c>
       <c r="AD19" t="n">
-        <v>23.82</v>
+        <v>14.62253803921264</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.17</v>
+        <v>14.62770530981378</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.82</v>
+        <v>14.99209506268421</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.09</v>
+        <v>11.89301050488057</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.6</v>
+        <v>1.061133091119448</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.94</v>
+        <v>12.72902881557331</v>
       </c>
       <c r="AJ19" t="n">
-        <v>43.09</v>
+        <v>3.980010333708368</v>
       </c>
       <c r="AK19" t="n">
-        <v>10.08</v>
+        <v>3.487479195520162</v>
       </c>
       <c r="AL19" t="n">
-        <v>5.54</v>
+        <v>2.580538796435744</v>
       </c>
       <c r="AM19" t="n">
-        <v>6.83</v>
+        <v>7.238563500466009</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.86</v>
+        <v>8.415652994753248</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.07</v>
+        <v>0.9829704725418593</v>
       </c>
       <c r="AP19" t="n">
-        <v>20.48</v>
+        <v>3.626724390072724</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.66</v>
+        <v>8.570495397747466</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.13</v>
+        <v>4.245491983596701</v>
       </c>
       <c r="AS19" t="n">
-        <v>69</v>
+        <v>12.43839133440374</v>
       </c>
       <c r="AT19" t="n">
-        <v>17.01</v>
+        <v>1.468795635477361</v>
       </c>
       <c r="AU19" t="n">
-        <v>12.94</v>
+        <v>8.418161103738209</v>
       </c>
       <c r="AV19" t="n">
-        <v>12.83</v>
+        <v>7.570138629396463</v>
       </c>
       <c r="AW19" t="n">
-        <v>12.83</v>
+        <v>1.401640988124043</v>
       </c>
       <c r="AX19" t="n">
-        <v>3.776574735999999</v>
+        <v>26.52532456680923</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>28.24673535392875</v>
+        <v>16.84957264161579</v>
       </c>
       <c r="D20" t="n">
-        <v>17.1719861678182</v>
+        <v>28.03062561982087</v>
       </c>
       <c r="E20" t="n">
-        <v>32.74263217280844</v>
+        <v>32.48231180683441</v>
       </c>
       <c r="F20" t="n">
-        <v>19.43235494193476</v>
+        <v>9.811915182675428</v>
       </c>
       <c r="G20" t="n">
-        <v>18.31826485349933</v>
+        <v>24.97531625931557</v>
       </c>
       <c r="H20" t="n">
-        <v>20.05106633583312</v>
+        <v>26.03382813692404</v>
       </c>
       <c r="I20" t="n">
-        <v>26.07380109613513</v>
+        <v>107.7030841544364</v>
       </c>
       <c r="J20" t="n">
-        <v>92.44193408891985</v>
+        <v>101.0622970815055</v>
       </c>
       <c r="K20" t="n">
-        <v>107.1629478605023</v>
+        <v>32.19645741343248</v>
       </c>
       <c r="L20" t="n">
-        <v>47.77891017121835</v>
+        <v>45.97214880855769</v>
       </c>
       <c r="M20" t="n">
-        <v>131.3703502481676</v>
+        <v>108.9621014283083</v>
       </c>
       <c r="N20" t="n">
-        <v>21.73056261806494</v>
+        <v>64.88888919633922</v>
       </c>
       <c r="O20" t="n">
-        <v>52.3040073712321</v>
+        <v>36.17199258587325</v>
       </c>
       <c r="P20" t="n">
-        <v>76.08003245388218</v>
+        <v>54.35034976396253</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.6596505433158</v>
+        <v>108.7326194374244</v>
       </c>
       <c r="R20" t="n">
-        <v>38.20404926186634</v>
+        <v>59.56154856661175</v>
       </c>
       <c r="S20" t="n">
-        <v>45.85720184930282</v>
+        <v>53.46554067872722</v>
       </c>
       <c r="T20" t="n">
-        <v>61.13650087635911</v>
+        <v>62.00948654573434</v>
       </c>
       <c r="U20" t="n">
-        <v>28.44334505824385</v>
+        <v>85.41695933046321</v>
       </c>
       <c r="V20" t="n">
-        <v>96.57922362261888</v>
+        <v>36.84354878293313</v>
       </c>
       <c r="W20" t="n">
-        <v>36.75104871471282</v>
+        <v>54.91754835952882</v>
       </c>
       <c r="X20" t="n">
-        <v>69.39382825371534</v>
+        <v>107.9038239263094</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.84882814060271</v>
+        <v>45.44985362390579</v>
       </c>
       <c r="Z20" t="n">
-        <v>46.55110662268193</v>
+        <v>84.72539542549585</v>
       </c>
       <c r="AA20" t="n">
-        <v>87.91075120145636</v>
+        <v>90.04114542570127</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.9020104922932</v>
+        <v>116.5988624667841</v>
       </c>
       <c r="AC20" t="n">
-        <v>130.3391747734616</v>
+        <v>62.70454353485803</v>
       </c>
       <c r="AD20" t="n">
-        <v>185.7772521924817</v>
+        <v>156.729681798452</v>
       </c>
       <c r="AE20" t="n">
-        <v>114.781056550035</v>
+        <v>86.96740512400265</v>
       </c>
       <c r="AF20" t="n">
-        <v>140.3750823040305</v>
+        <v>96.31187189790738</v>
       </c>
       <c r="AG20" t="n">
-        <v>24.98557482250724</v>
+        <v>244.8814023091465</v>
       </c>
       <c r="AH20" t="n">
-        <v>63.95879409764814</v>
+        <v>85.70415905005406</v>
       </c>
       <c r="AI20" t="n">
-        <v>86.27521147201466</v>
+        <v>130.6079438521953</v>
       </c>
       <c r="AJ20" t="n">
-        <v>48.40130486993783</v>
+        <v>38.33276550885209</v>
       </c>
       <c r="AK20" t="n">
-        <v>125.7938072976068</v>
+        <v>29.35039686963305</v>
       </c>
       <c r="AL20" t="n">
-        <v>38.16534818370999</v>
+        <v>42.2593080310236</v>
       </c>
       <c r="AM20" t="n">
-        <v>35.18474013965713</v>
+        <v>30.24198542415297</v>
       </c>
       <c r="AN20" t="n">
-        <v>36.86199999999999</v>
+        <v>27.09844610990784</v>
       </c>
       <c r="AO20" t="n">
-        <v>25.42535265748035</v>
+        <v>25.02508337755805</v>
       </c>
       <c r="AP20" t="n">
-        <v>21.60248137926914</v>
+        <v>38.17994759220285</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13.48318350039803</v>
+        <v>19.09406564108549</v>
       </c>
       <c r="AR20" t="n">
-        <v>32.10532196926584</v>
+        <v>24.21268344959114</v>
       </c>
       <c r="AS20" t="n">
-        <v>15.4145064445878</v>
+        <v>25.77067263829163</v>
       </c>
       <c r="AT20" t="n">
-        <v>19.01162683822853</v>
+        <v>27.33241846317907</v>
       </c>
       <c r="AU20" t="n">
-        <v>34.77486250615443</v>
+        <v>14.38864989960655</v>
       </c>
       <c r="AV20" t="n">
-        <v>28.58922023947938</v>
+        <v>16.8497135039583</v>
       </c>
       <c r="AW20" t="n">
-        <v>13.46758449332084</v>
+        <v>8.599468297106268</v>
       </c>
       <c r="AX20" t="n">
-        <v>21.22975674210646</v>
+        <v>12.64388363537129</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.822247594612023</v>
+        <v>1.104277230912757</v>
       </c>
       <c r="D21" t="n">
-        <v>1.967207647217176</v>
+        <v>6.03358120468122</v>
       </c>
       <c r="E21" t="n">
-        <v>3.196709426942772</v>
+        <v>2.29869801062209</v>
       </c>
       <c r="F21" t="n">
-        <v>1.757409276678033</v>
+        <v>3.054598320851358</v>
       </c>
       <c r="G21" t="n">
-        <v>1.282425390810043</v>
+        <v>2.178906331878107</v>
       </c>
       <c r="H21" t="n">
-        <v>1.910013829595334</v>
+        <v>4.423461577265437</v>
       </c>
       <c r="I21" t="n">
-        <v>5.747998592560134</v>
+        <v>0.1389809643661642</v>
       </c>
       <c r="J21" t="n">
-        <v>2.821344239434227</v>
+        <v>2.047544568717245</v>
       </c>
       <c r="K21" t="n">
-        <v>3.075688753362417</v>
+        <v>12.69886784289246</v>
       </c>
       <c r="L21" t="n">
-        <v>2.358625867207077</v>
+        <v>7.403906837874004</v>
       </c>
       <c r="M21" t="n">
-        <v>5.381039302192436</v>
+        <v>1.559813654187948</v>
       </c>
       <c r="N21" t="n">
-        <v>5.942631119132881</v>
+        <v>3.832787567185756</v>
       </c>
       <c r="O21" t="n">
-        <v>5.953029833277117</v>
+        <v>3.801674015024682</v>
       </c>
       <c r="P21" t="n">
-        <v>3.172776080888305</v>
+        <v>6.694651357636809</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.648112285595019</v>
+        <v>12.00401914143965</v>
       </c>
       <c r="R21" t="n">
-        <v>5.071969725397026</v>
+        <v>4.090228197079564</v>
       </c>
       <c r="S21" t="n">
-        <v>3.140796222603554</v>
+        <v>5.934896978599165</v>
       </c>
       <c r="T21" t="n">
-        <v>4.206688836893513</v>
+        <v>2.321713477355445</v>
       </c>
       <c r="U21" t="n">
-        <v>3.212661779774574</v>
+        <v>5.336893903834388</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7335999290765783</v>
+        <v>3.34718145000265</v>
       </c>
       <c r="W21" t="n">
-        <v>8.528894293776911</v>
+        <v>7.9058367835908</v>
       </c>
       <c r="X21" t="n">
-        <v>2.399055895155994</v>
+        <v>11.87610273223709</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.509907352636605</v>
+        <v>1.825253590104892</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.531631704986836</v>
+        <v>3.777903792986852</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.671028107179627</v>
+        <v>5.431149872715486</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.829550611940329</v>
+        <v>4.41129056570696</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.303612451896043</v>
+        <v>1.660519741031915</v>
       </c>
       <c r="AD21" t="n">
-        <v>4.305794593062698</v>
+        <v>12.87099041745803</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.775817313971139</v>
+        <v>3.194791907789863</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.436381782922753</v>
+        <v>5.224313176572952</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.688373935378671</v>
+        <v>4.68522719506885</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.486980346425325</v>
+        <v>3.360387868629111</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.489776305946767</v>
+        <v>2.96096465683451</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10.01199935751472</v>
+        <v>5.074889347475626</v>
       </c>
       <c r="AK21" t="n">
-        <v>5.58363275241083</v>
+        <v>2.526886169976899</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.05981151263214</v>
+        <v>3.172163346349399</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.721289095663395</v>
+        <v>6.657754806881034</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.080796127723367</v>
+        <v>5.25685073868079</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.015563057396381</v>
+        <v>2.49851653596432</v>
       </c>
       <c r="AP21" t="n">
-        <v>5.873606690183847</v>
+        <v>2.618708178853053</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.262357239231966</v>
+        <v>12.59487096697953</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.316240805836955</v>
+        <v>3.144003716167163</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.644559051057246</v>
+        <v>7.561157191650588</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.711815561959654</v>
+        <v>2.392859448267509</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.93754833457703</v>
+        <v>1.16639962572976</v>
       </c>
       <c r="AV21" t="n">
-        <v>5.413573827215961</v>
+        <v>4.664681686800664</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.315731802765459</v>
+        <v>4.68930778025803</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.152077545611558</v>
+        <v>1.48400037632328</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>8.591792126894283</v>
+        <v>4.885296941384749</v>
       </c>
       <c r="D22" t="n">
-        <v>11.10090780406115</v>
+        <v>8.100568145827888</v>
       </c>
       <c r="E22" t="n">
-        <v>10.38384501172366</v>
+        <v>2.103490842534728</v>
       </c>
       <c r="F22" t="n">
-        <v>25.12396454331019</v>
+        <v>16.84138252877914</v>
       </c>
       <c r="G22" t="n">
-        <v>8.51155897931352</v>
+        <v>28.48524650903651</v>
       </c>
       <c r="H22" t="n">
-        <v>14.51100994622907</v>
+        <v>30.19573777586574</v>
       </c>
       <c r="I22" t="n">
-        <v>191.9324727626527</v>
+        <v>19.92353521897568</v>
       </c>
       <c r="J22" t="n">
-        <v>5.345724893109002</v>
+        <v>40.57139896185195</v>
       </c>
       <c r="K22" t="n">
-        <v>126.409599878281</v>
+        <v>585.141551743764</v>
       </c>
       <c r="L22" t="n">
-        <v>22.44188073096183</v>
+        <v>58.64069972296645</v>
       </c>
       <c r="M22" t="n">
-        <v>11.71859394425071</v>
+        <v>38.69906645670884</v>
       </c>
       <c r="N22" t="n">
-        <v>67.36566901521795</v>
+        <v>161.7707822462237</v>
       </c>
       <c r="O22" t="n">
-        <v>59.06139884499036</v>
+        <v>32.33694689333354</v>
       </c>
       <c r="P22" t="n">
-        <v>19.06506651981197</v>
+        <v>77.18786433641243</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.8070997132191</v>
+        <v>64.27646436117675</v>
       </c>
       <c r="R22" t="n">
-        <v>40.25879885169829</v>
+        <v>133.2663056834181</v>
       </c>
       <c r="S22" t="n">
-        <v>73.03566639681924</v>
+        <v>66.647029971489</v>
       </c>
       <c r="T22" t="n">
-        <v>104.6242938168065</v>
+        <v>45.31072769566433</v>
       </c>
       <c r="U22" t="n">
-        <v>65.62865641995744</v>
+        <v>27.42357530632329</v>
       </c>
       <c r="V22" t="n">
-        <v>47.48160748390719</v>
+        <v>44.87339051475016</v>
       </c>
       <c r="W22" t="n">
-        <v>43.6590317458109</v>
+        <v>124.4732474518194</v>
       </c>
       <c r="X22" t="n">
-        <v>67.11377949224023</v>
+        <v>61.32316975534311</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.0297710631873</v>
+        <v>36.69247544591913</v>
       </c>
       <c r="Z22" t="n">
-        <v>92.82861007136331</v>
+        <v>110.5916971169016</v>
       </c>
       <c r="AA22" t="n">
-        <v>95.7537844</v>
+        <v>48.55806837295254</v>
       </c>
       <c r="AB22" t="n">
-        <v>116.6119386034346</v>
+        <v>88.80756509303281</v>
       </c>
       <c r="AC22" t="n">
-        <v>56.90412323438186</v>
+        <v>60.04166571862767</v>
       </c>
       <c r="AD22" t="n">
-        <v>98.41806187335034</v>
+        <v>110.7658584912705</v>
       </c>
       <c r="AE22" t="n">
-        <v>27.78294134750012</v>
+        <v>74.87500187057968</v>
       </c>
       <c r="AF22" t="n">
-        <v>105.137363</v>
+        <v>61.7734226437457</v>
       </c>
       <c r="AG22" t="n">
-        <v>75.2526491052289</v>
+        <v>76.90660950481335</v>
       </c>
       <c r="AH22" t="n">
-        <v>41.39188494148718</v>
+        <v>39.52758888569321</v>
       </c>
       <c r="AI22" t="n">
-        <v>47.17268539564824</v>
+        <v>45.41334596872353</v>
       </c>
       <c r="AJ22" t="n">
-        <v>106.5663717705349</v>
+        <v>40.34990438949213</v>
       </c>
       <c r="AK22" t="n">
-        <v>28.32141079723905</v>
+        <v>38.00913837895652</v>
       </c>
       <c r="AL22" t="n">
-        <v>10.72986535043595</v>
+        <v>20.78043985396437</v>
       </c>
       <c r="AM22" t="n">
-        <v>18.09284148234735</v>
+        <v>48.22535301315731</v>
       </c>
       <c r="AN22" t="n">
-        <v>39.53016438019131</v>
+        <v>14.97095019535969</v>
       </c>
       <c r="AO22" t="n">
-        <v>19.09583223942453</v>
+        <v>26.66065653615548</v>
       </c>
       <c r="AP22" t="n">
-        <v>9.519018687061564</v>
+        <v>28.47064879740955</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9.523420926085704</v>
+        <v>10.91963821842834</v>
       </c>
       <c r="AR22" t="n">
-        <v>16.10091799896854</v>
+        <v>17.15535530705175</v>
       </c>
       <c r="AS22" t="n">
-        <v>15.09202034587996</v>
+        <v>11.28764789901171</v>
       </c>
       <c r="AT22" t="n">
-        <v>6.369752036199094</v>
+        <v>6.766846732269452</v>
       </c>
       <c r="AU22" t="n">
-        <v>22.7677243726074</v>
+        <v>10.48447764730953</v>
       </c>
       <c r="AV22" t="n">
-        <v>10.39846764915642</v>
+        <v>14.25421522174299</v>
       </c>
       <c r="AW22" t="n">
-        <v>10.9081365507223</v>
+        <v>6.719563306629997</v>
       </c>
       <c r="AX22" t="n">
-        <v>9.243561969303695</v>
+        <v>11.35162336554919</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>14.99237939626155</v>
+        <v>17.30114698020088</v>
       </c>
       <c r="D23" t="n">
-        <v>17.23904350544666</v>
+        <v>12.8998923325227</v>
       </c>
       <c r="E23" t="n">
-        <v>18.00214339078277</v>
+        <v>33.08191523477852</v>
       </c>
       <c r="F23" t="n">
-        <v>13.18762292251087</v>
+        <v>7.726992657436933</v>
       </c>
       <c r="G23" t="n">
-        <v>6.124114885105954</v>
+        <v>48.44202403510501</v>
       </c>
       <c r="H23" t="n">
-        <v>16.47685998934916</v>
+        <v>14.90008169131686</v>
       </c>
       <c r="I23" t="n">
-        <v>25.45213974507417</v>
+        <v>8.047504937722332</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>13.80780481135647</v>
       </c>
       <c r="K23" t="n">
-        <v>43.62978234389814</v>
+        <v>11.26429785984002</v>
       </c>
       <c r="L23" t="n">
-        <v>23.23126685492527</v>
+        <v>25.7631029239804</v>
       </c>
       <c r="M23" t="n">
-        <v>57.55511217179446</v>
+        <v>47.27245256169375</v>
       </c>
       <c r="N23" t="n">
-        <v>173.5124469744276</v>
+        <v>66.40483793135806</v>
       </c>
       <c r="O23" t="n">
-        <v>31.19367160796456</v>
+        <v>63.08574430626722</v>
       </c>
       <c r="P23" t="n">
-        <v>14.21759100160718</v>
+        <v>66.08926970069861</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.90154887937243</v>
+        <v>65.05250328764657</v>
       </c>
       <c r="R23" t="n">
-        <v>198.2431116109733</v>
+        <v>22.44038507836131</v>
       </c>
       <c r="S23" t="n">
-        <v>59.21873570186742</v>
+        <v>70.8161736055641</v>
       </c>
       <c r="T23" t="n">
-        <v>41.37350552513542</v>
+        <v>95.41923812417592</v>
       </c>
       <c r="U23" t="n">
-        <v>92.57649566138994</v>
+        <v>25.29929781334922</v>
       </c>
       <c r="V23" t="n">
-        <v>55.8671519575596</v>
+        <v>19.00253727324573</v>
       </c>
       <c r="W23" t="n">
-        <v>60.26951965027246</v>
+        <v>47.90428397513202</v>
       </c>
       <c r="X23" t="n">
-        <v>81.74406613650072</v>
+        <v>25.71375993533292</v>
       </c>
       <c r="Y23" t="n">
-        <v>39.61053154393682</v>
+        <v>16.26658280897579</v>
       </c>
       <c r="Z23" t="n">
-        <v>39.88607363233116</v>
+        <v>61.52028851348418</v>
       </c>
       <c r="AA23" t="n">
-        <v>39.41471641083982</v>
+        <v>17.86312119258205</v>
       </c>
       <c r="AB23" t="n">
-        <v>31.8217381442571</v>
+        <v>35.38084338054931</v>
       </c>
       <c r="AC23" t="n">
-        <v>44.08458133211077</v>
+        <v>62.71449868743183</v>
       </c>
       <c r="AD23" t="n">
-        <v>31.16151473211366</v>
+        <v>228.601979020917</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.044864216355929</v>
+        <v>18.07252873087156</v>
       </c>
       <c r="AF23" t="n">
-        <v>28.5930024822772</v>
+        <v>16.87676437737221</v>
       </c>
       <c r="AG23" t="n">
-        <v>33.85877992869241</v>
+        <v>36.40908595206062</v>
       </c>
       <c r="AH23" t="n">
-        <v>10.65568059880816</v>
+        <v>24.41064410413335</v>
       </c>
       <c r="AI23" t="n">
-        <v>20.77964123507155</v>
+        <v>18.31379537883153</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23.14785819728414</v>
+        <v>21.07906786066387</v>
       </c>
       <c r="AK23" t="n">
-        <v>51.48369090755426</v>
+        <v>12.09582417936469</v>
       </c>
       <c r="AL23" t="n">
-        <v>14.36123072450771</v>
+        <v>19.21449697097383</v>
       </c>
       <c r="AM23" t="n">
-        <v>22.66016904242741</v>
+        <v>0.7114439886639431</v>
       </c>
       <c r="AN23" t="n">
-        <v>42.19398026180243</v>
+        <v>62.74968975701065</v>
       </c>
       <c r="AO23" t="n">
-        <v>24.83831317667913</v>
+        <v>11.64776597405037</v>
       </c>
       <c r="AP23" t="n">
-        <v>10.97936098271596</v>
+        <v>16.40724890080972</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27.24987850524553</v>
+        <v>47.67728812037217</v>
       </c>
       <c r="AR23" t="n">
-        <v>26.14576482294532</v>
+        <v>7.594879608436452</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.784074640314845</v>
+        <v>27.08706185377572</v>
       </c>
       <c r="AT23" t="n">
-        <v>26.8334918317987</v>
+        <v>19.75012208156937</v>
       </c>
       <c r="AU23" t="n">
-        <v>23.65598409901525</v>
+        <v>8.652930308791181</v>
       </c>
       <c r="AV23" t="n">
-        <v>26.92041241377471</v>
+        <v>9.535936650906917</v>
       </c>
       <c r="AW23" t="n">
-        <v>42.32424361400559</v>
+        <v>33.56794950165867</v>
       </c>
       <c r="AX23" t="n">
-        <v>28.01949124658043</v>
+        <v>6.296728756363434</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3.293356377590694</v>
+        <v>3.599484682847221</v>
       </c>
       <c r="D24" t="n">
-        <v>3.581194683141803</v>
+        <v>4.118346920509937</v>
       </c>
       <c r="E24" t="n">
-        <v>6.704449023538512</v>
+        <v>0.6673633357188485</v>
       </c>
       <c r="F24" t="n">
-        <v>1.9575864</v>
+        <v>0.6689224591018975</v>
       </c>
       <c r="G24" t="n">
-        <v>2.878273735091439</v>
+        <v>15.07942641656985</v>
       </c>
       <c r="H24" t="n">
-        <v>5.692434065671781</v>
+        <v>4.085927040374671</v>
       </c>
       <c r="I24" t="n">
-        <v>11.48353833209981</v>
+        <v>4.115192106303822</v>
       </c>
       <c r="J24" t="n">
-        <v>150.4566647645215</v>
+        <v>20.47054198685038</v>
       </c>
       <c r="K24" t="n">
-        <v>33.87055901807747</v>
+        <v>4.180948387863274</v>
       </c>
       <c r="L24" t="n">
-        <v>7.057444977071356</v>
+        <v>7.33351071906969</v>
       </c>
       <c r="M24" t="n">
-        <v>54.71712292213009</v>
+        <v>23.75927539334389</v>
       </c>
       <c r="N24" t="n">
-        <v>59.82775422837003</v>
+        <v>33.48158961523882</v>
       </c>
       <c r="O24" t="n">
-        <v>15.91792090086993</v>
+        <v>4.570336274106598</v>
       </c>
       <c r="P24" t="n">
-        <v>9.714474475483726</v>
+        <v>26.38475902080028</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.237871545050885</v>
+        <v>18.38084040715209</v>
       </c>
       <c r="R24" t="n">
-        <v>42.83215130647844</v>
+        <v>12.27339138766322</v>
       </c>
       <c r="S24" t="n">
-        <v>29.295376</v>
+        <v>22.31156853215713</v>
       </c>
       <c r="T24" t="n">
-        <v>31.65104920577665</v>
+        <v>43.92668997648503</v>
       </c>
       <c r="U24" t="n">
-        <v>15.89103951808599</v>
+        <v>18.74184471001191</v>
       </c>
       <c r="V24" t="n">
-        <v>13.76913514346528</v>
+        <v>25.53333274765713</v>
       </c>
       <c r="W24" t="n">
-        <v>21.00578316421728</v>
+        <v>54.82317546401839</v>
       </c>
       <c r="X24" t="n">
-        <v>17.22414916299437</v>
+        <v>21.96172163119524</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.55078722101054</v>
+        <v>28.94959479486082</v>
       </c>
       <c r="Z24" t="n">
-        <v>12.69554945007956</v>
+        <v>25.12314469618478</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.37058701323455</v>
+        <v>7.692670462389342</v>
       </c>
       <c r="AB24" t="n">
-        <v>25.975</v>
+        <v>24.26213378865553</v>
       </c>
       <c r="AC24" t="n">
-        <v>18.95149973096965</v>
+        <v>17.40117967167324</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.10884667745242</v>
+        <v>13.87524308207533</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.46195030885933</v>
+        <v>10.26910572943653</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.880549223256384</v>
+        <v>8.317320964159967</v>
       </c>
       <c r="AG24" t="n">
-        <v>15.21293507155161</v>
+        <v>19.01199945027006</v>
       </c>
       <c r="AH24" t="n">
-        <v>13.07967631286933</v>
+        <v>11.57624066646986</v>
       </c>
       <c r="AI24" t="n">
-        <v>8.489474688575626</v>
+        <v>7.816989236293846</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5.569521725607914</v>
+        <v>5.033708780400404</v>
       </c>
       <c r="AK24" t="n">
-        <v>14.30881654962027</v>
+        <v>9.649705822483694</v>
       </c>
       <c r="AL24" t="n">
-        <v>5.760195</v>
+        <v>5.282926974106022</v>
       </c>
       <c r="AM24" t="n">
-        <v>14.15428571428571</v>
+        <v>5.56759850959498</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.703769302920551</v>
+        <v>6.712214076954681</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.497362260213049</v>
+        <v>4.335630422450749</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.974993083965678</v>
+        <v>1.471418704676004</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4.282904151180138</v>
+        <v>1.683769556052199</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.037863354265492</v>
+        <v>3.883069256096254</v>
       </c>
       <c r="AS24" t="n">
-        <v>3.103595813936066</v>
+        <v>3.367303754483014</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.714285714285714</v>
+        <v>1.853503356790775</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.474112156039851</v>
+        <v>1.33193763895032</v>
       </c>
       <c r="AV24" t="n">
-        <v>2.40816350070347</v>
+        <v>13.42933424383392</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.751705825</v>
+        <v>3.474323039224992</v>
       </c>
       <c r="AX24" t="n">
-        <v>5.575627086710014</v>
+        <v>4.399135613652935</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>8.77</v>
+        <v>21.12676408135885</v>
       </c>
       <c r="D25" t="n">
-        <v>2.78</v>
+        <v>3.527500671634848</v>
       </c>
       <c r="E25" t="n">
-        <v>5.91</v>
+        <v>0.7437605726914922</v>
       </c>
       <c r="F25" t="n">
-        <v>17.07</v>
+        <v>2.407614307818512</v>
       </c>
       <c r="G25" t="n">
-        <v>65.59</v>
+        <v>57.65461886130797</v>
       </c>
       <c r="H25" t="n">
-        <v>13.16</v>
+        <v>16.52811195039081</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>38.97954874856016</v>
       </c>
       <c r="J25" t="n">
-        <v>38.08</v>
+        <v>28.07406869806979</v>
       </c>
       <c r="K25" t="n">
-        <v>64.97</v>
+        <v>7.987606944615671</v>
       </c>
       <c r="L25" t="n">
-        <v>57.03</v>
+        <v>55.86398278969584</v>
       </c>
       <c r="M25" t="n">
-        <v>32.56</v>
+        <v>89.24210280935769</v>
       </c>
       <c r="N25" t="n">
-        <v>12.59329545</v>
+        <v>21.94944891388255</v>
       </c>
       <c r="O25" t="n">
-        <v>4.108850628571432</v>
+        <v>113.8526571028267</v>
       </c>
       <c r="P25" t="n">
-        <v>36.95</v>
+        <v>4.926305099754134</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.1</v>
+        <v>45.41961046535162</v>
       </c>
       <c r="R25" t="n">
-        <v>9.220393416407763</v>
+        <v>79.91748934811341</v>
       </c>
       <c r="S25" t="n">
-        <v>83.54000000000001</v>
+        <v>42.46738694584079</v>
       </c>
       <c r="T25" t="n">
-        <v>27.61</v>
+        <v>15.00117057544599</v>
       </c>
       <c r="U25" t="n">
-        <v>38.03</v>
+        <v>5.480143010133814</v>
       </c>
       <c r="V25" t="n">
-        <v>14.06</v>
+        <v>87.5908567030737</v>
       </c>
       <c r="W25" t="n">
-        <v>35.47</v>
+        <v>7.32033397970511</v>
       </c>
       <c r="X25" t="n">
-        <v>38.03</v>
+        <v>25.71621031820818</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5564130633511</v>
+        <v>2.712442640916867</v>
       </c>
       <c r="Z25" t="n">
-        <v>1</v>
+        <v>9.354527309726803</v>
       </c>
       <c r="AA25" t="n">
-        <v>35.87</v>
+        <v>1.217277974179331</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.32</v>
+        <v>5.265686565924163</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.77267210219616</v>
+        <v>10.88040651195801</v>
       </c>
       <c r="AD25" t="n">
-        <v>52.29</v>
+        <v>75.34167867283672</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.6</v>
+        <v>10.63101637492266</v>
       </c>
       <c r="AF25" t="n">
-        <v>10.82</v>
+        <v>3.186759763194294</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.08</v>
+        <v>1.273998182062289</v>
       </c>
       <c r="AH25" t="n">
-        <v>10.23</v>
+        <v>25.49075513413074</v>
       </c>
       <c r="AI25" t="n">
-        <v>4.36</v>
+        <v>2.728138573539686</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15.68</v>
+        <v>12.3928120115791</v>
       </c>
       <c r="AK25" t="n">
-        <v>15.68</v>
+        <v>0.1142479208990233</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.263259545733257</v>
+        <v>7.648949766465685</v>
       </c>
       <c r="AM25" t="n">
-        <v>8.720000000000001</v>
+        <v>1.052885824138063</v>
       </c>
       <c r="AN25" t="n">
-        <v>11.98</v>
+        <v>10.04722613059435</v>
       </c>
       <c r="AO25" t="n">
-        <v>4.22</v>
+        <v>1.205927271638813</v>
       </c>
       <c r="AP25" t="n">
-        <v>11.35</v>
+        <v>11.54501084870391</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.52</v>
+        <v>23.09907119674621</v>
       </c>
       <c r="AR25" t="n">
-        <v>7.71</v>
+        <v>5.183531968061591</v>
       </c>
       <c r="AS25" t="n">
-        <v>11.02</v>
+        <v>5.456345594431201</v>
       </c>
       <c r="AT25" t="n">
-        <v>4.81</v>
+        <v>6.959293242775978</v>
       </c>
       <c r="AU25" t="n">
-        <v>1.06</v>
+        <v>4.669177054802928</v>
       </c>
       <c r="AV25" t="n">
-        <v>3.772313623499999</v>
+        <v>11.75956227917488</v>
       </c>
       <c r="AW25" t="n">
-        <v>15.02</v>
+        <v>24.89889099309078</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.45</v>
+        <v>2.298310238350442</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>19.70973235401135</v>
+        <v>22.22209907200232</v>
       </c>
       <c r="D26" t="n">
-        <v>21.68096513109947</v>
+        <v>25.61654780074169</v>
       </c>
       <c r="E26" t="n">
-        <v>11.53040899469787</v>
+        <v>86.66509074304585</v>
       </c>
       <c r="F26" t="n">
-        <v>21.13809658587782</v>
+        <v>27.60941829613266</v>
       </c>
       <c r="G26" t="n">
-        <v>24.65331763520983</v>
+        <v>4.285222210077686</v>
       </c>
       <c r="H26" t="n">
-        <v>36.14081870200489</v>
+        <v>65.81385814897293</v>
       </c>
       <c r="I26" t="n">
-        <v>24.20511669141777</v>
+        <v>288.2833341347625</v>
       </c>
       <c r="J26" t="n">
-        <v>270.8429279682441</v>
+        <v>50.95055993088129</v>
       </c>
       <c r="K26" t="n">
-        <v>16.08345158778928</v>
+        <v>94.61411255458289</v>
       </c>
       <c r="L26" t="n">
-        <v>162.0324634099307</v>
+        <v>25.56120331257802</v>
       </c>
       <c r="M26" t="n">
-        <v>135.5837102907934</v>
+        <v>63.98692455889989</v>
       </c>
       <c r="N26" t="n">
-        <v>32.24263613481022</v>
+        <v>139.737949978007</v>
       </c>
       <c r="O26" t="n">
-        <v>36.40895777096279</v>
+        <v>57.04525021609702</v>
       </c>
       <c r="P26" t="n">
-        <v>35.88029090119505</v>
+        <v>84.96931809801303</v>
       </c>
       <c r="Q26" t="n">
-        <v>16.75729080657886</v>
+        <v>65.70784003130066</v>
       </c>
       <c r="R26" t="n">
-        <v>53.46797639940402</v>
+        <v>103.4415639499228</v>
       </c>
       <c r="S26" t="n">
-        <v>52.23045142104618</v>
+        <v>61.09003925859405</v>
       </c>
       <c r="T26" t="n">
-        <v>41.02079148150465</v>
+        <v>29.33576414775073</v>
       </c>
       <c r="U26" t="n">
-        <v>38.23058429312485</v>
+        <v>25.99307438217301</v>
       </c>
       <c r="V26" t="n">
-        <v>41.84832115498386</v>
+        <v>77.19734313773901</v>
       </c>
       <c r="W26" t="n">
-        <v>36.37152226144837</v>
+        <v>55.56573647975863</v>
       </c>
       <c r="X26" t="n">
-        <v>81.57753139965538</v>
+        <v>111.0355650054721</v>
       </c>
       <c r="Y26" t="n">
-        <v>28.93646799812009</v>
+        <v>41.13472165807867</v>
       </c>
       <c r="Z26" t="n">
-        <v>65.91966100585276</v>
+        <v>57.5595953614671</v>
       </c>
       <c r="AA26" t="n">
-        <v>126.9147602444434</v>
+        <v>92.62688492361936</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.14566810135392</v>
+        <v>81.01681703523964</v>
       </c>
       <c r="AC26" t="n">
-        <v>78.87956231974081</v>
+        <v>122.9112507938128</v>
       </c>
       <c r="AD26" t="n">
-        <v>48.95025258401232</v>
+        <v>173.3065915446175</v>
       </c>
       <c r="AE26" t="n">
-        <v>131.4767396603809</v>
+        <v>101.6554252890269</v>
       </c>
       <c r="AF26" t="n">
-        <v>137.2484998531064</v>
+        <v>126.2805863273505</v>
       </c>
       <c r="AG26" t="n">
-        <v>65.5610109522861</v>
+        <v>152.9771923634072</v>
       </c>
       <c r="AH26" t="n">
-        <v>136.3101580257357</v>
+        <v>27.98009561643138</v>
       </c>
       <c r="AI26" t="n">
-        <v>88.2408484410068</v>
+        <v>63.63165519376491</v>
       </c>
       <c r="AJ26" t="n">
-        <v>74.49115717949603</v>
+        <v>48.9840674979104</v>
       </c>
       <c r="AK26" t="n">
-        <v>85.77410414976518</v>
+        <v>58.88632701023738</v>
       </c>
       <c r="AL26" t="n">
-        <v>51.50082450081416</v>
+        <v>110.5297124540902</v>
       </c>
       <c r="AM26" t="n">
-        <v>31.835933831264</v>
+        <v>55.23846920706054</v>
       </c>
       <c r="AN26" t="n">
-        <v>57.5371188821985</v>
+        <v>38.46057784656709</v>
       </c>
       <c r="AO26" t="n">
-        <v>15.30801951017953</v>
+        <v>23.79273965853218</v>
       </c>
       <c r="AP26" t="n">
-        <v>30.67739126380833</v>
+        <v>16.96552412739672</v>
       </c>
       <c r="AQ26" t="n">
-        <v>22.82826233807654</v>
+        <v>18.50490039805091</v>
       </c>
       <c r="AR26" t="n">
-        <v>21.46019983640343</v>
+        <v>17.70051860679531</v>
       </c>
       <c r="AS26" t="n">
-        <v>33.27638030698897</v>
+        <v>30.19338640479602</v>
       </c>
       <c r="AT26" t="n">
-        <v>30.40253343677687</v>
+        <v>27.44623942973325</v>
       </c>
       <c r="AU26" t="n">
-        <v>16.4644876132786</v>
+        <v>30.25233234833361</v>
       </c>
       <c r="AV26" t="n">
-        <v>17.60769317718852</v>
+        <v>11.0499951594784</v>
       </c>
       <c r="AW26" t="n">
-        <v>15.81166713694622</v>
+        <v>28.36719802490931</v>
       </c>
       <c r="AX26" t="n">
-        <v>13.58828168659173</v>
+        <v>19.6989446341063</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>3.097811368491702</v>
+        <v>2.586842526665373</v>
       </c>
       <c r="D27" t="n">
-        <v>5.568586806431175</v>
+        <v>1.175848265867652</v>
       </c>
       <c r="E27" t="n">
-        <v>5.248895148299705</v>
+        <v>0.6989868689324604</v>
       </c>
       <c r="F27" t="n">
-        <v>2.551596559558605</v>
+        <v>0.7815410299765058</v>
       </c>
       <c r="G27" t="n">
-        <v>4.426334613810477</v>
+        <v>2.54150265911682</v>
       </c>
       <c r="H27" t="n">
-        <v>1.910013829595334</v>
+        <v>4.854294331100894</v>
       </c>
       <c r="I27" t="n">
-        <v>5.14071365290004</v>
+        <v>0.7961324430340604</v>
       </c>
       <c r="J27" t="n">
-        <v>4.887372528321803</v>
+        <v>17.14102133425948</v>
       </c>
       <c r="K27" t="n">
-        <v>7.160796051074986</v>
+        <v>0.5681672149965707</v>
       </c>
       <c r="L27" t="n">
-        <v>1.938529776019815</v>
+        <v>6.012592330036159</v>
       </c>
       <c r="M27" t="n">
-        <v>4.654598361192974</v>
+        <v>4.489742290009024</v>
       </c>
       <c r="N27" t="n">
-        <v>4.067590284207733</v>
+        <v>2.247927866925769</v>
       </c>
       <c r="O27" t="n">
-        <v>6.404613654116472</v>
+        <v>5.527632073076115</v>
       </c>
       <c r="P27" t="n">
-        <v>6.787423592070373</v>
+        <v>12.93658231820203</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.530128349086273</v>
+        <v>6.945944308055013</v>
       </c>
       <c r="R27" t="n">
-        <v>3.917504083271046</v>
+        <v>3.227299523358567</v>
       </c>
       <c r="S27" t="n">
-        <v>4.927456147248055</v>
+        <v>13.28142870462519</v>
       </c>
       <c r="T27" t="n">
-        <v>10.19989783515235</v>
+        <v>3.577533408345209</v>
       </c>
       <c r="U27" t="n">
-        <v>8.89340782582202</v>
+        <v>6.827355004349152</v>
       </c>
       <c r="V27" t="n">
-        <v>3.166307680801735</v>
+        <v>6.65826974777546</v>
       </c>
       <c r="W27" t="n">
-        <v>2.717824544788614</v>
+        <v>5.24587702187946</v>
       </c>
       <c r="X27" t="n">
-        <v>4.922804391690975</v>
+        <v>1.595985438841091</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.244885945548198</v>
+        <v>1.914463701441086</v>
       </c>
       <c r="Z27" t="n">
-        <v>10.02124191078397</v>
+        <v>5.975874645227798</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.661464769648199</v>
+        <v>5.031862663222982</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.745321732447751</v>
+        <v>5.108995742069903</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.173654708422617</v>
+        <v>4.146927082823503</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.607284294889419</v>
+        <v>7.109158682556381</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.649144193594974</v>
+        <v>4.411774805484588</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.882115313617848</v>
+        <v>6.944648159272492</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.836163483418213</v>
+        <v>6.616313203956409</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.486980346425325</v>
+        <v>7.414183379250977</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.764443901108719</v>
+        <v>1.989065963210442</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.075928147185971</v>
+        <v>7.676949066302158</v>
       </c>
       <c r="AK27" t="n">
-        <v>6.818873020007647</v>
+        <v>2.806915029548919</v>
       </c>
       <c r="AL27" t="n">
-        <v>4.847450873856743</v>
+        <v>4.195295766086361</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.709160327979366</v>
+        <v>11.63921030646306</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.057852706039793</v>
+        <v>7.721844052126938</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.702146174707797</v>
+        <v>1.884985717172848</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.873606690183847</v>
+        <v>3.428615206502449</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10.430154027376</v>
+        <v>3.763801246888968</v>
       </c>
       <c r="AR27" t="n">
-        <v>6.509927498342031</v>
+        <v>2.604494623333137</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.741076696165192</v>
+        <v>2.502510341827074</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.267451773716668</v>
+        <v>4.817827808967039</v>
       </c>
       <c r="AU27" t="n">
-        <v>2.790096610752687</v>
+        <v>8.990901416259179</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.900309098837158</v>
+        <v>2.861601997846184</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.691566466028186</v>
+        <v>0.5490673596474637</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.837929783787614</v>
+        <v>4.6561258546138</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>10.44037703265586</v>
+        <v>21.61137393888102</v>
       </c>
       <c r="D28" t="n">
-        <v>4.900020675129101</v>
+        <v>45.46784177469954</v>
       </c>
       <c r="E28" t="n">
-        <v>18.85102857128698</v>
+        <v>12.07374929996809</v>
       </c>
       <c r="F28" t="n">
-        <v>10.76085333333333</v>
+        <v>1.11311545344913</v>
       </c>
       <c r="G28" t="n">
-        <v>12.03553138643992</v>
+        <v>6.432042187919141</v>
       </c>
       <c r="H28" t="n">
-        <v>5.899482691987341</v>
+        <v>14.36465336845395</v>
       </c>
       <c r="I28" t="n">
-        <v>15.87556028136006</v>
+        <v>22.59297712253071</v>
       </c>
       <c r="J28" t="n">
-        <v>80.31358397338195</v>
+        <v>9.301466100136357</v>
       </c>
       <c r="K28" t="n">
-        <v>74.85786349880233</v>
+        <v>51.91599650495557</v>
       </c>
       <c r="L28" t="n">
-        <v>54.70153091361422</v>
+        <v>86.5449294788238</v>
       </c>
       <c r="M28" t="n">
-        <v>71.7290770798834</v>
+        <v>14.66982118424378</v>
       </c>
       <c r="N28" t="n">
-        <v>14.0185731937309</v>
+        <v>79.77743785980704</v>
       </c>
       <c r="O28" t="n">
-        <v>116.1434782608696</v>
+        <v>191.1621280971243</v>
       </c>
       <c r="P28" t="n">
-        <v>46.99092723943645</v>
+        <v>7.653301953556452</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.75684736344117</v>
+        <v>91.92250386258154</v>
       </c>
       <c r="R28" t="n">
-        <v>48.86122757887362</v>
+        <v>60.15507833332943</v>
       </c>
       <c r="S28" t="n">
-        <v>83.79110678260869</v>
+        <v>46.15430253509136</v>
       </c>
       <c r="T28" t="n">
-        <v>28.37892540218423</v>
+        <v>187.4576566093402</v>
       </c>
       <c r="U28" t="n">
-        <v>43.02021394495915</v>
+        <v>121.8898413403771</v>
       </c>
       <c r="V28" t="n">
-        <v>23.05802234229223</v>
+        <v>39.05225989029793</v>
       </c>
       <c r="W28" t="n">
-        <v>131.8903360285714</v>
+        <v>54.75716883688189</v>
       </c>
       <c r="X28" t="n">
-        <v>47.68244398567112</v>
+        <v>50.36042333614988</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.55267119827517</v>
+        <v>117.1805329834491</v>
       </c>
       <c r="Z28" t="n">
-        <v>54.01573007578907</v>
+        <v>19.90673400125558</v>
       </c>
       <c r="AA28" t="n">
-        <v>49.79275534618815</v>
+        <v>30.74501372725278</v>
       </c>
       <c r="AB28" t="n">
-        <v>116.6119386034346</v>
+        <v>44.74373565573975</v>
       </c>
       <c r="AC28" t="n">
-        <v>124.2659767507797</v>
+        <v>159.4282678340864</v>
       </c>
       <c r="AD28" t="n">
-        <v>86.11648459169085</v>
+        <v>63.02167481283541</v>
       </c>
       <c r="AE28" t="n">
-        <v>52.80029187946185</v>
+        <v>86.80736340446603</v>
       </c>
       <c r="AF28" t="n">
-        <v>37.35175785704434</v>
+        <v>89.26417302745692</v>
       </c>
       <c r="AG28" t="n">
-        <v>89.62140741455784</v>
+        <v>41.00412991013703</v>
       </c>
       <c r="AH28" t="n">
-        <v>41.39188494148718</v>
+        <v>42.12828949970871</v>
       </c>
       <c r="AI28" t="n">
-        <v>41.64837835206138</v>
+        <v>41.49233645047924</v>
       </c>
       <c r="AJ28" t="n">
-        <v>105.9589019693834</v>
+        <v>32.48658770322433</v>
       </c>
       <c r="AK28" t="n">
-        <v>37.07730398228891</v>
+        <v>37.4001576475126</v>
       </c>
       <c r="AL28" t="n">
-        <v>107.7138801529962</v>
+        <v>29.06996635432114</v>
       </c>
       <c r="AM28" t="n">
-        <v>66.77799649373416</v>
+        <v>36.93287721385543</v>
       </c>
       <c r="AN28" t="n">
-        <v>10.64244933750847</v>
+        <v>59.8241268875831</v>
       </c>
       <c r="AO28" t="n">
-        <v>21.60015392263222</v>
+        <v>22.65301904383842</v>
       </c>
       <c r="AP28" t="n">
-        <v>14.58478483593045</v>
+        <v>17.95637291382493</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16.27592199266267</v>
+        <v>12.68292459749986</v>
       </c>
       <c r="AR28" t="n">
-        <v>14.69873277513656</v>
+        <v>9.376644295318433</v>
       </c>
       <c r="AS28" t="n">
-        <v>22.07703589063987</v>
+        <v>9.120687355589084</v>
       </c>
       <c r="AT28" t="n">
-        <v>7.495625298254753</v>
+        <v>15.11784233169119</v>
       </c>
       <c r="AU28" t="n">
-        <v>14.55743646988399</v>
+        <v>13.07000893396647</v>
       </c>
       <c r="AV28" t="n">
-        <v>8.87545082636502</v>
+        <v>7.967661827424774</v>
       </c>
       <c r="AW28" t="n">
-        <v>7.872598088453091</v>
+        <v>17.66120889914166</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.03599845273347</v>
+        <v>17.00656815240627</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>32.16419029711603</v>
       </c>
       <c r="D29" t="n">
-        <v>16.12797970552135</v>
+        <v>3.231763134873073</v>
       </c>
       <c r="E29" t="n">
-        <v>22.22286561008588</v>
+        <v>9.339697990832745</v>
       </c>
       <c r="F29" t="n">
-        <v>31.85883227895832</v>
+        <v>33.48873236464645</v>
       </c>
       <c r="G29" t="n">
-        <v>20.2865613658733</v>
+        <v>25.02897992376267</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7.549662395153683</v>
       </c>
       <c r="I29" t="n">
-        <v>17.04222627031692</v>
+        <v>35.58092724683053</v>
       </c>
       <c r="J29" t="n">
-        <v>21.49682780128951</v>
+        <v>21.53749145618821</v>
       </c>
       <c r="K29" t="n">
-        <v>14.60630841663648</v>
+        <v>59.33364872710461</v>
       </c>
       <c r="L29" t="n">
-        <v>57.96116612610292</v>
+        <v>10.33239624394771</v>
       </c>
       <c r="M29" t="n">
-        <v>67.21260000912363</v>
+        <v>30.07804656186034</v>
       </c>
       <c r="N29" t="n">
-        <v>58.58027335178807</v>
+        <v>60.18678231119402</v>
       </c>
       <c r="O29" t="n">
-        <v>39.99262618652739</v>
+        <v>88.39392340156471</v>
       </c>
       <c r="P29" t="n">
-        <v>45.19861700279831</v>
+        <v>6.470256943638026</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>81.45728307865271</v>
       </c>
       <c r="R29" t="n">
-        <v>35.93979615993288</v>
+        <v>15.38030000726617</v>
       </c>
       <c r="S29" t="n">
-        <v>41.20446107445723</v>
+        <v>33.53139750802056</v>
       </c>
       <c r="T29" t="n">
-        <v>33.77211873000567</v>
+        <v>27.87964266833928</v>
       </c>
       <c r="U29" t="n">
-        <v>92.94823001991787</v>
+        <v>42.75922956094914</v>
       </c>
       <c r="V29" t="n">
-        <v>52.76414991389437</v>
+        <v>61.04684487033776</v>
       </c>
       <c r="W29" t="n">
-        <v>40.3895684296169</v>
+        <v>47.80699410679578</v>
       </c>
       <c r="X29" t="n">
-        <v>51.33717375193699</v>
+        <v>34.22869421206325</v>
       </c>
       <c r="Y29" t="n">
-        <v>33.91274042952911</v>
+        <v>18.23737485527595</v>
       </c>
       <c r="Z29" t="n">
-        <v>39.88607363233116</v>
+        <v>52.85751872483692</v>
       </c>
       <c r="AA29" t="n">
-        <v>47.02573409208738</v>
+        <v>30.53300945400352</v>
       </c>
       <c r="AB29" t="n">
-        <v>4.50205332923203</v>
+        <v>29.14880724633388</v>
       </c>
       <c r="AC29" t="n">
-        <v>65.70101737341238</v>
+        <v>86.03462822571761</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.186224919610892</v>
+        <v>60.50377056147956</v>
       </c>
       <c r="AE29" t="n">
-        <v>107.2309612851953</v>
+        <v>21.54419691196169</v>
       </c>
       <c r="AF29" t="n">
-        <v>24.08971306746904</v>
+        <v>22.24560942117404</v>
       </c>
       <c r="AG29" t="n">
-        <v>29.11270629514017</v>
+        <v>38.97579103436566</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>21.36953737299348</v>
       </c>
       <c r="AI29" t="n">
-        <v>56.46562654971329</v>
+        <v>18.92083568193421</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25.63418835138878</v>
+        <v>80.21076596558412</v>
       </c>
       <c r="AK29" t="n">
-        <v>23.30133720322988</v>
+        <v>80.73150083724209</v>
       </c>
       <c r="AL29" t="n">
-        <v>32.0148105730553</v>
+        <v>36.84043558689631</v>
       </c>
       <c r="AM29" t="n">
-        <v>31.67836314964253</v>
+        <v>13.02395688703549</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.097081183849687</v>
+        <v>46.96591831176175</v>
       </c>
       <c r="AO29" t="n">
-        <v>23.54898268703898</v>
+        <v>11.10893664978096</v>
       </c>
       <c r="AP29" t="n">
-        <v>25.66663725555712</v>
+        <v>11.69635946273679</v>
       </c>
       <c r="AQ29" t="n">
-        <v>29.64976770466977</v>
+        <v>21.18428877805746</v>
       </c>
       <c r="AR29" t="n">
-        <v>29.4659426194107</v>
+        <v>8.572194077829636</v>
       </c>
       <c r="AS29" t="n">
-        <v>25.84966703752285</v>
+        <v>23.742130281659</v>
       </c>
       <c r="AT29" t="n">
-        <v>20.47311514276406</v>
+        <v>9.128490317756514</v>
       </c>
       <c r="AU29" t="n">
-        <v>1.108057616742653</v>
+        <v>45.44273780268265</v>
       </c>
       <c r="AV29" t="n">
-        <v>26.92041241377471</v>
+        <v>32.58549170117967</v>
       </c>
       <c r="AW29" t="n">
-        <v>23.56889798844667</v>
+        <v>2.049010818869586</v>
       </c>
       <c r="AX29" t="n">
-        <v>28.01949124658043</v>
+        <v>16.18979123715474</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>7.617733404994607</v>
+        <v>0.4516523321410201</v>
       </c>
       <c r="D30" t="n">
-        <v>3.247725386024305</v>
+        <v>7.38701945665435</v>
       </c>
       <c r="E30" t="n">
-        <v>1.307649948436388</v>
+        <v>1.351767337789281</v>
       </c>
       <c r="F30" t="n">
-        <v>4.063500000000001</v>
+        <v>5.464648746004832</v>
       </c>
       <c r="G30" t="n">
-        <v>10.88824504520704</v>
+        <v>4.356208329493414</v>
       </c>
       <c r="H30" t="n">
-        <v>9.180228205018885</v>
+        <v>6.821253218217761</v>
       </c>
       <c r="I30" t="n">
-        <v>3.287977854219366</v>
+        <v>49.3426105072844</v>
       </c>
       <c r="J30" t="n">
-        <v>2.045726205276465</v>
+        <v>4.435570333009887</v>
       </c>
       <c r="K30" t="n">
-        <v>1.544057323249529</v>
+        <v>7.017703796680745</v>
       </c>
       <c r="L30" t="n">
-        <v>3.328860905763656</v>
+        <v>7.466715992264563</v>
       </c>
       <c r="M30" t="n">
-        <v>7.013303166588628</v>
+        <v>28.10968590073676</v>
       </c>
       <c r="N30" t="n">
-        <v>7.695014890519471</v>
+        <v>38.97332434060399</v>
       </c>
       <c r="O30" t="n">
-        <v>28.10335254225235</v>
+        <v>93.78126910732512</v>
       </c>
       <c r="P30" t="n">
-        <v>18.65090577718954</v>
+        <v>4.375988403074981</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.03875</v>
+        <v>20.18164745117764</v>
       </c>
       <c r="R30" t="n">
-        <v>9.414335621153526</v>
+        <v>28.3595332349634</v>
       </c>
       <c r="S30" t="n">
-        <v>33.36402792150217</v>
+        <v>59.68373744461827</v>
       </c>
       <c r="T30" t="n">
-        <v>43.78927698529616</v>
+        <v>13.62136656988648</v>
       </c>
       <c r="U30" t="n">
-        <v>18.65819066955574</v>
+        <v>22.64935307584877</v>
       </c>
       <c r="V30" t="n">
-        <v>21.6687968</v>
+        <v>15.59773965196872</v>
       </c>
       <c r="W30" t="n">
-        <v>7.904459703571479</v>
+        <v>17.03735809085705</v>
       </c>
       <c r="X30" t="n">
-        <v>32.69373248250562</v>
+        <v>123.722895741739</v>
       </c>
       <c r="Y30" t="n">
-        <v>22.92700828390928</v>
+        <v>20.18095592464217</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.48496844272381</v>
+        <v>21.4198835526382</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.4516922240517</v>
+        <v>10.57561596662293</v>
       </c>
       <c r="AB30" t="n">
-        <v>20.69314725372208</v>
+        <v>22.52778684122211</v>
       </c>
       <c r="AC30" t="n">
-        <v>13.81384951468215</v>
+        <v>26.07241352994425</v>
       </c>
       <c r="AD30" t="n">
-        <v>16.20476545078009</v>
+        <v>9.861511515397012</v>
       </c>
       <c r="AE30" t="n">
-        <v>17.57086188816144</v>
+        <v>3.037632242258971</v>
       </c>
       <c r="AF30" t="n">
-        <v>17.5133890803928</v>
+        <v>12.62975717876127</v>
       </c>
       <c r="AG30" t="n">
-        <v>15.21293507155161</v>
+        <v>11.53054352966082</v>
       </c>
       <c r="AH30" t="n">
-        <v>19.61353000110955</v>
+        <v>6.951008019716347</v>
       </c>
       <c r="AI30" t="n">
-        <v>23.35231607870538</v>
+        <v>9.098526245616906</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12.08972382617669</v>
+        <v>10.6175878821234</v>
       </c>
       <c r="AK30" t="n">
-        <v>16.69318687585268</v>
+        <v>2.664764692451799</v>
       </c>
       <c r="AL30" t="n">
-        <v>6.453321826332155</v>
+        <v>4.517697817661345</v>
       </c>
       <c r="AM30" t="n">
-        <v>5.087447835964201</v>
+        <v>5.627186091238073</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.1419797</v>
+        <v>1.652477079299778</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.59782326157023</v>
+        <v>6.976289088444976</v>
       </c>
       <c r="AP30" t="n">
-        <v>5.288270349391934</v>
+        <v>0.7190883002809958</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.665787404918507</v>
+        <v>1.600931454490368</v>
       </c>
       <c r="AR30" t="n">
-        <v>11.85660972961754</v>
+        <v>5.285725889659209</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.340940279534448</v>
+        <v>1.249095297302659</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.407837392945132</v>
+        <v>1.030052943088857</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.5627626174374467</v>
+        <v>2.423231898900016</v>
       </c>
       <c r="AV30" t="n">
-        <v>2.012672275402042</v>
+        <v>3.068155013936537</v>
       </c>
       <c r="AW30" t="n">
-        <v>2.585220732118254</v>
+        <v>0.9654406803827094</v>
       </c>
       <c r="AX30" t="n">
-        <v>2.09807574879458</v>
+        <v>3.140136712061345</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>17.9</v>
+        <v>68.69659147458765</v>
       </c>
       <c r="D31" t="n">
-        <v>6.21</v>
+        <v>25.86829602196441</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>8.036456531382091</v>
       </c>
       <c r="F31" t="n">
-        <v>27.42</v>
+        <v>10.2666883481008</v>
       </c>
       <c r="G31" t="n">
-        <v>13.73378283976608</v>
+        <v>5.823702376935612</v>
       </c>
       <c r="H31" t="n">
-        <v>7.62</v>
+        <v>82.13273835637931</v>
       </c>
       <c r="I31" t="n">
-        <v>9.67</v>
+        <v>49.43506669538479</v>
       </c>
       <c r="J31" t="n">
-        <v>5.125001074468384</v>
+        <v>14.18157655294697</v>
       </c>
       <c r="K31" t="n">
-        <v>57.03</v>
+        <v>23.16367261998517</v>
       </c>
       <c r="L31" t="n">
-        <v>25.68</v>
+        <v>8.798592620822069</v>
       </c>
       <c r="M31" t="n">
-        <v>64.97</v>
+        <v>24.47606907649863</v>
       </c>
       <c r="N31" t="n">
-        <v>24.82</v>
+        <v>65.88547955288627</v>
       </c>
       <c r="O31" t="n">
-        <v>15.1</v>
+        <v>60.59079663840857</v>
       </c>
       <c r="P31" t="n">
-        <v>10.61</v>
+        <v>46.1678079915942</v>
       </c>
       <c r="Q31" t="n">
-        <v>54.42</v>
+        <v>18.82477893217554</v>
       </c>
       <c r="R31" t="n">
-        <v>55.94</v>
+        <v>109.4855944149203</v>
       </c>
       <c r="S31" t="n">
-        <v>22.06</v>
+        <v>60.37155342673841</v>
       </c>
       <c r="T31" t="n">
-        <v>27.61</v>
+        <v>32.08155536418725</v>
       </c>
       <c r="U31" t="n">
-        <v>46.55</v>
+        <v>23.74242876340681</v>
       </c>
       <c r="V31" t="n">
-        <v>22.95</v>
+        <v>8.469216443595293</v>
       </c>
       <c r="W31" t="n">
-        <v>51.13</v>
+        <v>6.224205383966869</v>
       </c>
       <c r="X31" t="n">
-        <v>14.77</v>
+        <v>6.323619269049842</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.23</v>
+        <v>8.084368305913738</v>
       </c>
       <c r="Z31" t="n">
-        <v>35.2</v>
+        <v>4.798320461413559</v>
       </c>
       <c r="AA31" t="n">
-        <v>25.55</v>
+        <v>12.90987772108341</v>
       </c>
       <c r="AB31" t="n">
-        <v>3.29</v>
+        <v>7.041208948444164</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.504221103961719</v>
+        <v>6.236946126332827</v>
       </c>
       <c r="AD31" t="n">
-        <v>27.52</v>
+        <v>21.0761144098973</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.25</v>
+        <v>8.26729346929678</v>
       </c>
       <c r="AF31" t="n">
-        <v>4.37</v>
+        <v>2.014580380317139</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.94</v>
+        <v>17.13291192344386</v>
       </c>
       <c r="AH31" t="n">
-        <v>2.37</v>
+        <v>5.605116080852036</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.3</v>
+        <v>3.646967383276253</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11.22</v>
+        <v>22.71827488205139</v>
       </c>
       <c r="AK31" t="n">
-        <v>35.75</v>
+        <v>13.66540336869709</v>
       </c>
       <c r="AL31" t="n">
-        <v>4.815879017013232</v>
+        <v>21.38321847438991</v>
       </c>
       <c r="AM31" t="n">
-        <v>71.84</v>
+        <v>2.622350852081647</v>
       </c>
       <c r="AN31" t="n">
-        <v>16.39</v>
+        <v>3.588168493866473</v>
       </c>
       <c r="AO31" t="n">
-        <v>4.07</v>
+        <v>126.9850279527835</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.41</v>
+        <v>0.4072994356925635</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.58</v>
+        <v>0.97580715596131</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.86</v>
+        <v>2.751257221098485</v>
       </c>
       <c r="AS31" t="n">
-        <v>12.5</v>
+        <v>6.201593231381596</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.94</v>
+        <v>4.061089169869216</v>
       </c>
       <c r="AU31" t="n">
-        <v>3.37</v>
+        <v>12.68230179292817</v>
       </c>
       <c r="AV31" t="n">
-        <v>1</v>
+        <v>2.892750738250854</v>
       </c>
       <c r="AW31" t="n">
-        <v>3.37</v>
+        <v>3.973347618195144</v>
       </c>
       <c r="AX31" t="n">
-        <v>1.98</v>
+        <v>7.916711453829282</v>
       </c>
     </row>
   </sheetData>

--- a/escenarios_montecarlo/escenario_010.xlsx
+++ b/escenarios_montecarlo/escenario_010.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.84715941020894</v>
+        <v>18.4750243951959</v>
       </c>
       <c r="D2" t="n">
-        <v>24.46529152406695</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.3024700846995</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.35142340154388</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.05992481940636</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>32.03508569016527</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04369566756189</v>
+        <v>30.5653001621066</v>
       </c>
       <c r="J2" t="n">
-        <v>66.38131491065123</v>
+        <v>304.4832794491861</v>
       </c>
       <c r="K2" t="n">
-        <v>10.96760271990073</v>
+        <v>82.10557509626845</v>
       </c>
       <c r="L2" t="n">
-        <v>212.3771038548156</v>
+        <v>87.79315899508551</v>
       </c>
       <c r="M2" t="n">
-        <v>60.85521789621669</v>
+        <v>155.2698503313944</v>
       </c>
       <c r="N2" t="n">
-        <v>92.21856327898418</v>
+        <v>89.77442126540632</v>
       </c>
       <c r="O2" t="n">
-        <v>72.19279425627579</v>
+        <v>53.44334112332173</v>
       </c>
       <c r="P2" t="n">
-        <v>67.48729189383459</v>
+        <v>66.11957379639996</v>
       </c>
       <c r="Q2" t="n">
-        <v>52.25482348971759</v>
+        <v>68.91771600964231</v>
       </c>
       <c r="R2" t="n">
-        <v>30.57358924443046</v>
+        <v>61.8435923593544</v>
       </c>
       <c r="S2" t="n">
-        <v>38.42764830737831</v>
+        <v>97.10599399409557</v>
       </c>
       <c r="T2" t="n">
-        <v>97.1441772567745</v>
+        <v>35.40876660897843</v>
       </c>
       <c r="U2" t="n">
-        <v>75.23004354570818</v>
+        <v>38.60635384965386</v>
       </c>
       <c r="V2" t="n">
-        <v>47.68849228646344</v>
+        <v>49.00351571722277</v>
       </c>
       <c r="W2" t="n">
-        <v>40.02080534291669</v>
+        <v>51.74507863590112</v>
       </c>
       <c r="X2" t="n">
-        <v>48.55120386489369</v>
+        <v>45.07246932756868</v>
       </c>
       <c r="Y2" t="n">
-        <v>61.86328559904726</v>
+        <v>46.9667456218987</v>
       </c>
       <c r="Z2" t="n">
-        <v>63.67683465940411</v>
+        <v>60.89633728947667</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.3383299517068</v>
+        <v>127.4638861886739</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.74840264702404</v>
+        <v>58.01986893020116</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.7961452636324</v>
+        <v>167.6614484619992</v>
       </c>
       <c r="AD2" t="n">
-        <v>142.444736051856</v>
+        <v>182.178298339102</v>
       </c>
       <c r="AE2" t="n">
-        <v>69.18692804803744</v>
+        <v>94.44229984802629</v>
       </c>
       <c r="AF2" t="n">
-        <v>158.4905848085182</v>
+        <v>50.74604070110981</v>
       </c>
       <c r="AG2" t="n">
-        <v>105.7457451835565</v>
+        <v>179.5776369020985</v>
       </c>
       <c r="AH2" t="n">
-        <v>34.92190938525363</v>
+        <v>27.8171278069013</v>
       </c>
       <c r="AI2" t="n">
-        <v>39.42024856817525</v>
+        <v>76.10176083780472</v>
       </c>
       <c r="AJ2" t="n">
-        <v>88.59581749532828</v>
+        <v>121.5884952831267</v>
       </c>
       <c r="AK2" t="n">
-        <v>54.88413803197725</v>
+        <v>76.8534169981112</v>
       </c>
       <c r="AL2" t="n">
-        <v>24.54038294239369</v>
+        <v>13.20910262732829</v>
       </c>
       <c r="AM2" t="n">
-        <v>30.52395250073302</v>
+        <v>21.48358831133653</v>
       </c>
       <c r="AN2" t="n">
-        <v>43.19240664115049</v>
+        <v>23.86590096305235</v>
       </c>
       <c r="AO2" t="n">
-        <v>46.98668505987204</v>
+        <v>41.76189105895963</v>
       </c>
       <c r="AP2" t="n">
-        <v>16.86648200914566</v>
+        <v>26.06519612505797</v>
       </c>
       <c r="AQ2" t="n">
-        <v>32.61697370840527</v>
+        <v>34.38148825632639</v>
       </c>
       <c r="AR2" t="n">
-        <v>35.33838219146975</v>
+        <v>8.523397929408087</v>
       </c>
       <c r="AS2" t="n">
-        <v>14.11417231066534</v>
+        <v>20.03113902406949</v>
       </c>
       <c r="AT2" t="n">
-        <v>35.49028832959309</v>
+        <v>31.49615453843206</v>
       </c>
       <c r="AU2" t="n">
-        <v>14.61896360417265</v>
+        <v>31.98158419893536</v>
       </c>
       <c r="AV2" t="n">
-        <v>21.50325260238689</v>
+        <v>13.90375251349601</v>
       </c>
       <c r="AW2" t="n">
-        <v>35.97655603543957</v>
+        <v>14.71357941137203</v>
       </c>
       <c r="AX2" t="n">
-        <v>21.16380352974261</v>
+        <v>12.34946967788462</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8139769276079954</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.092400815122146</v>
+        <v>3.25208098629524</v>
       </c>
       <c r="E3" t="n">
-        <v>28.05781736282289</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.421873754146715</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.911528762323846</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.132837924968377</v>
+        <v>8.696940197599563</v>
       </c>
       <c r="I3" t="n">
-        <v>5.515872586034798</v>
+        <v>5.98148824707155</v>
       </c>
       <c r="J3" t="n">
-        <v>6.61927569372315</v>
+        <v>4.227140485269082</v>
       </c>
       <c r="K3" t="n">
-        <v>1.721481224099479</v>
+        <v>2.077913959607089</v>
       </c>
       <c r="L3" t="n">
-        <v>16.0898196544681</v>
+        <v>10.00594814989199</v>
       </c>
       <c r="M3" t="n">
-        <v>5.271677650808805</v>
+        <v>3.731302787385371</v>
       </c>
       <c r="N3" t="n">
-        <v>4.325067251403036</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.305178614687658</v>
+        <v>5.723019412659594</v>
       </c>
       <c r="P3" t="n">
-        <v>3.933397255793626</v>
+        <v>5.115102678112748</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.850312428465498</v>
+        <v>3.96930604577671</v>
       </c>
       <c r="R3" t="n">
-        <v>3.064024470820313</v>
+        <v>4.40319481745302</v>
       </c>
       <c r="S3" t="n">
-        <v>4.181473691463456</v>
+        <v>2.999567186980253</v>
       </c>
       <c r="T3" t="n">
-        <v>4.263502581589316</v>
+        <v>3.97231989478917</v>
       </c>
       <c r="U3" t="n">
-        <v>4.707448244273701</v>
+        <v>1.258547392136878</v>
       </c>
       <c r="V3" t="n">
-        <v>4.580051056288175</v>
+        <v>4.582058486300606</v>
       </c>
       <c r="W3" t="n">
-        <v>4.134801035504441</v>
+        <v>8.220563758657175</v>
       </c>
       <c r="X3" t="n">
-        <v>4.856233948143978</v>
+        <v>4.788822896311608</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.78085362938667</v>
+        <v>5.7107580411749</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.644596436548858</v>
+        <v>4.552257682405592</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.331113373930042</v>
+        <v>6.327250802583521</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.630747966829363</v>
+        <v>3.027883356780217</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.072831867555101</v>
+        <v>2.728180159065252</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.712927988107157</v>
+        <v>7.443062488207635</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.41137097471709</v>
+        <v>7.003590778359891</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.865002170880455</v>
+        <v>4.591046120239408</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.787303342437729</v>
+        <v>6.088418242493816</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.573589784738604</v>
+        <v>1.987875903310426</v>
       </c>
       <c r="AI3" t="n">
-        <v>11.00818089830567</v>
+        <v>0.651765781140863</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.322458134977292</v>
+        <v>5.845142657461202</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.148699655271236</v>
+        <v>3.854031361136276</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.706424159267418</v>
+        <v>2.827707535089766</v>
       </c>
       <c r="AM3" t="n">
-        <v>7.8057056256605</v>
+        <v>5.01336500048051</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.665859646373532</v>
+        <v>2.11750503002968</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.846684507623257</v>
+        <v>1.442092694408084</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.117894725528155</v>
+        <v>5.137452670879731</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6.522581850145532</v>
+        <v>9.120321385712176</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.159732037294764</v>
+        <v>2.550723016816527</v>
       </c>
       <c r="AS3" t="n">
-        <v>18.2370792585724</v>
+        <v>2.304408438205131</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.208352945011345</v>
+        <v>3.202953614774722</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.729356359472259</v>
+        <v>5.372562438574882</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.623457585944432</v>
+        <v>4.523349911737959</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.896401568126189</v>
+        <v>5.755103536085926</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.889717547797652</v>
+        <v>2.544860535214968</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>14.95424136195586</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.11472273885014</v>
+        <v>22.88653146680581</v>
       </c>
       <c r="E4" t="n">
-        <v>11.1753058185488</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.25615624471452</v>
+        <v>6.282913952693527</v>
       </c>
       <c r="G4" t="n">
-        <v>19.09625107638381</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>20.98245450114381</v>
+        <v>15.12752048895768</v>
       </c>
       <c r="I4" t="n">
-        <v>372.4024032864376</v>
+        <v>63.93472993343686</v>
       </c>
       <c r="J4" t="n">
-        <v>6.711944780593058</v>
+        <v>64.50576930505066</v>
       </c>
       <c r="K4" t="n">
-        <v>35.01789304260128</v>
+        <v>31.29399106752562</v>
       </c>
       <c r="L4" t="n">
-        <v>97.43116320115449</v>
+        <v>19.11009434758492</v>
       </c>
       <c r="M4" t="n">
-        <v>61.67853170774595</v>
+        <v>77.03896423060013</v>
       </c>
       <c r="N4" t="n">
-        <v>32.68924694390999</v>
+        <v>94.71562803786118</v>
       </c>
       <c r="O4" t="n">
-        <v>76.38512630358449</v>
+        <v>62.41904014424336</v>
       </c>
       <c r="P4" t="n">
-        <v>32.11236867376088</v>
+        <v>65.72522469415003</v>
       </c>
       <c r="Q4" t="n">
-        <v>118.727783183323</v>
+        <v>25.60739410604285</v>
       </c>
       <c r="R4" t="n">
-        <v>26.84622840082463</v>
+        <v>6.593589737059141</v>
       </c>
       <c r="S4" t="n">
-        <v>71.64211180173928</v>
+        <v>51.35002795497903</v>
       </c>
       <c r="T4" t="n">
-        <v>74.49604979207312</v>
+        <v>135.8853558507107</v>
       </c>
       <c r="U4" t="n">
-        <v>24.71569884258287</v>
+        <v>39.31077819291369</v>
       </c>
       <c r="V4" t="n">
-        <v>100.7339316780745</v>
+        <v>82.33613038066055</v>
       </c>
       <c r="W4" t="n">
-        <v>54.24909397455157</v>
+        <v>86.42682828149518</v>
       </c>
       <c r="X4" t="n">
-        <v>39.5865822220676</v>
+        <v>85.34691687008416</v>
       </c>
       <c r="Y4" t="n">
-        <v>124.5867532471535</v>
+        <v>75.68494085373136</v>
       </c>
       <c r="Z4" t="n">
-        <v>80.19094162533315</v>
+        <v>46.55985097394568</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.24651717493524</v>
+        <v>35.04695049210062</v>
       </c>
       <c r="AB4" t="n">
-        <v>47.01854407078363</v>
+        <v>78.44897202418272</v>
       </c>
       <c r="AC4" t="n">
-        <v>40.02403340625471</v>
+        <v>71.31591474057375</v>
       </c>
       <c r="AD4" t="n">
-        <v>55.05747368517002</v>
+        <v>37.32227193462735</v>
       </c>
       <c r="AE4" t="n">
-        <v>106.2436066743769</v>
+        <v>55.31044208170403</v>
       </c>
       <c r="AF4" t="n">
-        <v>38.77962727886128</v>
+        <v>35.57918843510627</v>
       </c>
       <c r="AG4" t="n">
-        <v>49.58896800451039</v>
+        <v>82.13836189286179</v>
       </c>
       <c r="AH4" t="n">
-        <v>60.01072215023979</v>
+        <v>39.72240796379636</v>
       </c>
       <c r="AI4" t="n">
-        <v>42.99827402593849</v>
+        <v>99.79271373654051</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51.16838704542603</v>
+        <v>53.94670652751468</v>
       </c>
       <c r="AK4" t="n">
-        <v>29.50056331625488</v>
+        <v>55.61552970324283</v>
       </c>
       <c r="AL4" t="n">
-        <v>21.48884415992261</v>
+        <v>6.178767072222843</v>
       </c>
       <c r="AM4" t="n">
-        <v>29.05311277085778</v>
+        <v>25.57131258391198</v>
       </c>
       <c r="AN4" t="n">
-        <v>22.38489915341463</v>
+        <v>17.05642578011285</v>
       </c>
       <c r="AO4" t="n">
-        <v>29.85069313048188</v>
+        <v>26.65079547799235</v>
       </c>
       <c r="AP4" t="n">
-        <v>17.7701735128288</v>
+        <v>17.54160682019007</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8.984851343433535</v>
+        <v>22.68847978431294</v>
       </c>
       <c r="AR4" t="n">
-        <v>8.114450032548669</v>
+        <v>22.09603296431746</v>
       </c>
       <c r="AS4" t="n">
-        <v>17.16176774419248</v>
+        <v>14.78514185189643</v>
       </c>
       <c r="AT4" t="n">
-        <v>9.723787845015419</v>
+        <v>7.577841027656422</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.996127848723672</v>
+        <v>7.270779403267341</v>
       </c>
       <c r="AV4" t="n">
-        <v>12.12157974538396</v>
+        <v>5.495657926865999</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.227586017197848</v>
+        <v>15.71391765018318</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.48183565919268</v>
+        <v>16.55245590817453</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>34.17060874222425</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>28.80032255516542</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.146795475678853</v>
+        <v>7.164989856169615</v>
       </c>
       <c r="F5" t="n">
-        <v>160.674479859574</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11.95849161226963</v>
+        <v>13.01368206132757</v>
       </c>
       <c r="H5" t="n">
-        <v>5.611632940323676</v>
+        <v>16.8977491019405</v>
       </c>
       <c r="I5" t="n">
-        <v>12.32926003955098</v>
+        <v>15.12299514411187</v>
       </c>
       <c r="J5" t="n">
-        <v>100.7844534864278</v>
+        <v>39.84257782772355</v>
       </c>
       <c r="K5" t="n">
-        <v>7.592026465387906</v>
+        <v>63.91810322048772</v>
       </c>
       <c r="L5" t="n">
-        <v>5.43527316752741</v>
+        <v>143.8337375899873</v>
       </c>
       <c r="M5" t="n">
-        <v>62.7750574139345</v>
+        <v>19.08851773120938</v>
       </c>
       <c r="N5" t="n">
-        <v>20.33694450933439</v>
+        <v>42.69899210852953</v>
       </c>
       <c r="O5" t="n">
-        <v>34.22147950586605</v>
+        <v>45.75499211124975</v>
       </c>
       <c r="P5" t="n">
-        <v>2.823279511183592</v>
+        <v>23.57951023873492</v>
       </c>
       <c r="Q5" t="n">
-        <v>52.46481742606336</v>
+        <v>148.2671985087975</v>
       </c>
       <c r="R5" t="n">
-        <v>58.77548744223338</v>
+        <v>20.82262430922395</v>
       </c>
       <c r="S5" t="n">
-        <v>39.91053794217637</v>
+        <v>31.75877450637669</v>
       </c>
       <c r="T5" t="n">
-        <v>74.58620562050081</v>
+        <v>41.15971366868951</v>
       </c>
       <c r="U5" t="n">
-        <v>31.57954892541274</v>
+        <v>16.37819881568369</v>
       </c>
       <c r="V5" t="n">
-        <v>50.35097689214538</v>
+        <v>53.19082231626439</v>
       </c>
       <c r="W5" t="n">
-        <v>73.90677025804017</v>
+        <v>48.05736433528568</v>
       </c>
       <c r="X5" t="n">
-        <v>50.95064359427621</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.16631874388319</v>
+        <v>35.11328981854298</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.85466405441303</v>
+        <v>44.76238956314057</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.6309387762644</v>
+        <v>36.00228828280991</v>
       </c>
       <c r="AB5" t="n">
-        <v>43.25688299879143</v>
+        <v>13.30588273572497</v>
       </c>
       <c r="AC5" t="n">
-        <v>33.58249369203953</v>
+        <v>25.58165448099892</v>
       </c>
       <c r="AD5" t="n">
-        <v>19.97514276316013</v>
+        <v>28.06244969124851</v>
       </c>
       <c r="AE5" t="n">
-        <v>17.41850637137693</v>
+        <v>16.46489949871858</v>
       </c>
       <c r="AF5" t="n">
-        <v>20.81460988232189</v>
+        <v>63.70033818131356</v>
       </c>
       <c r="AG5" t="n">
-        <v>46.72660629208199</v>
+        <v>23.14927660171779</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.162349519481539</v>
+        <v>32.15394973330883</v>
       </c>
       <c r="AI5" t="n">
-        <v>41.03060233888575</v>
+        <v>45.80968798860668</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29.646357691718</v>
+        <v>9.138513311225553</v>
       </c>
       <c r="AK5" t="n">
-        <v>8.365744277012153</v>
+        <v>22.06731918491495</v>
       </c>
       <c r="AL5" t="n">
-        <v>16.3370203558145</v>
+        <v>20.03535114894924</v>
       </c>
       <c r="AM5" t="n">
-        <v>36.13900927630905</v>
+        <v>13.47470360962885</v>
       </c>
       <c r="AN5" t="n">
-        <v>56.05038374502988</v>
+        <v>23.21244534373857</v>
       </c>
       <c r="AO5" t="n">
-        <v>29.84173083327413</v>
+        <v>0.5275008150660456</v>
       </c>
       <c r="AP5" t="n">
-        <v>25.5332084390456</v>
+        <v>24.61846861887528</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20.38076839569494</v>
+        <v>27.05068935950509</v>
       </c>
       <c r="AR5" t="n">
-        <v>36.36356701089277</v>
+        <v>28.24074191812818</v>
       </c>
       <c r="AS5" t="n">
-        <v>18.46448543620112</v>
+        <v>20.20282038979705</v>
       </c>
       <c r="AT5" t="n">
-        <v>31.27754618362292</v>
+        <v>27.13368356202537</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.88734024403957</v>
+        <v>26.80335663858605</v>
       </c>
       <c r="AV5" t="n">
-        <v>11.46488821744871</v>
+        <v>35.2093019492168</v>
       </c>
       <c r="AW5" t="n">
-        <v>15.16378891157172</v>
+        <v>23.77137785005015</v>
       </c>
       <c r="AX5" t="n">
-        <v>24.14202733075958</v>
+        <v>25.76226266849609</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.359979016784996</v>
+        <v>1.662150231953883</v>
       </c>
       <c r="D6" t="n">
-        <v>10.42439605404817</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.471655965812315</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.797666697575681</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.128496371911892</v>
+        <v>6.339205381922051</v>
       </c>
       <c r="H6" t="n">
-        <v>4.158067466053676</v>
+        <v>10.51652561233926</v>
       </c>
       <c r="I6" t="n">
-        <v>3.738363913051824</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.594182906147358</v>
+        <v>33.4344960858901</v>
       </c>
       <c r="K6" t="n">
-        <v>20.56967009324434</v>
+        <v>34.51927478770146</v>
       </c>
       <c r="L6" t="n">
-        <v>6.958058292647924</v>
+        <v>21.52463622618392</v>
       </c>
       <c r="M6" t="n">
-        <v>10.39587743820613</v>
+        <v>6.332078713224942</v>
       </c>
       <c r="N6" t="n">
-        <v>5.015284632681194</v>
+        <v>29.68063904499365</v>
       </c>
       <c r="O6" t="n">
-        <v>25.19253161744741</v>
+        <v>23.34806261012749</v>
       </c>
       <c r="P6" t="n">
-        <v>7.115527057381489</v>
+        <v>3.815027506731643</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.58695521650138</v>
+        <v>26.35397956880367</v>
       </c>
       <c r="R6" t="n">
-        <v>26.32947519479752</v>
+        <v>17.19729568707904</v>
       </c>
       <c r="S6" t="n">
-        <v>63.51633016026596</v>
+        <v>9.120416284453167</v>
       </c>
       <c r="T6" t="n">
-        <v>24.58653047799589</v>
+        <v>27.59406074397703</v>
       </c>
       <c r="U6" t="n">
-        <v>44.50845247228564</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>23.30192208777404</v>
+        <v>13.4177239633195</v>
       </c>
       <c r="W6" t="n">
-        <v>24.42770206383382</v>
+        <v>15.36724798581205</v>
       </c>
       <c r="X6" t="n">
-        <v>15.77696003519507</v>
+        <v>49.59905580145786</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.10493927061053</v>
+        <v>17.69855723452775</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.30049252623931</v>
+        <v>23.07484349946907</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.66173938895061</v>
+        <v>18.00067004883455</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.00971228082296</v>
+        <v>24.07741257533734</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.736279520994077</v>
+        <v>4.530560380799955</v>
       </c>
       <c r="AD6" t="n">
-        <v>31.87143675825277</v>
+        <v>47.67852793185666</v>
       </c>
       <c r="AE6" t="n">
-        <v>13.81922565875819</v>
+        <v>14.64850112142974</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.54640292578638</v>
+        <v>9.412891399572324</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.790541967191499</v>
+        <v>9.844315745047457</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.83627849916019</v>
+        <v>49.60842325421417</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.944926859429576</v>
+        <v>6.539840734591594</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.158474519848061</v>
+        <v>8.982332430326629</v>
       </c>
       <c r="AK6" t="n">
-        <v>4.113969577499367</v>
+        <v>13.04973712884943</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.416269211358353</v>
+        <v>7.979334685680866</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.303898099842238</v>
+        <v>1.608903752512929</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.600826240615469</v>
+        <v>2.501803898650913</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.501440703926864</v>
+        <v>2.636731852303597</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.964858729212469</v>
+        <v>1.557225325495897</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.472778245412063</v>
+        <v>3.217849963801971</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.359586166892155</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.8239216508863328</v>
+        <v>1.420935987952829</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5630819086287178</v>
+        <v>1.519886859217133</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.4395767919034143</v>
+        <v>2.174505862408533</v>
       </c>
       <c r="AV6" t="n">
-        <v>50.0942295962147</v>
+        <v>12.43494951660361</v>
       </c>
       <c r="AW6" t="n">
-        <v>12.13904196836935</v>
+        <v>2.503811168846544</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.204166254516607</v>
+        <v>2.208181930824392</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.169089888865834</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>31.68397307830995</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>8.288751336396686</v>
+        <v>19.33853931826463</v>
       </c>
       <c r="F7" t="n">
-        <v>10.91881926502958</v>
+        <v>3.027881976962178</v>
       </c>
       <c r="G7" t="n">
-        <v>15.85429988939425</v>
+        <v>43.51135748356639</v>
       </c>
       <c r="H7" t="n">
-        <v>7.28000299191661</v>
+        <v>9.847374524626005</v>
       </c>
       <c r="I7" t="n">
-        <v>5.092060630375418</v>
+        <v>20.43467667451022</v>
       </c>
       <c r="J7" t="n">
-        <v>16.12768622643787</v>
+        <v>12.43347764410095</v>
       </c>
       <c r="K7" t="n">
-        <v>13.47738464424129</v>
+        <v>66.48423915476434</v>
       </c>
       <c r="L7" t="n">
-        <v>136.8637509609334</v>
+        <v>9.372463138097022</v>
       </c>
       <c r="M7" t="n">
-        <v>37.23071927992438</v>
+        <v>96.10170112338332</v>
       </c>
       <c r="N7" t="n">
-        <v>23.817735429043</v>
+        <v>32.89722361763314</v>
       </c>
       <c r="O7" t="n">
-        <v>69.84958594887907</v>
+        <v>16.69742585659774</v>
       </c>
       <c r="P7" t="n">
-        <v>18.47114298607437</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.623476864529941</v>
+        <v>31.31900411830225</v>
       </c>
       <c r="R7" t="n">
-        <v>26.45446719297504</v>
+        <v>115.6134029860603</v>
       </c>
       <c r="S7" t="n">
-        <v>13.45234326217924</v>
+        <v>28.13817773094758</v>
       </c>
       <c r="T7" t="n">
-        <v>136.3722768587681</v>
+        <v>11.8715349647327</v>
       </c>
       <c r="U7" t="n">
-        <v>32.32490513466536</v>
+        <v>22.5361993616378</v>
       </c>
       <c r="V7" t="n">
-        <v>7.227944059408699</v>
+        <v>20.84495820520451</v>
       </c>
       <c r="W7" t="n">
-        <v>4.760523624910106</v>
+        <v>17.92793056835091</v>
       </c>
       <c r="X7" t="n">
-        <v>32.25303965241852</v>
+        <v>3.749821963997176</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.264618359318927</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.40216926810025</v>
+        <v>12.20500238213675</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.27296468617248</v>
+        <v>8.173115332498538</v>
       </c>
       <c r="AB7" t="n">
-        <v>20.43468567688526</v>
+        <v>3.356711135948393</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.972324934011029</v>
+        <v>14.2617286582707</v>
       </c>
       <c r="AD7" t="n">
-        <v>44.67292148977562</v>
+        <v>35.2698874384554</v>
       </c>
       <c r="AE7" t="n">
-        <v>102.9089584626536</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.92216949388951</v>
+        <v>19.92882843348971</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.629265413723292</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.138493574109063</v>
+        <v>31.95281146916573</v>
       </c>
       <c r="AI7" t="n">
-        <v>83.69557822520487</v>
+        <v>45.01079371084926</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.378317409733225</v>
+        <v>19.81263208372616</v>
       </c>
       <c r="AK7" t="n">
-        <v>11.5426051612059</v>
+        <v>7.949403069503125</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.064532342978084</v>
+        <v>26.26808836420281</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.963336306493458</v>
+        <v>1.865523571231191</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.52689883631825</v>
+        <v>9.085514872073865</v>
       </c>
       <c r="AO7" t="n">
-        <v>27.33304983292211</v>
+        <v>6.08758595210942</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.247820931394579</v>
+        <v>9.841717245134157</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.168451050885485</v>
+        <v>5.242390970071151</v>
       </c>
       <c r="AR7" t="n">
-        <v>8.979782426723517</v>
+        <v>8.583414698220448</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.028699183192818</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>6.132493652671289</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.313075623473821</v>
+        <v>5.493233333170455</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.769584101616617</v>
+        <v>3.871196419632072</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.338999216606128</v>
+        <v>4.091346266818623</v>
       </c>
       <c r="AX7" t="n">
-        <v>12.63773743985281</v>
+        <v>4.954813890078308</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>20.67076394970933</v>
+        <v>20.62669813419843</v>
       </c>
       <c r="D8" t="n">
-        <v>12.59247763270711</v>
+        <v>10.9104634452073</v>
       </c>
       <c r="E8" t="n">
-        <v>13.67541588723805</v>
+        <v>25.05189688219525</v>
       </c>
       <c r="F8" t="n">
-        <v>33.55069261420071</v>
+        <v>3.457440488011098</v>
       </c>
       <c r="G8" t="n">
-        <v>15.42368487694518</v>
+        <v>33.34230857892854</v>
       </c>
       <c r="H8" t="n">
-        <v>12.07246107971025</v>
+        <v>19.65934080648275</v>
       </c>
       <c r="I8" t="n">
-        <v>9.125986168657475</v>
+        <v>49.01718334593485</v>
       </c>
       <c r="J8" t="n">
-        <v>63.53329002274054</v>
+        <v>100.9525781042674</v>
       </c>
       <c r="K8" t="n">
-        <v>36.88458863008324</v>
+        <v>33.24739813631266</v>
       </c>
       <c r="L8" t="n">
-        <v>54.76820972406588</v>
+        <v>18.50839244699646</v>
       </c>
       <c r="M8" t="n">
-        <v>20.19626336420581</v>
+        <v>118.1331161667511</v>
       </c>
       <c r="N8" t="n">
-        <v>94.40560853284329</v>
+        <v>25.78028210115538</v>
       </c>
       <c r="O8" t="n">
-        <v>77.11903772663332</v>
+        <v>49.48996665413942</v>
       </c>
       <c r="P8" t="n">
-        <v>57.1371492853437</v>
+        <v>110.7944028310612</v>
       </c>
       <c r="Q8" t="n">
-        <v>33.36540093481281</v>
+        <v>49.34711104207614</v>
       </c>
       <c r="R8" t="n">
-        <v>70.75318678417864</v>
+        <v>17.2337636737946</v>
       </c>
       <c r="S8" t="n">
-        <v>32.30222401069044</v>
+        <v>68.18517997711558</v>
       </c>
       <c r="T8" t="n">
-        <v>40.8708697482692</v>
+        <v>83.99102748828815</v>
       </c>
       <c r="U8" t="n">
-        <v>68.95581119179273</v>
+        <v>109.2409150821861</v>
       </c>
       <c r="V8" t="n">
-        <v>90.97724324141176</v>
+        <v>72.50466925087466</v>
       </c>
       <c r="W8" t="n">
-        <v>78.20303983356349</v>
+        <v>33.58349722677391</v>
       </c>
       <c r="X8" t="n">
-        <v>61.49118509799689</v>
+        <v>57.16549483776762</v>
       </c>
       <c r="Y8" t="n">
-        <v>92.27440416143959</v>
+        <v>168.1447212580891</v>
       </c>
       <c r="Z8" t="n">
-        <v>54.88504649215629</v>
+        <v>86.87260212146973</v>
       </c>
       <c r="AA8" t="n">
-        <v>127.4306162306753</v>
+        <v>112.0535198279134</v>
       </c>
       <c r="AB8" t="n">
-        <v>154.7469782659309</v>
+        <v>56.744879049791</v>
       </c>
       <c r="AC8" t="n">
-        <v>92.86741954424525</v>
+        <v>115.8247224865005</v>
       </c>
       <c r="AD8" t="n">
-        <v>123.0698535663919</v>
+        <v>84.13106437236097</v>
       </c>
       <c r="AE8" t="n">
-        <v>160.3921687052934</v>
+        <v>192.5897712104996</v>
       </c>
       <c r="AF8" t="n">
-        <v>134.523941141248</v>
+        <v>85.87617391751556</v>
       </c>
       <c r="AG8" t="n">
-        <v>159.2012129558736</v>
+        <v>122.3388464759037</v>
       </c>
       <c r="AH8" t="n">
-        <v>98.09141286577002</v>
+        <v>150.1312022569797</v>
       </c>
       <c r="AI8" t="n">
-        <v>75.5207114341399</v>
+        <v>82.65172563113779</v>
       </c>
       <c r="AJ8" t="n">
-        <v>135.3852806096625</v>
+        <v>62.33606633190134</v>
       </c>
       <c r="AK8" t="n">
-        <v>82.67821400262856</v>
+        <v>146.9521703527647</v>
       </c>
       <c r="AL8" t="n">
-        <v>36.08248557407295</v>
+        <v>77.20076420341033</v>
       </c>
       <c r="AM8" t="n">
-        <v>26.87161447545687</v>
+        <v>39.7631474822288</v>
       </c>
       <c r="AN8" t="n">
-        <v>27.06645767604338</v>
+        <v>30.11770295191321</v>
       </c>
       <c r="AO8" t="n">
-        <v>46.34748059280528</v>
+        <v>26.26109465513894</v>
       </c>
       <c r="AP8" t="n">
-        <v>26.32976803364211</v>
+        <v>23.1027164607559</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15.0832939374651</v>
+        <v>24.44227157226838</v>
       </c>
       <c r="AR8" t="n">
-        <v>23.12158284514713</v>
+        <v>28.34250840531135</v>
       </c>
       <c r="AS8" t="n">
-        <v>19.56401703813464</v>
+        <v>19.33964460412773</v>
       </c>
       <c r="AT8" t="n">
-        <v>25.2924317184956</v>
+        <v>25.23136013845885</v>
       </c>
       <c r="AU8" t="n">
-        <v>22.30549284773656</v>
+        <v>24.02906764923836</v>
       </c>
       <c r="AV8" t="n">
-        <v>28.80133048250321</v>
+        <v>26.11104683472885</v>
       </c>
       <c r="AW8" t="n">
-        <v>28.74177063460636</v>
+        <v>17.7673074639374</v>
       </c>
       <c r="AX8" t="n">
-        <v>24.78484802264124</v>
+        <v>23.15677546458122</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.013112346629744</v>
+        <v>2.216880099402892</v>
       </c>
       <c r="D9" t="n">
-        <v>3.53590755348296</v>
+        <v>1.791033609150887</v>
       </c>
       <c r="E9" t="n">
-        <v>3.542668290356589</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8238784336969329</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7375129194470197</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.099910789164666</v>
+        <v>1.383253172659167</v>
       </c>
       <c r="I9" t="n">
-        <v>1.137899380292559</v>
+        <v>6.970283723438947</v>
       </c>
       <c r="J9" t="n">
-        <v>27.90018967199423</v>
+        <v>11.26239451882494</v>
       </c>
       <c r="K9" t="n">
-        <v>1.237503736777484</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>7.720717696779766</v>
+        <v>3.984772873634913</v>
       </c>
       <c r="M9" t="n">
-        <v>2.817177958021723</v>
+        <v>3.558847525624841</v>
       </c>
       <c r="N9" t="n">
-        <v>2.02857833189923</v>
+        <v>12.73074264374359</v>
       </c>
       <c r="O9" t="n">
-        <v>6.895445996342857</v>
+        <v>2.627263762408931</v>
       </c>
       <c r="P9" t="n">
-        <v>2.886094900668115</v>
+        <v>7.962314867007538</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.193853152219456</v>
+        <v>3.357872984724843</v>
       </c>
       <c r="R9" t="n">
-        <v>3.898289670844677</v>
+        <v>4.474279433526933</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5828205195386893</v>
+        <v>6.920712764209089</v>
       </c>
       <c r="T9" t="n">
-        <v>2.9160565275767</v>
+        <v>2.530808698566624</v>
       </c>
       <c r="U9" t="n">
-        <v>2.614049244540613</v>
+        <v>3.620601428091628</v>
       </c>
       <c r="V9" t="n">
-        <v>3.090746980526685</v>
+        <v>1.20117427089386</v>
       </c>
       <c r="W9" t="n">
-        <v>4.913824619380684</v>
+        <v>2.638697156651735</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7687518265577102</v>
+        <v>3.931358171085239</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.083213263221673</v>
+        <v>3.74971484333942</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.576409396135647</v>
+        <v>2.358893676775554</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.58277277860697</v>
+        <v>4.333719579553799</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.384744689304508</v>
+        <v>4.353860456901756</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.949048410636219</v>
+        <v>6.463828091314327</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.136368787518707</v>
+        <v>6.665395468337048</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.538359380964877</v>
+        <v>2.752530972810525</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.096955037377551</v>
+        <v>7.381137378364264</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.713732134176786</v>
+        <v>3.336521764365425</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.656678583290538</v>
+        <v>7.572777663268337</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.448759855818395</v>
+        <v>1.705917042121139</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.187659178008458</v>
+        <v>6.741227238807505</v>
       </c>
       <c r="AK9" t="n">
-        <v>8.454643419832127</v>
+        <v>1.937725559772771</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.400815248310624</v>
+        <v>4.66526131933087</v>
       </c>
       <c r="AM9" t="n">
-        <v>7.116772514908498</v>
+        <v>4.148855001054751</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.660596384539349</v>
+        <v>3.21271915069268</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.475093834479937</v>
+        <v>3.103421017921035</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.672777236950278</v>
+        <v>1.79687285425378</v>
       </c>
       <c r="AQ9" t="n">
-        <v>17.31928553990852</v>
+        <v>1.104162796166866</v>
       </c>
       <c r="AR9" t="n">
-        <v>9.613987258875333</v>
+        <v>2.409787074033573</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.195107946131963</v>
+        <v>2.944267364994055</v>
       </c>
       <c r="AT9" t="n">
-        <v>5.634418260462104</v>
+        <v>3.632137348251192</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.307561618301247</v>
+        <v>3.180678373594301</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.3302502614864186</v>
+        <v>3.223538304620641</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.467487010219233</v>
+        <v>2.81930649238902</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.586562449962922</v>
+        <v>2.909049660916704</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>9.019474146409843</v>
+        <v>18.0067837338418</v>
       </c>
       <c r="D10" t="n">
-        <v>10.55667269715309</v>
+        <v>8.282853738084851</v>
       </c>
       <c r="E10" t="n">
-        <v>8.553241039536836</v>
+        <v>35.7767129786864</v>
       </c>
       <c r="F10" t="n">
-        <v>7.138750507932311</v>
+        <v>0.4383585797769358</v>
       </c>
       <c r="G10" t="n">
-        <v>23.89855467533551</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>20.89868929625509</v>
+        <v>3.890465604783037</v>
       </c>
       <c r="I10" t="n">
-        <v>109.6621207814808</v>
+        <v>41.98895711570147</v>
       </c>
       <c r="J10" t="n">
-        <v>13.02437271453812</v>
+        <v>23.8182408318726</v>
       </c>
       <c r="K10" t="n">
-        <v>15.63027157648963</v>
+        <v>92.39649089497053</v>
       </c>
       <c r="L10" t="n">
-        <v>115.8004349425342</v>
+        <v>47.07344855891643</v>
       </c>
       <c r="M10" t="n">
-        <v>70.47246622789648</v>
+        <v>79.32535897032173</v>
       </c>
       <c r="N10" t="n">
-        <v>51.15185313575795</v>
+        <v>10.00248210457253</v>
       </c>
       <c r="O10" t="n">
-        <v>23.76140555862509</v>
+        <v>215.8111785033492</v>
       </c>
       <c r="P10" t="n">
-        <v>76.33103487789654</v>
+        <v>71.39171612562123</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.8298910682334</v>
+        <v>44.87875776815991</v>
       </c>
       <c r="R10" t="n">
-        <v>78.11750899937518</v>
+        <v>202.1961203817214</v>
       </c>
       <c r="S10" t="n">
-        <v>23.02975957747951</v>
+        <v>67.35778691434905</v>
       </c>
       <c r="T10" t="n">
-        <v>96.64909292073129</v>
+        <v>102.6121437841143</v>
       </c>
       <c r="U10" t="n">
-        <v>101.1405512847024</v>
+        <v>93.32606402923878</v>
       </c>
       <c r="V10" t="n">
-        <v>112.1168651953901</v>
+        <v>117.3279870641837</v>
       </c>
       <c r="W10" t="n">
-        <v>99.47283693696509</v>
+        <v>44.56215998506323</v>
       </c>
       <c r="X10" t="n">
-        <v>61.02512768146565</v>
+        <v>109.9238682930635</v>
       </c>
       <c r="Y10" t="n">
-        <v>34.89444769752248</v>
+        <v>27.7718438848726</v>
       </c>
       <c r="Z10" t="n">
-        <v>96.16344047354899</v>
+        <v>40.82134930204998</v>
       </c>
       <c r="AA10" t="n">
-        <v>65.37782033104008</v>
+        <v>61.6873300536683</v>
       </c>
       <c r="AB10" t="n">
-        <v>42.96295765466654</v>
+        <v>42.59796404589962</v>
       </c>
       <c r="AC10" t="n">
-        <v>52.96977171220601</v>
+        <v>93.20033467431055</v>
       </c>
       <c r="AD10" t="n">
-        <v>100.6529947464014</v>
+        <v>25.53333897905624</v>
       </c>
       <c r="AE10" t="n">
-        <v>82.07099667889916</v>
+        <v>95.65574860945262</v>
       </c>
       <c r="AF10" t="n">
-        <v>35.12129340735689</v>
+        <v>41.46738040541108</v>
       </c>
       <c r="AG10" t="n">
-        <v>69.67779005699046</v>
+        <v>68.43558960447606</v>
       </c>
       <c r="AH10" t="n">
-        <v>42.16454019159375</v>
+        <v>35.04983851682065</v>
       </c>
       <c r="AI10" t="n">
-        <v>79.04592503815648</v>
+        <v>71.12148347662968</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32.21903498025405</v>
+        <v>26.02940857138863</v>
       </c>
       <c r="AK10" t="n">
-        <v>12.81889006708741</v>
+        <v>81.14844896171027</v>
       </c>
       <c r="AL10" t="n">
-        <v>25.95264594486725</v>
+        <v>50.91387769421999</v>
       </c>
       <c r="AM10" t="n">
-        <v>34.50210857935822</v>
+        <v>51.2221199767088</v>
       </c>
       <c r="AN10" t="n">
-        <v>28.31699467331898</v>
+        <v>7.821430529113405</v>
       </c>
       <c r="AO10" t="n">
-        <v>24.6986190538564</v>
+        <v>21.10712749330699</v>
       </c>
       <c r="AP10" t="n">
-        <v>26.3627601271073</v>
+        <v>16.40891192484073</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20.45371723692738</v>
+        <v>24.44433617915306</v>
       </c>
       <c r="AR10" t="n">
-        <v>21.52015066145153</v>
+        <v>13.57753971892205</v>
       </c>
       <c r="AS10" t="n">
-        <v>30.93639869737557</v>
+        <v>17.36982534045612</v>
       </c>
       <c r="AT10" t="n">
-        <v>27.34213365585196</v>
+        <v>18.73201331146444</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.939818859047716</v>
+        <v>9.672419026041887</v>
       </c>
       <c r="AV10" t="n">
-        <v>20.83152345758416</v>
+        <v>9.18746830429858</v>
       </c>
       <c r="AW10" t="n">
-        <v>33.64638866844874</v>
+        <v>7.593825812199361</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.152312455908765</v>
+        <v>24.83311869842828</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>72.43470119111753</v>
+        <v>23.07279787324174</v>
       </c>
       <c r="D11" t="n">
-        <v>102.4281930592645</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>24.93345302233769</v>
+        <v>15.28472370504821</v>
       </c>
       <c r="F11" t="n">
-        <v>2.687966533536346</v>
+        <v>19.85619351787587</v>
       </c>
       <c r="G11" t="n">
-        <v>12.88821359745889</v>
+        <v>10.96747974528617</v>
       </c>
       <c r="H11" t="n">
-        <v>25.96711499405236</v>
+        <v>43.38884076818292</v>
       </c>
       <c r="I11" t="n">
-        <v>29.90773038112718</v>
+        <v>20.26472843935361</v>
       </c>
       <c r="J11" t="n">
-        <v>48.09285730294408</v>
+        <v>12.79648567713118</v>
       </c>
       <c r="K11" t="n">
-        <v>15.81541025740198</v>
+        <v>29.50115495279063</v>
       </c>
       <c r="L11" t="n">
-        <v>8.287147727181678</v>
+        <v>35.62454747071787</v>
       </c>
       <c r="M11" t="n">
-        <v>30.53118420788704</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>33.77086950773523</v>
+        <v>24.84354751172928</v>
       </c>
       <c r="O11" t="n">
-        <v>59.85489368819677</v>
+        <v>20.65296345230548</v>
       </c>
       <c r="P11" t="n">
-        <v>110.1591723260888</v>
+        <v>76.72330502988598</v>
       </c>
       <c r="Q11" t="n">
-        <v>25.69269132772997</v>
+        <v>98.32962007257453</v>
       </c>
       <c r="R11" t="n">
-        <v>38.16774432263478</v>
+        <v>95.78160297157243</v>
       </c>
       <c r="S11" t="n">
-        <v>37.68482477446768</v>
+        <v>13.25808643639451</v>
       </c>
       <c r="T11" t="n">
-        <v>12.07397441074423</v>
+        <v>21.42665667296504</v>
       </c>
       <c r="U11" t="n">
-        <v>114.298717678533</v>
+        <v>81.76733853076317</v>
       </c>
       <c r="V11" t="n">
-        <v>62.440241827434</v>
+        <v>62.19436726963335</v>
       </c>
       <c r="W11" t="n">
-        <v>35.82091728132696</v>
+        <v>15.32333556623817</v>
       </c>
       <c r="X11" t="n">
-        <v>198.4471999428295</v>
+        <v>23.61871964352008</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.04488152072456</v>
+        <v>53.67944597437224</v>
       </c>
       <c r="Z11" t="n">
-        <v>49.63072643940282</v>
+        <v>54.38175613742865</v>
       </c>
       <c r="AA11" t="n">
-        <v>31.81720335005276</v>
+        <v>51.24980325939214</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.57462925201539</v>
+        <v>42.99306457230042</v>
       </c>
       <c r="AC11" t="n">
-        <v>25.84747732377548</v>
+        <v>75.33006191817479</v>
       </c>
       <c r="AD11" t="n">
-        <v>39.68080876921003</v>
+        <v>30.28233038925291</v>
       </c>
       <c r="AE11" t="n">
-        <v>93.1678978233124</v>
+        <v>32.27540381709402</v>
       </c>
       <c r="AF11" t="n">
-        <v>44.32364286997718</v>
+        <v>38.05187098610885</v>
       </c>
       <c r="AG11" t="n">
-        <v>16.58472974131097</v>
+        <v>35.39704550499597</v>
       </c>
       <c r="AH11" t="n">
-        <v>30.78222807252947</v>
+        <v>25.87368381245429</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.024387467556449</v>
+        <v>27.36145648949124</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.461483448392634</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>45.94894228246206</v>
+        <v>33.38727804015669</v>
       </c>
       <c r="AL11" t="n">
-        <v>31.39741302776393</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>8.783857440972199</v>
+        <v>24.84733674862784</v>
       </c>
       <c r="AN11" t="n">
-        <v>62.73922364322468</v>
+        <v>18.06191363242679</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.822657745794379</v>
+        <v>30.8716379043912</v>
       </c>
       <c r="AP11" t="n">
-        <v>29.68157958642641</v>
+        <v>4.866411710286569</v>
       </c>
       <c r="AQ11" t="n">
-        <v>11.79580792556048</v>
+        <v>8.783827650241596</v>
       </c>
       <c r="AR11" t="n">
-        <v>53.36610908281058</v>
+        <v>30.9125231035963</v>
       </c>
       <c r="AS11" t="n">
-        <v>72.87147586005584</v>
+        <v>24.47129605575711</v>
       </c>
       <c r="AT11" t="n">
-        <v>18.6726431549784</v>
+        <v>25.81692024551174</v>
       </c>
       <c r="AU11" t="n">
-        <v>90.50652272241589</v>
+        <v>26.4362449400627</v>
       </c>
       <c r="AV11" t="n">
-        <v>23.4543414362088</v>
+        <v>31.93278829202924</v>
       </c>
       <c r="AW11" t="n">
-        <v>39.51135157678497</v>
+        <v>21.08053632565643</v>
       </c>
       <c r="AX11" t="n">
-        <v>38.32126253580847</v>
+        <v>19.27418536506086</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.97489002220615</v>
+        <v>1.546872965735258</v>
       </c>
       <c r="D12" t="n">
-        <v>6.52668514672291</v>
+        <v>4.729436034147467</v>
       </c>
       <c r="E12" t="n">
-        <v>3.741747596707349</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>21.7615494876671</v>
+        <v>13.06403400970526</v>
       </c>
       <c r="G12" t="n">
-        <v>2.950222192432202</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.275363285747166</v>
+        <v>9.336703722599346</v>
       </c>
       <c r="I12" t="n">
-        <v>5.348344786553721</v>
+        <v>2.410126090712161</v>
       </c>
       <c r="J12" t="n">
-        <v>87.4364595513389</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>22.69523208118543</v>
+        <v>7.825655455062456</v>
       </c>
       <c r="L12" t="n">
-        <v>18.63750567643827</v>
+        <v>0.4849613584916646</v>
       </c>
       <c r="M12" t="n">
-        <v>196.1915337115996</v>
+        <v>8.830954811162199</v>
       </c>
       <c r="N12" t="n">
-        <v>46.2667360819321</v>
+        <v>27.21314380903634</v>
       </c>
       <c r="O12" t="n">
-        <v>21.39436064851947</v>
+        <v>32.08729567157294</v>
       </c>
       <c r="P12" t="n">
-        <v>50.55525749645579</v>
+        <v>17.63617146464028</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.43243738245974</v>
+        <v>9.78936036414339</v>
       </c>
       <c r="R12" t="n">
-        <v>3.965111945756003</v>
+        <v>20.88495708308658</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09273423795225</v>
+        <v>24.80142008014381</v>
       </c>
       <c r="T12" t="n">
-        <v>42.34100053280384</v>
+        <v>29.92836292333639</v>
       </c>
       <c r="U12" t="n">
-        <v>28.45932648168706</v>
+        <v>22.31769714708402</v>
       </c>
       <c r="V12" t="n">
-        <v>20.86395630183963</v>
+        <v>39.81203305655806</v>
       </c>
       <c r="W12" t="n">
-        <v>29.0502867496367</v>
+        <v>15.91049187654145</v>
       </c>
       <c r="X12" t="n">
-        <v>16.83630927795026</v>
+        <v>27.96204121230169</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.69638776635196</v>
+        <v>12.29855227694385</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.03031119197589</v>
+        <v>9.176187544841373</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.89445350216931</v>
+        <v>20.15564599575123</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.78671036725396</v>
+        <v>19.84526989632788</v>
       </c>
       <c r="AC12" t="n">
-        <v>24.04749716744924</v>
+        <v>16.52843754906331</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.56774446038893</v>
+        <v>7.767781685065882</v>
       </c>
       <c r="AE12" t="n">
-        <v>20.23548034005951</v>
+        <v>7.879541168363688</v>
       </c>
       <c r="AF12" t="n">
-        <v>19.53428867831258</v>
+        <v>18.62790249448287</v>
       </c>
       <c r="AG12" t="n">
-        <v>21.71051858748889</v>
+        <v>18.5534262382749</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.227453677007399</v>
+        <v>2.266381553535893</v>
       </c>
       <c r="AI12" t="n">
-        <v>20.19773513533274</v>
+        <v>9.106603593819942</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12.68058983611917</v>
+        <v>8.36913304625544</v>
       </c>
       <c r="AK12" t="n">
-        <v>12.20371463040844</v>
+        <v>11.07004308785133</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.076533799202233</v>
+        <v>6.861821282233789</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.381664315295876</v>
+        <v>8.104945231950383</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.118261384887859</v>
+        <v>2.279452497157445</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.908159907967752</v>
+        <v>2.99667894023537</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.102285275600529</v>
+        <v>5.818490124090379</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.8628808221822428</v>
+        <v>0.4594135002036652</v>
       </c>
       <c r="AR12" t="n">
-        <v>11.59895127284451</v>
+        <v>0.166789797539397</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.6653808051620369</v>
+        <v>2.549177357393958</v>
       </c>
       <c r="AT12" t="n">
-        <v>7.000370596842244</v>
+        <v>1.504210337509168</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.7408565546508946</v>
+        <v>6.79817752481727</v>
       </c>
       <c r="AV12" t="n">
-        <v>14.63652996946751</v>
+        <v>1.320392832987197</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.095519223225885</v>
+        <v>0.3702408106269611</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.00029135530138</v>
+        <v>2.940569540175784</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>10.68477733434776</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.489289396466264</v>
+        <v>10.8175667084329</v>
       </c>
       <c r="E13" t="n">
-        <v>17.51975052211126</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>12.60181930979548</v>
+        <v>10.3329575491782</v>
       </c>
       <c r="G13" t="n">
-        <v>8.557308960629182</v>
+        <v>30.36084208623495</v>
       </c>
       <c r="H13" t="n">
-        <v>1.055272629023887</v>
+        <v>16.59069330649283</v>
       </c>
       <c r="I13" t="n">
-        <v>2.392916359327382</v>
+        <v>10.46986151420454</v>
       </c>
       <c r="J13" t="n">
-        <v>15.27903043067315</v>
+        <v>40.38800509106849</v>
       </c>
       <c r="K13" t="n">
-        <v>56.26318315354485</v>
+        <v>59.48362229380086</v>
       </c>
       <c r="L13" t="n">
-        <v>7.860883811037387</v>
+        <v>21.37488749790956</v>
       </c>
       <c r="M13" t="n">
-        <v>13.5743638264213</v>
+        <v>80.33019028298628</v>
       </c>
       <c r="N13" t="n">
-        <v>28.250757684803</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4.689793418581714</v>
+        <v>6.056181504677959</v>
       </c>
       <c r="P13" t="n">
-        <v>12.74294196434483</v>
+        <v>6.391340034844403</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.64137045068255</v>
+        <v>125.2680522517242</v>
       </c>
       <c r="R13" t="n">
-        <v>13.19872306389986</v>
+        <v>4.41055774668513</v>
       </c>
       <c r="S13" t="n">
-        <v>1.119625615759715</v>
+        <v>19.38486430359251</v>
       </c>
       <c r="T13" t="n">
-        <v>10.55910681649322</v>
+        <v>65.49625466750742</v>
       </c>
       <c r="U13" t="n">
-        <v>74.38414898015259</v>
+        <v>24.3350700018463</v>
       </c>
       <c r="V13" t="n">
-        <v>22.99879963166986</v>
+        <v>33.88378935622507</v>
       </c>
       <c r="W13" t="n">
-        <v>23.89051386848989</v>
+        <v>71.1353938941111</v>
       </c>
       <c r="X13" t="n">
-        <v>42.48182465622321</v>
+        <v>13.64989609213388</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.84969649798825</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.923403096008087</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.24783833820359</v>
+        <v>54.46857935154545</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.50248375862663</v>
+        <v>0.8789646210807454</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.095235684741917</v>
+        <v>23.15906285100747</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.902301669003723</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.18747534711358</v>
+        <v>33.27227296208342</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.146407550910364</v>
+        <v>7.099127069173421</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.89358368261513</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>26.9481006721639</v>
+        <v>12.60445943563105</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.453612626712202</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.32259843286954</v>
+        <v>6.585412481352467</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.273275633068558</v>
+        <v>26.63212700731481</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.67728402668326</v>
+        <v>4.139517864906323</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.658366846231645</v>
+        <v>2.887148777293396</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.122583677315403</v>
+        <v>2.757336293565635</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.653352183097949</v>
+        <v>11.29826217598491</v>
       </c>
       <c r="AP13" t="n">
-        <v>18.6108793087938</v>
+        <v>3.335392429355634</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9.611185960733801</v>
+        <v>15.48552657073661</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.412094770305167</v>
+        <v>5.33001743187443</v>
       </c>
       <c r="AS13" t="n">
-        <v>8.769513569180704</v>
+        <v>16.15870180133201</v>
       </c>
       <c r="AT13" t="n">
-        <v>30.41805464509459</v>
+        <v>0.1352447497737255</v>
       </c>
       <c r="AU13" t="n">
-        <v>16.39789215345817</v>
+        <v>5.622638382244938</v>
       </c>
       <c r="AV13" t="n">
-        <v>23.90794101841208</v>
+        <v>12.80651448407297</v>
       </c>
       <c r="AW13" t="n">
-        <v>7.627802388856258</v>
+        <v>12.62433426901046</v>
       </c>
       <c r="AX13" t="n">
-        <v>11.43512379215822</v>
+        <v>22.65520611457752</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>17.77761258606593</v>
+        <v>18.6166799944725</v>
       </c>
       <c r="D14" t="n">
-        <v>18.07652147233151</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>43.59047778538422</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>28.01046122535356</v>
+        <v>34.17996200000017</v>
       </c>
       <c r="G14" t="n">
-        <v>30.40275390738917</v>
+        <v>12.10036384959934</v>
       </c>
       <c r="H14" t="n">
-        <v>45.2396724220706</v>
+        <v>19.4249303535619</v>
       </c>
       <c r="I14" t="n">
-        <v>93.27247063610135</v>
+        <v>45.33190027607287</v>
       </c>
       <c r="J14" t="n">
-        <v>66.73497738721403</v>
+        <v>39.95619197700749</v>
       </c>
       <c r="K14" t="n">
-        <v>35.15205577868107</v>
+        <v>198.756788272662</v>
       </c>
       <c r="L14" t="n">
-        <v>25.78721250334827</v>
+        <v>28.18143497012446</v>
       </c>
       <c r="M14" t="n">
-        <v>47.62901074617525</v>
+        <v>95.33172419462754</v>
       </c>
       <c r="N14" t="n">
-        <v>35.32928600473663</v>
+        <v>21.22776373746584</v>
       </c>
       <c r="O14" t="n">
-        <v>52.86847501468127</v>
+        <v>72.22692157258818</v>
       </c>
       <c r="P14" t="n">
-        <v>52.3342467639957</v>
+        <v>74.34902989124893</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.5877139339596</v>
+        <v>35.15442667601517</v>
       </c>
       <c r="R14" t="n">
-        <v>36.69860791445968</v>
+        <v>93.41870151781025</v>
       </c>
       <c r="S14" t="n">
-        <v>71.29303865131588</v>
+        <v>66.92783590925896</v>
       </c>
       <c r="T14" t="n">
-        <v>64.5320856768288</v>
+        <v>74.09216619226939</v>
       </c>
       <c r="U14" t="n">
-        <v>52.64272445499331</v>
+        <v>59.59511301075759</v>
       </c>
       <c r="V14" t="n">
-        <v>44.03121200469424</v>
+        <v>49.31086150001771</v>
       </c>
       <c r="W14" t="n">
-        <v>89.12734304230209</v>
+        <v>48.29215570325145</v>
       </c>
       <c r="X14" t="n">
-        <v>52.70563215682346</v>
+        <v>63.6149592441552</v>
       </c>
       <c r="Y14" t="n">
-        <v>78.71317692922888</v>
+        <v>84.27711871877155</v>
       </c>
       <c r="Z14" t="n">
-        <v>79.38921516670472</v>
+        <v>127.8412560181446</v>
       </c>
       <c r="AA14" t="n">
-        <v>70.01974953206398</v>
+        <v>68.09917770522077</v>
       </c>
       <c r="AB14" t="n">
-        <v>116.0618020570917</v>
+        <v>88.34735840759784</v>
       </c>
       <c r="AC14" t="n">
-        <v>123.3914837358335</v>
+        <v>108.3069173887887</v>
       </c>
       <c r="AD14" t="n">
-        <v>45.58942813489257</v>
+        <v>126.5811378794759</v>
       </c>
       <c r="AE14" t="n">
-        <v>71.68885530074054</v>
+        <v>109.0639424684481</v>
       </c>
       <c r="AF14" t="n">
-        <v>104.0177924847033</v>
+        <v>21.31824599502335</v>
       </c>
       <c r="AG14" t="n">
-        <v>66.12159782377346</v>
+        <v>76.74501310966451</v>
       </c>
       <c r="AH14" t="n">
-        <v>49.34806948836155</v>
+        <v>170.2088071942336</v>
       </c>
       <c r="AI14" t="n">
-        <v>60.65484560224599</v>
+        <v>37.60425296599325</v>
       </c>
       <c r="AJ14" t="n">
-        <v>33.315505492285</v>
+        <v>64.92988890018837</v>
       </c>
       <c r="AK14" t="n">
-        <v>26.47140505082249</v>
+        <v>47.61381689131932</v>
       </c>
       <c r="AL14" t="n">
-        <v>34.55487717025377</v>
+        <v>63.90095662973803</v>
       </c>
       <c r="AM14" t="n">
-        <v>31.76033244343403</v>
+        <v>43.65598444672121</v>
       </c>
       <c r="AN14" t="n">
-        <v>33.82979120456927</v>
+        <v>19.27740579511632</v>
       </c>
       <c r="AO14" t="n">
-        <v>36.69687746539449</v>
+        <v>23.73463258251549</v>
       </c>
       <c r="AP14" t="n">
-        <v>21.66437610760953</v>
+        <v>32.17502837447142</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17.45737458072236</v>
+        <v>23.49960146722626</v>
       </c>
       <c r="AR14" t="n">
-        <v>36.25780829005572</v>
+        <v>17.94097193642221</v>
       </c>
       <c r="AS14" t="n">
-        <v>18.05485221984823</v>
+        <v>26.40472627752353</v>
       </c>
       <c r="AT14" t="n">
-        <v>15.05178088664686</v>
+        <v>22.75773688355121</v>
       </c>
       <c r="AU14" t="n">
-        <v>16.47483164141279</v>
+        <v>26.25150775789396</v>
       </c>
       <c r="AV14" t="n">
-        <v>19.57397129805668</v>
+        <v>12.40065851743809</v>
       </c>
       <c r="AW14" t="n">
-        <v>14.35235808858848</v>
+        <v>18.90030169959006</v>
       </c>
       <c r="AX14" t="n">
-        <v>10.01858402444455</v>
+        <v>22.82453445089074</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1388391524647336</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.147128810348837</v>
+        <v>3.863943470635693</v>
       </c>
       <c r="E15" t="n">
-        <v>2.056483494786491</v>
+        <v>2.182036286212639</v>
       </c>
       <c r="F15" t="n">
-        <v>9.521362031183399</v>
+        <v>4.168296331343864</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6539235823302401</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.236482081995247</v>
+        <v>2.086151623932626</v>
       </c>
       <c r="I15" t="n">
-        <v>43.10191017249547</v>
+        <v>7.646393245981968</v>
       </c>
       <c r="J15" t="n">
-        <v>5.097917316079764</v>
+        <v>18.77537223785633</v>
       </c>
       <c r="K15" t="n">
-        <v>6.506633429901538</v>
+        <v>0.6841301445900233</v>
       </c>
       <c r="L15" t="n">
-        <v>7.121638811846874</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.134332636753387</v>
+        <v>6.33055633032519</v>
       </c>
       <c r="N15" t="n">
-        <v>2.34325539619587</v>
+        <v>11.33631614343546</v>
       </c>
       <c r="O15" t="n">
-        <v>1.892501519237813</v>
+        <v>5.636109331069664</v>
       </c>
       <c r="P15" t="n">
-        <v>10.79861776933694</v>
+        <v>0.8531537808347853</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.898018224437267</v>
+        <v>3.966861353999895</v>
       </c>
       <c r="R15" t="n">
-        <v>3.787340723170426</v>
+        <v>3.546291980253975</v>
       </c>
       <c r="S15" t="n">
-        <v>2.049116271336102</v>
+        <v>2.368573899727004</v>
       </c>
       <c r="T15" t="n">
-        <v>1.817174423194276</v>
+        <v>2.586628150475493</v>
       </c>
       <c r="U15" t="n">
-        <v>3.891533968159437</v>
+        <v>7.358911942923989</v>
       </c>
       <c r="V15" t="n">
-        <v>1.672096158970265</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>5.999424014721103</v>
+        <v>6.276175800576532</v>
       </c>
       <c r="X15" t="n">
-        <v>5.333213599865265</v>
+        <v>3.013178250131838</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.643895147167227</v>
+        <v>4.362000877189774</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.032636479512161</v>
+        <v>9.134153180923654</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.015077341537838</v>
+        <v>1.381178825901264</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.739648528777582</v>
+        <v>5.381150175666345</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.870471339706985</v>
+        <v>5.563238155647594</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.589550378697284</v>
+        <v>10.77794680120016</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.649787293013655</v>
+        <v>2.794374779124541</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.404505612807796</v>
+        <v>5.661524573010151</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.177923658238631</v>
+        <v>5.605099607472436</v>
       </c>
       <c r="AH15" t="n">
-        <v>4.733428080353835</v>
+        <v>2.586098047706203</v>
       </c>
       <c r="AI15" t="n">
-        <v>7.448014912927008</v>
+        <v>1.225568749231214</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.414923374178251</v>
+        <v>6.930120933316568</v>
       </c>
       <c r="AK15" t="n">
-        <v>5.901023949745658</v>
+        <v>3.920882995326827</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.87968000012215</v>
+        <v>2.809264568221412</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.607579210196337</v>
+        <v>4.853784468311161</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.007103946109066</v>
+        <v>3.46174173361872</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.119285290994383</v>
+        <v>3.033239364850758</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.362315151212494</v>
+        <v>2.851740222929355</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.233506462415329</v>
+        <v>8.742828910900654</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.167171784401934</v>
+        <v>3.447356906942124</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.866017758614021</v>
+        <v>0.8412844623017163</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.554172286657656</v>
+        <v>3.95425790098196</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.349353867965202</v>
+        <v>1.25586248962146</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.2339123697938072</v>
+        <v>2.418737071897721</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.257065231679522</v>
+        <v>1.643351688841411</v>
       </c>
       <c r="AX15" t="n">
-        <v>19.09772839946088</v>
+        <v>1.84376602258482</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.19409400853523</v>
+        <v>5.236699059018485</v>
       </c>
       <c r="D16" t="n">
-        <v>5.369644842621286</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>8.948642443769462</v>
+        <v>15.396686976354</v>
       </c>
       <c r="F16" t="n">
-        <v>16.7945635234544</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.591417360694453</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>44.46127172092304</v>
+        <v>34.49070965813989</v>
       </c>
       <c r="I16" t="n">
-        <v>9.919381398887607</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.2810052852644</v>
+        <v>162.1360739274504</v>
       </c>
       <c r="K16" t="n">
-        <v>24.83909009552071</v>
+        <v>49.40894959771993</v>
       </c>
       <c r="L16" t="n">
-        <v>60.29495891705461</v>
+        <v>34.39907316742572</v>
       </c>
       <c r="M16" t="n">
-        <v>53.02160250764664</v>
+        <v>71.83716292751296</v>
       </c>
       <c r="N16" t="n">
-        <v>55.96393924136628</v>
+        <v>224.9777849774127</v>
       </c>
       <c r="O16" t="n">
-        <v>53.73840825413201</v>
+        <v>2.171764722485214</v>
       </c>
       <c r="P16" t="n">
-        <v>322.9153243669973</v>
+        <v>16.12298328522836</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.6606343820007</v>
+        <v>95.33639207973268</v>
       </c>
       <c r="R16" t="n">
-        <v>74.36666501561145</v>
+        <v>32.18093182610273</v>
       </c>
       <c r="S16" t="n">
-        <v>70.36101689003115</v>
+        <v>36.49380204752507</v>
       </c>
       <c r="T16" t="n">
-        <v>39.64826099777387</v>
+        <v>37.67726300362404</v>
       </c>
       <c r="U16" t="n">
-        <v>188.9201546915316</v>
+        <v>25.50619461848779</v>
       </c>
       <c r="V16" t="n">
-        <v>73.31068243005913</v>
+        <v>49.46099693678254</v>
       </c>
       <c r="W16" t="n">
-        <v>119.0308871221491</v>
+        <v>59.9397922967999</v>
       </c>
       <c r="X16" t="n">
-        <v>143.0111514263895</v>
+        <v>67.33578035036247</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.37022065706139</v>
+        <v>52.10219284361478</v>
       </c>
       <c r="Z16" t="n">
-        <v>43.24370898024006</v>
+        <v>121.8823168978398</v>
       </c>
       <c r="AA16" t="n">
-        <v>84.99691426445382</v>
+        <v>64.71746464114312</v>
       </c>
       <c r="AB16" t="n">
-        <v>206.6104434241626</v>
+        <v>62.51382237155289</v>
       </c>
       <c r="AC16" t="n">
-        <v>76.20347613708398</v>
+        <v>84.70371774117342</v>
       </c>
       <c r="AD16" t="n">
-        <v>56.02340157721653</v>
+        <v>197.5723650424785</v>
       </c>
       <c r="AE16" t="n">
-        <v>146.7944913081907</v>
+        <v>95.43583868133176</v>
       </c>
       <c r="AF16" t="n">
-        <v>86.44352976710948</v>
+        <v>56.18280081898425</v>
       </c>
       <c r="AG16" t="n">
-        <v>44.28985497907377</v>
+        <v>82.0179213525133</v>
       </c>
       <c r="AH16" t="n">
-        <v>107.4133072816849</v>
+        <v>45.58664454450441</v>
       </c>
       <c r="AI16" t="n">
-        <v>48.58053576715695</v>
+        <v>51.91228617988276</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28.86721877821777</v>
+        <v>46.78360872994608</v>
       </c>
       <c r="AK16" t="n">
-        <v>73.87311680659317</v>
+        <v>74.4541119380907</v>
       </c>
       <c r="AL16" t="n">
-        <v>18.16024572219802</v>
+        <v>78.74657354230695</v>
       </c>
       <c r="AM16" t="n">
-        <v>39.90635903733592</v>
+        <v>11.97510813677803</v>
       </c>
       <c r="AN16" t="n">
-        <v>21.52784725220354</v>
+        <v>39.82022346431945</v>
       </c>
       <c r="AO16" t="n">
-        <v>21.52611320376526</v>
+        <v>68.36944335730469</v>
       </c>
       <c r="AP16" t="n">
-        <v>17.19322458508928</v>
+        <v>16.65267620679169</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12.96693447336125</v>
+        <v>9.551490117898084</v>
       </c>
       <c r="AR16" t="n">
-        <v>18.53123606764555</v>
+        <v>14.03834175507107</v>
       </c>
       <c r="AS16" t="n">
-        <v>15.17550044550651</v>
+        <v>10.45291547982109</v>
       </c>
       <c r="AT16" t="n">
-        <v>10.98870153458646</v>
+        <v>15.45025354435037</v>
       </c>
       <c r="AU16" t="n">
-        <v>15.74584440550777</v>
+        <v>7.951897812666461</v>
       </c>
       <c r="AV16" t="n">
-        <v>13.86753491106492</v>
+        <v>8.200546787995886</v>
       </c>
       <c r="AW16" t="n">
-        <v>14.8170954654287</v>
+        <v>18.89128464908896</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.993447432481179</v>
+        <v>3.567568952178664</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>14.61894911950013</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>105.2062200376659</v>
+        <v>16.79211144164814</v>
       </c>
       <c r="E17" t="n">
-        <v>11.25553383146531</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.702947493975332</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>53.85927639447664</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>39.97020236669785</v>
+        <v>24.29460655060683</v>
       </c>
       <c r="I17" t="n">
-        <v>102.5245595923925</v>
+        <v>26.24112905162916</v>
       </c>
       <c r="J17" t="n">
-        <v>94.63187746822712</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>13.33250238459643</v>
+        <v>18.06956368557919</v>
       </c>
       <c r="L17" t="n">
-        <v>81.43281546293782</v>
+        <v>10.68656505143435</v>
       </c>
       <c r="M17" t="n">
-        <v>50.14258680299702</v>
+        <v>9.768206839518527</v>
       </c>
       <c r="N17" t="n">
-        <v>60.59600000924397</v>
+        <v>39.08807670302329</v>
       </c>
       <c r="O17" t="n">
-        <v>13.33967015486666</v>
+        <v>19.83369348587535</v>
       </c>
       <c r="P17" t="n">
-        <v>173.47107094516</v>
+        <v>95.81316557190351</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.04389883380819</v>
+        <v>111.8227222043655</v>
       </c>
       <c r="R17" t="n">
-        <v>172.0650688992444</v>
+        <v>43.63112985676496</v>
       </c>
       <c r="S17" t="n">
-        <v>26.83588326915661</v>
+        <v>51.12805440802527</v>
       </c>
       <c r="T17" t="n">
-        <v>24.00667579697077</v>
+        <v>28.51313769960669</v>
       </c>
       <c r="U17" t="n">
-        <v>108.4851974848372</v>
+        <v>74.26493980234189</v>
       </c>
       <c r="V17" t="n">
-        <v>17.69262661929428</v>
+        <v>115.8310979162512</v>
       </c>
       <c r="W17" t="n">
-        <v>34.06817665428398</v>
+        <v>43.44574046883138</v>
       </c>
       <c r="X17" t="n">
-        <v>25.4352616235684</v>
+        <v>35.2080505305637</v>
       </c>
       <c r="Y17" t="n">
-        <v>25.61203504556623</v>
+        <v>13.09768221785148</v>
       </c>
       <c r="Z17" t="n">
-        <v>22.98059589130342</v>
+        <v>29.78055116335712</v>
       </c>
       <c r="AA17" t="n">
-        <v>40.24426510201138</v>
+        <v>26.59334229880488</v>
       </c>
       <c r="AB17" t="n">
-        <v>47.74361268389207</v>
+        <v>13.53521329975155</v>
       </c>
       <c r="AC17" t="n">
-        <v>36.6633012706657</v>
+        <v>97.60677359360447</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.11195202783024</v>
+        <v>47.4378942859939</v>
       </c>
       <c r="AE17" t="n">
-        <v>10.63402364326379</v>
+        <v>22.23584657927904</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.42994450358841</v>
+        <v>27.04893024729549</v>
       </c>
       <c r="AG17" t="n">
-        <v>31.24859819513507</v>
+        <v>66.75795302601888</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.181954104451831</v>
+        <v>15.74926429239234</v>
       </c>
       <c r="AI17" t="n">
-        <v>10.99033891033774</v>
+        <v>23.11409563179735</v>
       </c>
       <c r="AJ17" t="n">
-        <v>28.77732962642041</v>
+        <v>48.04445265042463</v>
       </c>
       <c r="AK17" t="n">
-        <v>17.47675645603082</v>
+        <v>29.7525233561109</v>
       </c>
       <c r="AL17" t="n">
-        <v>19.36839464173212</v>
+        <v>39.10152968203746</v>
       </c>
       <c r="AM17" t="n">
-        <v>9.41283377962851</v>
+        <v>16.4077908274017</v>
       </c>
       <c r="AN17" t="n">
-        <v>20.0327840072263</v>
+        <v>0.9042581747118927</v>
       </c>
       <c r="AO17" t="n">
-        <v>17.60402982536135</v>
+        <v>27.94783364373786</v>
       </c>
       <c r="AP17" t="n">
-        <v>6.155313493385261</v>
+        <v>21.98412107212657</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24.95952635132825</v>
+        <v>35.97787778234433</v>
       </c>
       <c r="AR17" t="n">
-        <v>22.8186523078194</v>
+        <v>8.003870477197182</v>
       </c>
       <c r="AS17" t="n">
-        <v>5.480738885976868</v>
+        <v>30.83451753898318</v>
       </c>
       <c r="AT17" t="n">
-        <v>20.45105065894027</v>
+        <v>25.33272181666169</v>
       </c>
       <c r="AU17" t="n">
-        <v>16.34427775300739</v>
+        <v>21.05904607285309</v>
       </c>
       <c r="AV17" t="n">
-        <v>28.26231058712916</v>
+        <v>25.76491481950138</v>
       </c>
       <c r="AW17" t="n">
-        <v>44.05622877693826</v>
+        <v>27.75345951794731</v>
       </c>
       <c r="AX17" t="n">
-        <v>16.01407010954635</v>
+        <v>18.70989583882118</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.217695957800105</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.36257635968343</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7610257075562328</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.551235934591601</v>
+        <v>1.64854256782754</v>
       </c>
       <c r="G18" t="n">
-        <v>5.962620024241613</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>10.2446885913918</v>
+        <v>11.22219700696382</v>
       </c>
       <c r="I18" t="n">
-        <v>77.59973833088961</v>
+        <v>14.16131745495541</v>
       </c>
       <c r="J18" t="n">
-        <v>11.22572917239944</v>
+        <v>25.41572176565848</v>
       </c>
       <c r="K18" t="n">
-        <v>16.1903658000592</v>
+        <v>40.24415709885871</v>
       </c>
       <c r="L18" t="n">
-        <v>8.719512907222532</v>
+        <v>48.69849587519575</v>
       </c>
       <c r="M18" t="n">
-        <v>32.09227203845565</v>
+        <v>22.33197000651066</v>
       </c>
       <c r="N18" t="n">
-        <v>42.78306607548828</v>
+        <v>3.200653949632993</v>
       </c>
       <c r="O18" t="n">
-        <v>24.74315569983205</v>
+        <v>71.76740334316854</v>
       </c>
       <c r="P18" t="n">
-        <v>41.72511641836038</v>
+        <v>12.17552167077619</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.4506752278466</v>
+        <v>38.45028174557535</v>
       </c>
       <c r="R18" t="n">
-        <v>31.87877493449278</v>
+        <v>64.03985336573322</v>
       </c>
       <c r="S18" t="n">
-        <v>11.20339468583732</v>
+        <v>10.6861141360599</v>
       </c>
       <c r="T18" t="n">
-        <v>31.09981211555398</v>
+        <v>59.11441952562785</v>
       </c>
       <c r="U18" t="n">
-        <v>10.29714416266606</v>
+        <v>23.5341633614198</v>
       </c>
       <c r="V18" t="n">
-        <v>25.52969310009537</v>
+        <v>11.99539152381238</v>
       </c>
       <c r="W18" t="n">
-        <v>46.20894335797966</v>
+        <v>20.57621955211118</v>
       </c>
       <c r="X18" t="n">
-        <v>10.65168941995965</v>
+        <v>22.40387505474827</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.296208113167392</v>
+        <v>14.2125095794739</v>
       </c>
       <c r="Z18" t="n">
-        <v>13.83548099618203</v>
+        <v>14.29119098751336</v>
       </c>
       <c r="AA18" t="n">
-        <v>23.99681093319991</v>
+        <v>19.59046618166415</v>
       </c>
       <c r="AB18" t="n">
-        <v>22.65987306322948</v>
+        <v>20.54440039669959</v>
       </c>
       <c r="AC18" t="n">
-        <v>20.31835290339655</v>
+        <v>8.37474156416064</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.045723711023059</v>
+        <v>23.58759698673194</v>
       </c>
       <c r="AE18" t="n">
-        <v>11.08502128597778</v>
+        <v>13.87263525536689</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.814343306699918</v>
+        <v>18.53339778763813</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.715237317294136</v>
+        <v>25.59704820246433</v>
       </c>
       <c r="AH18" t="n">
-        <v>3.147160446360866</v>
+        <v>6.806327248502662</v>
       </c>
       <c r="AI18" t="n">
-        <v>15.88880070087058</v>
+        <v>7.99586125340415</v>
       </c>
       <c r="AJ18" t="n">
-        <v>30.52985861157717</v>
+        <v>7.013381118356083</v>
       </c>
       <c r="AK18" t="n">
-        <v>10.21912589260234</v>
+        <v>7.977878632365846</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.493830288615052</v>
+        <v>5.199161809241867</v>
       </c>
       <c r="AM18" t="n">
-        <v>3.658444229373948</v>
+        <v>1.601657822045348</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.237680272643942</v>
+        <v>3.308644235714557</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.286844757745683</v>
+        <v>7.908315384715512</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.71745053199195</v>
+        <v>3.440241449308697</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.229557819897054</v>
+        <v>1.619310482120571</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.023322297353029</v>
+        <v>2.982877594849171</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.897076230436616</v>
+        <v>3.318156493622424</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.974086132988059</v>
+        <v>6.963837695541153</v>
       </c>
       <c r="AU18" t="n">
-        <v>10.65216524269953</v>
+        <v>5.091431578701287</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.152960305857786</v>
+        <v>2.311472355086157</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.953011020347095</v>
+        <v>3.958829175630855</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.516782509850024</v>
+        <v>2.309835489340833</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>7.634952107739402</v>
+        <v>11.12222781848994</v>
       </c>
       <c r="D19" t="n">
-        <v>12.79327666105026</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>11.24397715059948</v>
+        <v>29.39444745880727</v>
       </c>
       <c r="F19" t="n">
-        <v>3.52322767534528</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.495511987212589</v>
+        <v>36.67481605492407</v>
       </c>
       <c r="H19" t="n">
-        <v>34.8369579495137</v>
+        <v>14.25392541839182</v>
       </c>
       <c r="I19" t="n">
-        <v>5.606238930171951</v>
+        <v>31.04368621586991</v>
       </c>
       <c r="J19" t="n">
-        <v>88.87859632299103</v>
+        <v>33.23202543872416</v>
       </c>
       <c r="K19" t="n">
-        <v>8.061087872866558</v>
+        <v>12.42830322002211</v>
       </c>
       <c r="L19" t="n">
-        <v>89.57473574835787</v>
+        <v>0.3616806724473287</v>
       </c>
       <c r="M19" t="n">
-        <v>13.61104778236882</v>
+        <v>71.98055594933042</v>
       </c>
       <c r="N19" t="n">
-        <v>113.8218763523874</v>
+        <v>40.69932786548894</v>
       </c>
       <c r="O19" t="n">
-        <v>99.66330695913649</v>
+        <v>79.07356252307139</v>
       </c>
       <c r="P19" t="n">
-        <v>27.49009164627636</v>
+        <v>40.22444595006582</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.3484958798585</v>
+        <v>40.50304009077335</v>
       </c>
       <c r="R19" t="n">
-        <v>38.52767272746227</v>
+        <v>14.87675057331674</v>
       </c>
       <c r="S19" t="n">
-        <v>11.59113968752255</v>
+        <v>22.38912318657052</v>
       </c>
       <c r="T19" t="n">
-        <v>96.34638648227718</v>
+        <v>27.2567303429128</v>
       </c>
       <c r="U19" t="n">
-        <v>4.252421842159047</v>
+        <v>50.83757268755105</v>
       </c>
       <c r="V19" t="n">
-        <v>51.69447926431865</v>
+        <v>59.83361777699824</v>
       </c>
       <c r="W19" t="n">
-        <v>33.57848405816731</v>
+        <v>5.129239850056171</v>
       </c>
       <c r="X19" t="n">
-        <v>14.68023148486222</v>
+        <v>37.30642205815465</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.807434946901887</v>
+        <v>8.460435630644675</v>
       </c>
       <c r="Z19" t="n">
-        <v>33.61771018028636</v>
+        <v>27.14442738829726</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.547336246297692</v>
+        <v>15.11901701038042</v>
       </c>
       <c r="AB19" t="n">
-        <v>26.44086560199563</v>
+        <v>21.64441537524867</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.791666556456752</v>
+        <v>74.01902698828023</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.62253803921264</v>
+        <v>9.483782089901505</v>
       </c>
       <c r="AE19" t="n">
-        <v>14.62770530981378</v>
+        <v>6.235806494737204</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.99209506268421</v>
+        <v>41.57013813830533</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.89301050488057</v>
+        <v>5.74306833240419</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.061133091119448</v>
+        <v>5.437873652951112</v>
       </c>
       <c r="AI19" t="n">
-        <v>12.72902881557331</v>
+        <v>40.10574632751096</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.980010333708368</v>
+        <v>0.5258236570016317</v>
       </c>
       <c r="AK19" t="n">
-        <v>3.487479195520162</v>
+        <v>25.51048124885447</v>
       </c>
       <c r="AL19" t="n">
-        <v>2.580538796435744</v>
+        <v>3.522048530738375</v>
       </c>
       <c r="AM19" t="n">
-        <v>7.238563500466009</v>
+        <v>9.402849173055888</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.415652994753248</v>
+        <v>1.160479565578011</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.9829704725418593</v>
+        <v>11.39511470148868</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.626724390072724</v>
+        <v>10.0227708778396</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.570495397747466</v>
+        <v>8.603230846308039</v>
       </c>
       <c r="AR19" t="n">
-        <v>4.245491983596701</v>
+        <v>7.344259281740365</v>
       </c>
       <c r="AS19" t="n">
-        <v>12.43839133440374</v>
+        <v>14.48238406994534</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.468795635477361</v>
+        <v>10.22257576525869</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.418161103738209</v>
+        <v>5.983106143274582</v>
       </c>
       <c r="AV19" t="n">
-        <v>7.570138629396463</v>
+        <v>55.47922905574267</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.401640988124043</v>
+        <v>58.04226494877274</v>
       </c>
       <c r="AX19" t="n">
-        <v>26.52532456680923</v>
+        <v>5.45410698279288</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.84957264161579</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>28.03062561982087</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>32.48231180683441</v>
+        <v>116.1303889134466</v>
       </c>
       <c r="F20" t="n">
-        <v>9.811915182675428</v>
+        <v>38.90393903027147</v>
       </c>
       <c r="G20" t="n">
-        <v>24.97531625931557</v>
+        <v>51.05735387755016</v>
       </c>
       <c r="H20" t="n">
-        <v>26.03382813692404</v>
+        <v>20.27311990016435</v>
       </c>
       <c r="I20" t="n">
-        <v>107.7030841544364</v>
+        <v>69.34837841575212</v>
       </c>
       <c r="J20" t="n">
-        <v>101.0622970815055</v>
+        <v>62.7060937980558</v>
       </c>
       <c r="K20" t="n">
-        <v>32.19645741343248</v>
+        <v>50.70387912874808</v>
       </c>
       <c r="L20" t="n">
-        <v>45.97214880855769</v>
+        <v>123.9629970829876</v>
       </c>
       <c r="M20" t="n">
-        <v>108.9621014283083</v>
+        <v>75.24245210965245</v>
       </c>
       <c r="N20" t="n">
-        <v>64.88888919633922</v>
+        <v>93.73561795530713</v>
       </c>
       <c r="O20" t="n">
-        <v>36.17199258587325</v>
+        <v>13.61532064374944</v>
       </c>
       <c r="P20" t="n">
-        <v>54.35034976396253</v>
+        <v>76.96387588631634</v>
       </c>
       <c r="Q20" t="n">
-        <v>108.7326194374244</v>
+        <v>73.54334937115989</v>
       </c>
       <c r="R20" t="n">
-        <v>59.56154856661175</v>
+        <v>102.7928431832734</v>
       </c>
       <c r="S20" t="n">
-        <v>53.46554067872722</v>
+        <v>95.99536784672019</v>
       </c>
       <c r="T20" t="n">
-        <v>62.00948654573434</v>
+        <v>89.02966066918268</v>
       </c>
       <c r="U20" t="n">
-        <v>85.41695933046321</v>
+        <v>4.108895770640029</v>
       </c>
       <c r="V20" t="n">
-        <v>36.84354878293313</v>
+        <v>98.28707283713445</v>
       </c>
       <c r="W20" t="n">
-        <v>54.91754835952882</v>
+        <v>59.00453710524158</v>
       </c>
       <c r="X20" t="n">
-        <v>107.9038239263094</v>
+        <v>84.8283633569788</v>
       </c>
       <c r="Y20" t="n">
-        <v>45.44985362390579</v>
+        <v>73.96952689334283</v>
       </c>
       <c r="Z20" t="n">
-        <v>84.72539542549585</v>
+        <v>75.99734417579216</v>
       </c>
       <c r="AA20" t="n">
-        <v>90.04114542570127</v>
+        <v>101.3213067974977</v>
       </c>
       <c r="AB20" t="n">
-        <v>116.5988624667841</v>
+        <v>62.04002444278655</v>
       </c>
       <c r="AC20" t="n">
-        <v>62.70454353485803</v>
+        <v>40.27017224531843</v>
       </c>
       <c r="AD20" t="n">
-        <v>156.729681798452</v>
+        <v>93.10721901133944</v>
       </c>
       <c r="AE20" t="n">
-        <v>86.96740512400265</v>
+        <v>169.3530776461249</v>
       </c>
       <c r="AF20" t="n">
-        <v>96.31187189790738</v>
+        <v>103.6376819531263</v>
       </c>
       <c r="AG20" t="n">
-        <v>244.8814023091465</v>
+        <v>73.9896702871051</v>
       </c>
       <c r="AH20" t="n">
-        <v>85.70415905005406</v>
+        <v>98.74642929443593</v>
       </c>
       <c r="AI20" t="n">
-        <v>130.6079438521953</v>
+        <v>46.52074381772073</v>
       </c>
       <c r="AJ20" t="n">
-        <v>38.33276550885209</v>
+        <v>44.07177382222049</v>
       </c>
       <c r="AK20" t="n">
-        <v>29.35039686963305</v>
+        <v>63.9050251771658</v>
       </c>
       <c r="AL20" t="n">
-        <v>42.2593080310236</v>
+        <v>52.61951892980534</v>
       </c>
       <c r="AM20" t="n">
-        <v>30.24198542415297</v>
+        <v>26.18316380671498</v>
       </c>
       <c r="AN20" t="n">
-        <v>27.09844610990784</v>
+        <v>49.44069733684158</v>
       </c>
       <c r="AO20" t="n">
-        <v>25.02508337755805</v>
+        <v>18.68029008292222</v>
       </c>
       <c r="AP20" t="n">
-        <v>38.17994759220285</v>
+        <v>45.08068645963584</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19.09406564108549</v>
+        <v>30.48815095555522</v>
       </c>
       <c r="AR20" t="n">
-        <v>24.21268344959114</v>
+        <v>10.25816089013115</v>
       </c>
       <c r="AS20" t="n">
-        <v>25.77067263829163</v>
+        <v>18.87508856801266</v>
       </c>
       <c r="AT20" t="n">
-        <v>27.33241846317907</v>
+        <v>13.67075858259535</v>
       </c>
       <c r="AU20" t="n">
-        <v>14.38864989960655</v>
+        <v>32.45028893660593</v>
       </c>
       <c r="AV20" t="n">
-        <v>16.8497135039583</v>
+        <v>12.3021978108844</v>
       </c>
       <c r="AW20" t="n">
-        <v>8.599468297106268</v>
+        <v>17.74645146492148</v>
       </c>
       <c r="AX20" t="n">
-        <v>12.64388363537129</v>
+        <v>48.96483432401386</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.104277230912757</v>
+        <v>4.790386227432649</v>
       </c>
       <c r="D21" t="n">
-        <v>6.03358120468122</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.29869801062209</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.054598320851358</v>
+        <v>2.162402525556728</v>
       </c>
       <c r="G21" t="n">
-        <v>2.178906331878107</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4.423461577265437</v>
+        <v>1.157552436146687</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1389809643661642</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.047544568717245</v>
+        <v>1.077000118608463</v>
       </c>
       <c r="K21" t="n">
-        <v>12.69886784289246</v>
+        <v>5.965610350113025</v>
       </c>
       <c r="L21" t="n">
-        <v>7.403906837874004</v>
+        <v>1.170175751931083</v>
       </c>
       <c r="M21" t="n">
-        <v>1.559813654187948</v>
+        <v>1.778486764411231</v>
       </c>
       <c r="N21" t="n">
-        <v>3.832787567185756</v>
+        <v>3.63174270462201</v>
       </c>
       <c r="O21" t="n">
-        <v>3.801674015024682</v>
+        <v>8.227045394467975</v>
       </c>
       <c r="P21" t="n">
-        <v>6.694651357636809</v>
+        <v>6.00307747206835</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.00401914143965</v>
+        <v>6.324173787534415</v>
       </c>
       <c r="R21" t="n">
-        <v>4.090228197079564</v>
+        <v>21.18516839055293</v>
       </c>
       <c r="S21" t="n">
-        <v>5.934896978599165</v>
+        <v>2.649102610834437</v>
       </c>
       <c r="T21" t="n">
-        <v>2.321713477355445</v>
+        <v>3.155332001439825</v>
       </c>
       <c r="U21" t="n">
-        <v>5.336893903834388</v>
+        <v>9.188582023571037</v>
       </c>
       <c r="V21" t="n">
-        <v>3.34718145000265</v>
+        <v>9.429355725016151</v>
       </c>
       <c r="W21" t="n">
-        <v>7.9058367835908</v>
+        <v>3.162431479411808</v>
       </c>
       <c r="X21" t="n">
-        <v>11.87610273223709</v>
+        <v>0.2182800570879033</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.825253590104892</v>
+        <v>2.658566362378077</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.777903792986852</v>
+        <v>4.256218732626839</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.431149872715486</v>
+        <v>3.642428101746818</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.41129056570696</v>
+        <v>3.733818657333529</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.660519741031915</v>
+        <v>7.749410950092391</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.87099041745803</v>
+        <v>6.34801248750141</v>
       </c>
       <c r="AE21" t="n">
-        <v>3.194791907789863</v>
+        <v>4.244140955103815</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.224313176572952</v>
+        <v>5.309098244787531</v>
       </c>
       <c r="AG21" t="n">
-        <v>4.68522719506885</v>
+        <v>3.09726435789058</v>
       </c>
       <c r="AH21" t="n">
-        <v>3.360387868629111</v>
+        <v>9.502123549325074</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.96096465683451</v>
+        <v>6.561164924751719</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.074889347475626</v>
+        <v>3.484955145724859</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.526886169976899</v>
+        <v>1.414497144145163</v>
       </c>
       <c r="AL21" t="n">
-        <v>3.172163346349399</v>
+        <v>3.303350320338514</v>
       </c>
       <c r="AM21" t="n">
-        <v>6.657754806881034</v>
+        <v>10.0618372438796</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.25685073868079</v>
+        <v>3.759384687997221</v>
       </c>
       <c r="AO21" t="n">
-        <v>2.49851653596432</v>
+        <v>2.429966903605917</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.618708178853053</v>
+        <v>4.430210492801199</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12.59487096697953</v>
+        <v>2.471658935181734</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.144003716167163</v>
+        <v>5.526645805436268</v>
       </c>
       <c r="AS21" t="n">
-        <v>7.561157191650588</v>
+        <v>1.993784321515193</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.392859448267509</v>
+        <v>0.7537989118882266</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.16639962572976</v>
+        <v>4.276394904894115</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.664681686800664</v>
+        <v>1.782830565762543</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.68930778025803</v>
+        <v>7.047021384702253</v>
       </c>
       <c r="AX21" t="n">
-        <v>1.48400037632328</v>
+        <v>0.01943122381545587</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>4.885296941384749</v>
+        <v>9.398162558258562</v>
       </c>
       <c r="D22" t="n">
-        <v>8.100568145827888</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.103490842534728</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>16.84138252877914</v>
+        <v>15.86253777842705</v>
       </c>
       <c r="G22" t="n">
-        <v>28.48524650903651</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>30.19573777586574</v>
+        <v>11.09319722248311</v>
       </c>
       <c r="I22" t="n">
-        <v>19.92353521897568</v>
+        <v>41.6281253510323</v>
       </c>
       <c r="J22" t="n">
-        <v>40.57139896185195</v>
+        <v>86.63385882140446</v>
       </c>
       <c r="K22" t="n">
-        <v>585.141551743764</v>
+        <v>15.59480926818476</v>
       </c>
       <c r="L22" t="n">
-        <v>58.64069972296645</v>
+        <v>136.0487274962407</v>
       </c>
       <c r="M22" t="n">
-        <v>38.69906645670884</v>
+        <v>78.59404321322822</v>
       </c>
       <c r="N22" t="n">
-        <v>161.7707822462237</v>
+        <v>129.2563240666012</v>
       </c>
       <c r="O22" t="n">
-        <v>32.33694689333354</v>
+        <v>35.7452501266209</v>
       </c>
       <c r="P22" t="n">
-        <v>77.18786433641243</v>
+        <v>29.67731035678078</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.27646436117675</v>
+        <v>67.90687926507144</v>
       </c>
       <c r="R22" t="n">
-        <v>133.2663056834181</v>
+        <v>65.6136324216362</v>
       </c>
       <c r="S22" t="n">
-        <v>66.647029971489</v>
+        <v>63.40908705296962</v>
       </c>
       <c r="T22" t="n">
-        <v>45.31072769566433</v>
+        <v>89.11408679513653</v>
       </c>
       <c r="U22" t="n">
-        <v>27.42357530632329</v>
+        <v>99.47668127980799</v>
       </c>
       <c r="V22" t="n">
-        <v>44.87339051475016</v>
+        <v>41.97072009993942</v>
       </c>
       <c r="W22" t="n">
-        <v>124.4732474518194</v>
+        <v>120.5504256953544</v>
       </c>
       <c r="X22" t="n">
-        <v>61.32316975534311</v>
+        <v>87.22010990606235</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.69247544591913</v>
+        <v>60.63978452753167</v>
       </c>
       <c r="Z22" t="n">
-        <v>110.5916971169016</v>
+        <v>73.2430858923119</v>
       </c>
       <c r="AA22" t="n">
-        <v>48.55806837295254</v>
+        <v>61.56272393340774</v>
       </c>
       <c r="AB22" t="n">
-        <v>88.80756509303281</v>
+        <v>73.76660489990071</v>
       </c>
       <c r="AC22" t="n">
-        <v>60.04166571862767</v>
+        <v>61.73310803120675</v>
       </c>
       <c r="AD22" t="n">
-        <v>110.7658584912705</v>
+        <v>48.87889877456161</v>
       </c>
       <c r="AE22" t="n">
-        <v>74.87500187057968</v>
+        <v>84.69943503261963</v>
       </c>
       <c r="AF22" t="n">
-        <v>61.7734226437457</v>
+        <v>88.1002219447081</v>
       </c>
       <c r="AG22" t="n">
-        <v>76.90660950481335</v>
+        <v>61.83829446793014</v>
       </c>
       <c r="AH22" t="n">
-        <v>39.52758888569321</v>
+        <v>94.12398926656695</v>
       </c>
       <c r="AI22" t="n">
-        <v>45.41334596872353</v>
+        <v>45.38952044255055</v>
       </c>
       <c r="AJ22" t="n">
-        <v>40.34990438949213</v>
+        <v>46.24720758173929</v>
       </c>
       <c r="AK22" t="n">
-        <v>38.00913837895652</v>
+        <v>41.84463632503085</v>
       </c>
       <c r="AL22" t="n">
-        <v>20.78043985396437</v>
+        <v>51.68879932533788</v>
       </c>
       <c r="AM22" t="n">
-        <v>48.22535301315731</v>
+        <v>18.95003995452263</v>
       </c>
       <c r="AN22" t="n">
-        <v>14.97095019535969</v>
+        <v>11.64635742904983</v>
       </c>
       <c r="AO22" t="n">
-        <v>26.66065653615548</v>
+        <v>22.10602260767009</v>
       </c>
       <c r="AP22" t="n">
-        <v>28.47064879740955</v>
+        <v>37.07257288686264</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10.91963821842834</v>
+        <v>17.11062338756667</v>
       </c>
       <c r="AR22" t="n">
-        <v>17.15535530705175</v>
+        <v>20.73432233503109</v>
       </c>
       <c r="AS22" t="n">
-        <v>11.28764789901171</v>
+        <v>13.34467260241306</v>
       </c>
       <c r="AT22" t="n">
-        <v>6.766846732269452</v>
+        <v>12.17667225837322</v>
       </c>
       <c r="AU22" t="n">
-        <v>10.48447764730953</v>
+        <v>3.029559300877164</v>
       </c>
       <c r="AV22" t="n">
-        <v>14.25421522174299</v>
+        <v>13.92551908878947</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.719563306629997</v>
+        <v>9.425072848553986</v>
       </c>
       <c r="AX22" t="n">
-        <v>11.35162336554919</v>
+        <v>6.82774220597438</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>17.30114698020088</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>12.8998923325227</v>
+        <v>40.42579844552301</v>
       </c>
       <c r="E23" t="n">
-        <v>33.08191523477852</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.726992657436933</v>
+        <v>5.121217203349041</v>
       </c>
       <c r="G23" t="n">
-        <v>48.44202403510501</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>14.90008169131686</v>
+        <v>28.00455204098087</v>
       </c>
       <c r="I23" t="n">
-        <v>8.047504937722332</v>
+        <v>9.639401713093271</v>
       </c>
       <c r="J23" t="n">
-        <v>13.80780481135647</v>
+        <v>42.22435661633303</v>
       </c>
       <c r="K23" t="n">
-        <v>11.26429785984002</v>
+        <v>2.544627336253058</v>
       </c>
       <c r="L23" t="n">
-        <v>25.7631029239804</v>
+        <v>45.31651244236662</v>
       </c>
       <c r="M23" t="n">
-        <v>47.27245256169375</v>
+        <v>150.9785497148593</v>
       </c>
       <c r="N23" t="n">
-        <v>66.40483793135806</v>
+        <v>37.92014664797433</v>
       </c>
       <c r="O23" t="n">
-        <v>63.08574430626722</v>
+        <v>16.21519395887293</v>
       </c>
       <c r="P23" t="n">
-        <v>66.08926970069861</v>
+        <v>104.4640112930098</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.05250328764657</v>
+        <v>31.85862155222193</v>
       </c>
       <c r="R23" t="n">
-        <v>22.44038507836131</v>
+        <v>43.63994312628536</v>
       </c>
       <c r="S23" t="n">
-        <v>70.8161736055641</v>
+        <v>26.87661204887562</v>
       </c>
       <c r="T23" t="n">
-        <v>95.41923812417592</v>
+        <v>109.7130633765041</v>
       </c>
       <c r="U23" t="n">
-        <v>25.29929781334922</v>
+        <v>29.98265156357477</v>
       </c>
       <c r="V23" t="n">
-        <v>19.00253727324573</v>
+        <v>58.96898433655438</v>
       </c>
       <c r="W23" t="n">
-        <v>47.90428397513202</v>
+        <v>19.57521707738335</v>
       </c>
       <c r="X23" t="n">
-        <v>25.71375993533292</v>
+        <v>35.309880128712</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.26658280897579</v>
+        <v>7.436774600881202</v>
       </c>
       <c r="Z23" t="n">
-        <v>61.52028851348418</v>
+        <v>106.69224715201</v>
       </c>
       <c r="AA23" t="n">
-        <v>17.86312119258205</v>
+        <v>40.52743067800606</v>
       </c>
       <c r="AB23" t="n">
-        <v>35.38084338054931</v>
+        <v>26.13063953201914</v>
       </c>
       <c r="AC23" t="n">
-        <v>62.71449868743183</v>
+        <v>6.535514919990881</v>
       </c>
       <c r="AD23" t="n">
-        <v>228.601979020917</v>
+        <v>34.10543165354884</v>
       </c>
       <c r="AE23" t="n">
-        <v>18.07252873087156</v>
+        <v>19.104799345591</v>
       </c>
       <c r="AF23" t="n">
-        <v>16.87676437737221</v>
+        <v>11.99771099241397</v>
       </c>
       <c r="AG23" t="n">
-        <v>36.40908595206062</v>
+        <v>59.96475853045661</v>
       </c>
       <c r="AH23" t="n">
-        <v>24.41064410413335</v>
+        <v>4.124466828741372</v>
       </c>
       <c r="AI23" t="n">
-        <v>18.31379537883153</v>
+        <v>47.46970412712224</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21.07906786066387</v>
+        <v>17.33000789918945</v>
       </c>
       <c r="AK23" t="n">
-        <v>12.09582417936469</v>
+        <v>26.88431487010209</v>
       </c>
       <c r="AL23" t="n">
-        <v>19.21449697097383</v>
+        <v>3.986397018952595</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.7114439886639431</v>
+        <v>10.36318067124624</v>
       </c>
       <c r="AN23" t="n">
-        <v>62.74968975701065</v>
+        <v>20.01922150411316</v>
       </c>
       <c r="AO23" t="n">
-        <v>11.64776597405037</v>
+        <v>33.14381436808883</v>
       </c>
       <c r="AP23" t="n">
-        <v>16.40724890080972</v>
+        <v>49.21370179026123</v>
       </c>
       <c r="AQ23" t="n">
-        <v>47.67728812037217</v>
+        <v>11.63582344479825</v>
       </c>
       <c r="AR23" t="n">
-        <v>7.594879608436452</v>
+        <v>17.94066062129047</v>
       </c>
       <c r="AS23" t="n">
-        <v>27.08706185377572</v>
+        <v>29.37957489080651</v>
       </c>
       <c r="AT23" t="n">
-        <v>19.75012208156937</v>
+        <v>30.52305689270525</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.652930308791181</v>
+        <v>26.79916259706535</v>
       </c>
       <c r="AV23" t="n">
-        <v>9.535936650906917</v>
+        <v>21.23262939271197</v>
       </c>
       <c r="AW23" t="n">
-        <v>33.56794950165867</v>
+        <v>28.36641187900554</v>
       </c>
       <c r="AX23" t="n">
-        <v>6.296728756363434</v>
+        <v>24.94127571947968</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3.599484682847221</v>
+        <v>8.943520221274852</v>
       </c>
       <c r="D24" t="n">
-        <v>4.118346920509937</v>
+        <v>11.03983401406716</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6673633357188485</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6689224591018975</v>
+        <v>8.59875202925638</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07942641656985</v>
+        <v>5.098991388469383</v>
       </c>
       <c r="H24" t="n">
-        <v>4.085927040374671</v>
+        <v>22.07407006531844</v>
       </c>
       <c r="I24" t="n">
-        <v>4.115192106303822</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.47054198685038</v>
+        <v>98.18348092147519</v>
       </c>
       <c r="K24" t="n">
-        <v>4.180948387863274</v>
+        <v>8.349303066440548</v>
       </c>
       <c r="L24" t="n">
-        <v>7.33351071906969</v>
+        <v>1.063944634680019</v>
       </c>
       <c r="M24" t="n">
-        <v>23.75927539334389</v>
+        <v>0.8833952003037595</v>
       </c>
       <c r="N24" t="n">
-        <v>33.48158961523882</v>
+        <v>34.98719683713934</v>
       </c>
       <c r="O24" t="n">
-        <v>4.570336274106598</v>
+        <v>0.6541626946669603</v>
       </c>
       <c r="P24" t="n">
-        <v>26.38475902080028</v>
+        <v>0.3294880941628975</v>
       </c>
       <c r="Q24" t="n">
-        <v>18.38084040715209</v>
+        <v>23.22944321870801</v>
       </c>
       <c r="R24" t="n">
-        <v>12.27339138766322</v>
+        <v>19.80067664109377</v>
       </c>
       <c r="S24" t="n">
-        <v>22.31156853215713</v>
+        <v>31.77626508026126</v>
       </c>
       <c r="T24" t="n">
-        <v>43.92668997648503</v>
+        <v>2.648330063019181</v>
       </c>
       <c r="U24" t="n">
-        <v>18.74184471001191</v>
+        <v>36.01655052327536</v>
       </c>
       <c r="V24" t="n">
-        <v>25.53333274765713</v>
+        <v>47.1101619580018</v>
       </c>
       <c r="W24" t="n">
-        <v>54.82317546401839</v>
+        <v>13.99545286153921</v>
       </c>
       <c r="X24" t="n">
-        <v>21.96172163119524</v>
+        <v>22.3464786135385</v>
       </c>
       <c r="Y24" t="n">
-        <v>28.94959479486082</v>
+        <v>16.61517063572665</v>
       </c>
       <c r="Z24" t="n">
-        <v>25.12314469618478</v>
+        <v>14.57488539059941</v>
       </c>
       <c r="AA24" t="n">
-        <v>7.692670462389342</v>
+        <v>27.35333149970624</v>
       </c>
       <c r="AB24" t="n">
-        <v>24.26213378865553</v>
+        <v>32.17886380678259</v>
       </c>
       <c r="AC24" t="n">
-        <v>17.40117967167324</v>
+        <v>10.78014486256114</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.87524308207533</v>
+        <v>3.72359369236272</v>
       </c>
       <c r="AE24" t="n">
-        <v>10.26910572943653</v>
+        <v>13.5522220729589</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.317320964159967</v>
+        <v>20.36660776395464</v>
       </c>
       <c r="AG24" t="n">
-        <v>19.01199945027006</v>
+        <v>8.163270796148117</v>
       </c>
       <c r="AH24" t="n">
-        <v>11.57624066646986</v>
+        <v>6.838302794172908</v>
       </c>
       <c r="AI24" t="n">
-        <v>7.816989236293846</v>
+        <v>19.25207133726286</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5.033708780400404</v>
+        <v>12.15140026518982</v>
       </c>
       <c r="AK24" t="n">
-        <v>9.649705822483694</v>
+        <v>3.684720044082995</v>
       </c>
       <c r="AL24" t="n">
-        <v>5.282926974106022</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>5.56759850959498</v>
+        <v>4.589966976728272</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.712214076954681</v>
+        <v>9.935277415716843</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.335630422450749</v>
+        <v>1.956534434848537</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.471418704676004</v>
+        <v>5.430031359549857</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.683769556052199</v>
+        <v>3.617203171864761</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.883069256096254</v>
+        <v>1.628032983144469</v>
       </c>
       <c r="AS24" t="n">
-        <v>3.367303754483014</v>
+        <v>1.372103970777091</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.853503356790775</v>
+        <v>1.651262774562965</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.33193763895032</v>
+        <v>3.779111669438018</v>
       </c>
       <c r="AV24" t="n">
-        <v>13.42933424383392</v>
+        <v>3.3177981579876</v>
       </c>
       <c r="AW24" t="n">
-        <v>3.474323039224992</v>
+        <v>4.641650839017672</v>
       </c>
       <c r="AX24" t="n">
-        <v>4.399135613652935</v>
+        <v>1.331339996745166</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>21.12676408135885</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.527500671634848</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7437605726914922</v>
+        <v>10.29061232960765</v>
       </c>
       <c r="F25" t="n">
-        <v>2.407614307818512</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.65461886130797</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>16.52811195039081</v>
+        <v>43.50865721903224</v>
       </c>
       <c r="I25" t="n">
-        <v>38.97954874856016</v>
+        <v>31.72799597816771</v>
       </c>
       <c r="J25" t="n">
-        <v>28.07406869806979</v>
+        <v>20.06272444516032</v>
       </c>
       <c r="K25" t="n">
-        <v>7.987606944615671</v>
+        <v>96.80063692740688</v>
       </c>
       <c r="L25" t="n">
-        <v>55.86398278969584</v>
+        <v>39.42711368428026</v>
       </c>
       <c r="M25" t="n">
-        <v>89.24210280935769</v>
+        <v>33.29731911286105</v>
       </c>
       <c r="N25" t="n">
-        <v>21.94944891388255</v>
+        <v>25.87266549726346</v>
       </c>
       <c r="O25" t="n">
-        <v>113.8526571028267</v>
+        <v>39.10787976612556</v>
       </c>
       <c r="P25" t="n">
-        <v>4.926305099754134</v>
+        <v>14.92415243107859</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.41961046535162</v>
+        <v>8.011680612287886</v>
       </c>
       <c r="R25" t="n">
-        <v>79.91748934811341</v>
+        <v>34.44431475437476</v>
       </c>
       <c r="S25" t="n">
-        <v>42.46738694584079</v>
+        <v>49.3465566202194</v>
       </c>
       <c r="T25" t="n">
-        <v>15.00117057544599</v>
+        <v>19.31063849764486</v>
       </c>
       <c r="U25" t="n">
-        <v>5.480143010133814</v>
+        <v>24.30095842919141</v>
       </c>
       <c r="V25" t="n">
-        <v>87.5908567030737</v>
+        <v>44.60744038823192</v>
       </c>
       <c r="W25" t="n">
-        <v>7.32033397970511</v>
+        <v>21.59110238922426</v>
       </c>
       <c r="X25" t="n">
-        <v>25.71621031820818</v>
+        <v>14.28226040880127</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.712442640916867</v>
+        <v>11.13279873324227</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.354527309726803</v>
+        <v>18.06297191421008</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.217277974179331</v>
+        <v>10.50005966252895</v>
       </c>
       <c r="AB25" t="n">
-        <v>5.265686565924163</v>
+        <v>35.87747995604012</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.88040651195801</v>
+        <v>16.90747624603139</v>
       </c>
       <c r="AD25" t="n">
-        <v>75.34167867283672</v>
+        <v>3.141905072960884</v>
       </c>
       <c r="AE25" t="n">
-        <v>10.63101637492266</v>
+        <v>4.119238989917489</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.186759763194294</v>
+        <v>9.376338622928561</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.273998182062289</v>
+        <v>14.28932695875365</v>
       </c>
       <c r="AH25" t="n">
-        <v>25.49075513413074</v>
+        <v>3.321896835877006</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.728138573539686</v>
+        <v>0.335915663469894</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12.3928120115791</v>
+        <v>30.60009347822347</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.1142479208990233</v>
+        <v>4.17325445663873</v>
       </c>
       <c r="AL25" t="n">
-        <v>7.648949766465685</v>
+        <v>24.55858609085735</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.052885824138063</v>
+        <v>3.181511676661223</v>
       </c>
       <c r="AN25" t="n">
-        <v>10.04722613059435</v>
+        <v>2.802888365700069</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.205927271638813</v>
+        <v>4.153358679495057</v>
       </c>
       <c r="AP25" t="n">
-        <v>11.54501084870391</v>
+        <v>1.680101369289839</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23.09907119674621</v>
+        <v>7.003412757459005</v>
       </c>
       <c r="AR25" t="n">
-        <v>5.183531968061591</v>
+        <v>2.887283776932972</v>
       </c>
       <c r="AS25" t="n">
-        <v>5.456345594431201</v>
+        <v>6.245868012175889</v>
       </c>
       <c r="AT25" t="n">
-        <v>6.959293242775978</v>
+        <v>2.179811404175563</v>
       </c>
       <c r="AU25" t="n">
-        <v>4.669177054802928</v>
+        <v>2.305489011109621</v>
       </c>
       <c r="AV25" t="n">
-        <v>11.75956227917488</v>
+        <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>24.89889099309078</v>
+        <v>20.6494197125982</v>
       </c>
       <c r="AX25" t="n">
-        <v>2.298310238350442</v>
+        <v>4.00358712766014</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>22.22209907200232</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>25.61654780074169</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>86.66509074304585</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>27.60941829613266</v>
+        <v>6.990253852904359</v>
       </c>
       <c r="G26" t="n">
-        <v>4.285222210077686</v>
+        <v>21.65742576336072</v>
       </c>
       <c r="H26" t="n">
-        <v>65.81385814897293</v>
+        <v>9.522145688462599</v>
       </c>
       <c r="I26" t="n">
-        <v>288.2833341347625</v>
+        <v>189.8962892377127</v>
       </c>
       <c r="J26" t="n">
-        <v>50.95055993088129</v>
+        <v>75.5015924771003</v>
       </c>
       <c r="K26" t="n">
-        <v>94.61411255458289</v>
+        <v>41.09334851429352</v>
       </c>
       <c r="L26" t="n">
-        <v>25.56120331257802</v>
+        <v>61.02883741304572</v>
       </c>
       <c r="M26" t="n">
-        <v>63.98692455889989</v>
+        <v>39.40628434547396</v>
       </c>
       <c r="N26" t="n">
-        <v>139.737949978007</v>
+        <v>100.4520395930545</v>
       </c>
       <c r="O26" t="n">
-        <v>57.04525021609702</v>
+        <v>94.60076636866907</v>
       </c>
       <c r="P26" t="n">
-        <v>84.96931809801303</v>
+        <v>185.4030283047867</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.70784003130066</v>
+        <v>0.1210105146496758</v>
       </c>
       <c r="R26" t="n">
-        <v>103.4415639499228</v>
+        <v>52.70281916691034</v>
       </c>
       <c r="S26" t="n">
-        <v>61.09003925859405</v>
+        <v>42.12350443237798</v>
       </c>
       <c r="T26" t="n">
-        <v>29.33576414775073</v>
+        <v>58.67232912798245</v>
       </c>
       <c r="U26" t="n">
-        <v>25.99307438217301</v>
+        <v>35.85264828832338</v>
       </c>
       <c r="V26" t="n">
-        <v>77.19734313773901</v>
+        <v>255.3987422455257</v>
       </c>
       <c r="W26" t="n">
-        <v>55.56573647975863</v>
+        <v>30.5025303682864</v>
       </c>
       <c r="X26" t="n">
-        <v>111.0355650054721</v>
+        <v>31.69155788881205</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.13472165807867</v>
+        <v>44.56823071272407</v>
       </c>
       <c r="Z26" t="n">
-        <v>57.5595953614671</v>
+        <v>74.32749705229512</v>
       </c>
       <c r="AA26" t="n">
-        <v>92.62688492361936</v>
+        <v>107.1642977141925</v>
       </c>
       <c r="AB26" t="n">
-        <v>81.01681703523964</v>
+        <v>104.848597482749</v>
       </c>
       <c r="AC26" t="n">
-        <v>122.9112507938128</v>
+        <v>127.7535423244927</v>
       </c>
       <c r="AD26" t="n">
-        <v>173.3065915446175</v>
+        <v>104.127163387479</v>
       </c>
       <c r="AE26" t="n">
-        <v>101.6554252890269</v>
+        <v>140.7399762011592</v>
       </c>
       <c r="AF26" t="n">
-        <v>126.2805863273505</v>
+        <v>155.7121056767793</v>
       </c>
       <c r="AG26" t="n">
-        <v>152.9771923634072</v>
+        <v>125.259551495249</v>
       </c>
       <c r="AH26" t="n">
-        <v>27.98009561643138</v>
+        <v>143.7927861700119</v>
       </c>
       <c r="AI26" t="n">
-        <v>63.63165519376491</v>
+        <v>31.60042987184367</v>
       </c>
       <c r="AJ26" t="n">
-        <v>48.9840674979104</v>
+        <v>7.629266648606833</v>
       </c>
       <c r="AK26" t="n">
-        <v>58.88632701023738</v>
+        <v>136.1155872622925</v>
       </c>
       <c r="AL26" t="n">
-        <v>110.5297124540902</v>
+        <v>47.31369870828148</v>
       </c>
       <c r="AM26" t="n">
-        <v>55.23846920706054</v>
+        <v>6.517603716654378</v>
       </c>
       <c r="AN26" t="n">
-        <v>38.46057784656709</v>
+        <v>56.42924141356035</v>
       </c>
       <c r="AO26" t="n">
-        <v>23.79273965853218</v>
+        <v>28.98035490097247</v>
       </c>
       <c r="AP26" t="n">
-        <v>16.96552412739672</v>
+        <v>20.25815673575301</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18.50490039805091</v>
+        <v>17.61877693884794</v>
       </c>
       <c r="AR26" t="n">
-        <v>17.70051860679531</v>
+        <v>22.96832546519876</v>
       </c>
       <c r="AS26" t="n">
-        <v>30.19338640479602</v>
+        <v>24.34055154644063</v>
       </c>
       <c r="AT26" t="n">
-        <v>27.44623942973325</v>
+        <v>12.89516031046254</v>
       </c>
       <c r="AU26" t="n">
-        <v>30.25233234833361</v>
+        <v>29.9236426113334</v>
       </c>
       <c r="AV26" t="n">
-        <v>11.0499951594784</v>
+        <v>18.52956856631431</v>
       </c>
       <c r="AW26" t="n">
-        <v>28.36719802490931</v>
+        <v>15.20025766927811</v>
       </c>
       <c r="AX26" t="n">
-        <v>19.6989446341063</v>
+        <v>14.82303526195222</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2.586842526665373</v>
+        <v>3.73837030715301</v>
       </c>
       <c r="D27" t="n">
-        <v>1.175848265867652</v>
+        <v>3.130210875762644</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6989868689324604</v>
+        <v>9.280928569570225</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7815410299765058</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.54150265911682</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>4.854294331100894</v>
+        <v>3.068874884877718</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7961324430340604</v>
+        <v>5.822430565792937</v>
       </c>
       <c r="J27" t="n">
-        <v>17.14102133425948</v>
+        <v>1.085613616942361</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5681672149965707</v>
+        <v>3.291410678920383</v>
       </c>
       <c r="L27" t="n">
-        <v>6.012592330036159</v>
+        <v>2.452459109265828</v>
       </c>
       <c r="M27" t="n">
-        <v>4.489742290009024</v>
+        <v>6.788141277911372</v>
       </c>
       <c r="N27" t="n">
-        <v>2.247927866925769</v>
+        <v>5.71922357665814</v>
       </c>
       <c r="O27" t="n">
-        <v>5.527632073076115</v>
+        <v>3.602563967711797</v>
       </c>
       <c r="P27" t="n">
-        <v>12.93658231820203</v>
+        <v>2.234839092553217</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.945944308055013</v>
+        <v>5.245992119393063</v>
       </c>
       <c r="R27" t="n">
-        <v>3.227299523358567</v>
+        <v>4.430259973602511</v>
       </c>
       <c r="S27" t="n">
-        <v>13.28142870462519</v>
+        <v>2.896014829261325</v>
       </c>
       <c r="T27" t="n">
-        <v>3.577533408345209</v>
+        <v>5.398147758090308</v>
       </c>
       <c r="U27" t="n">
-        <v>6.827355004349152</v>
+        <v>3.129669413587478</v>
       </c>
       <c r="V27" t="n">
-        <v>6.65826974777546</v>
+        <v>1.642850740712283</v>
       </c>
       <c r="W27" t="n">
-        <v>5.24587702187946</v>
+        <v>6.285205661822864</v>
       </c>
       <c r="X27" t="n">
-        <v>1.595985438841091</v>
+        <v>3.796273045322667</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.914463701441086</v>
+        <v>6.019393396300612</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.975874645227798</v>
+        <v>5.033357100433353</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.031862663222982</v>
+        <v>2.088381688788288</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.108995742069903</v>
+        <v>6.467935972752421</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.146927082823503</v>
+        <v>6.469317238106469</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.109158682556381</v>
+        <v>2.010715899632533</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.411774805484588</v>
+        <v>6.330179673269423</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.944648159272492</v>
+        <v>3.749716704703025</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.616313203956409</v>
+        <v>6.651158646646753</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.414183379250977</v>
+        <v>4.000828832026023</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.989065963210442</v>
+        <v>11.96394347802443</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7.676949066302158</v>
+        <v>1.944782115607307</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.806915029548919</v>
+        <v>4.642684298312295</v>
       </c>
       <c r="AL27" t="n">
-        <v>4.195295766086361</v>
+        <v>4.150531395659798</v>
       </c>
       <c r="AM27" t="n">
-        <v>11.63921030646306</v>
+        <v>4.512215075170405</v>
       </c>
       <c r="AN27" t="n">
-        <v>7.721844052126938</v>
+        <v>4.362089641513998</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.884985717172848</v>
+        <v>3.295197442454894</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.428615206502449</v>
+        <v>3.921866608544419</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3.763801246888968</v>
+        <v>0.0929878218477842</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.604494623333137</v>
+        <v>5.135497435454227</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.502510341827074</v>
+        <v>3.08795359653502</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.817827808967039</v>
+        <v>4.747391497313393</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.990901416259179</v>
+        <v>2.14668255346948</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.861601997846184</v>
+        <v>3.769792608829827</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.5490673596474637</v>
+        <v>5.542259595815568</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.6561258546138</v>
+        <v>1.502229171274659</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>21.61137393888102</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>45.46784177469954</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>12.07374929996809</v>
+        <v>20.38307930502351</v>
       </c>
       <c r="F28" t="n">
-        <v>1.11311545344913</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6.432042187919141</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>14.36465336845395</v>
+        <v>1.126306543494985</v>
       </c>
       <c r="I28" t="n">
-        <v>22.59297712253071</v>
+        <v>10.84987015300532</v>
       </c>
       <c r="J28" t="n">
-        <v>9.301466100136357</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>51.91599650495557</v>
+        <v>98.36626585735246</v>
       </c>
       <c r="L28" t="n">
-        <v>86.5449294788238</v>
+        <v>126.6811298398016</v>
       </c>
       <c r="M28" t="n">
-        <v>14.66982118424378</v>
+        <v>40.75677006497774</v>
       </c>
       <c r="N28" t="n">
-        <v>79.77743785980704</v>
+        <v>2.860411598222512</v>
       </c>
       <c r="O28" t="n">
-        <v>191.1621280971243</v>
+        <v>81.70792755995987</v>
       </c>
       <c r="P28" t="n">
-        <v>7.653301953556452</v>
+        <v>203.7652102208981</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.92250386258154</v>
+        <v>220.9043161111613</v>
       </c>
       <c r="R28" t="n">
-        <v>60.15507833332943</v>
+        <v>96.2465325119516</v>
       </c>
       <c r="S28" t="n">
-        <v>46.15430253509136</v>
+        <v>49.22964746121063</v>
       </c>
       <c r="T28" t="n">
-        <v>187.4576566093402</v>
+        <v>65.9686139650143</v>
       </c>
       <c r="U28" t="n">
-        <v>121.8898413403771</v>
+        <v>63.60692898873346</v>
       </c>
       <c r="V28" t="n">
-        <v>39.05225989029793</v>
+        <v>39.37573840759872</v>
       </c>
       <c r="W28" t="n">
-        <v>54.75716883688189</v>
+        <v>57.68568360365006</v>
       </c>
       <c r="X28" t="n">
-        <v>50.36042333614988</v>
+        <v>86.43897094880131</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.1805329834491</v>
+        <v>15.87400674125773</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.90673400125558</v>
+        <v>7.262686693774285</v>
       </c>
       <c r="AA28" t="n">
-        <v>30.74501372725278</v>
+        <v>66.94652932033982</v>
       </c>
       <c r="AB28" t="n">
-        <v>44.74373565573975</v>
+        <v>72.92667733162847</v>
       </c>
       <c r="AC28" t="n">
-        <v>159.4282678340864</v>
+        <v>17.04788261431374</v>
       </c>
       <c r="AD28" t="n">
-        <v>63.02167481283541</v>
+        <v>48.2576846618913</v>
       </c>
       <c r="AE28" t="n">
-        <v>86.80736340446603</v>
+        <v>100.3220773037322</v>
       </c>
       <c r="AF28" t="n">
-        <v>89.26417302745692</v>
+        <v>35.2969885570233</v>
       </c>
       <c r="AG28" t="n">
-        <v>41.00412991013703</v>
+        <v>114.877747994328</v>
       </c>
       <c r="AH28" t="n">
-        <v>42.12828949970871</v>
+        <v>42.86017436985354</v>
       </c>
       <c r="AI28" t="n">
-        <v>41.49233645047924</v>
+        <v>26.23585322576547</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32.48658770322433</v>
+        <v>121.3956800568335</v>
       </c>
       <c r="AK28" t="n">
-        <v>37.4001576475126</v>
+        <v>18.55479226434312</v>
       </c>
       <c r="AL28" t="n">
-        <v>29.06996635432114</v>
+        <v>64.48339585061601</v>
       </c>
       <c r="AM28" t="n">
-        <v>36.93287721385543</v>
+        <v>34.49891803472409</v>
       </c>
       <c r="AN28" t="n">
-        <v>59.8241268875831</v>
+        <v>9.99364477323051</v>
       </c>
       <c r="AO28" t="n">
-        <v>22.65301904383842</v>
+        <v>17.54905586681921</v>
       </c>
       <c r="AP28" t="n">
-        <v>17.95637291382493</v>
+        <v>9.317491384593323</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12.68292459749986</v>
+        <v>28.58103057771175</v>
       </c>
       <c r="AR28" t="n">
-        <v>9.376644295318433</v>
+        <v>16.78119683838003</v>
       </c>
       <c r="AS28" t="n">
-        <v>9.120687355589084</v>
+        <v>9.827497223450663</v>
       </c>
       <c r="AT28" t="n">
-        <v>15.11784233169119</v>
+        <v>11.59922148793702</v>
       </c>
       <c r="AU28" t="n">
-        <v>13.07000893396647</v>
+        <v>9.635165976350995</v>
       </c>
       <c r="AV28" t="n">
-        <v>7.967661827424774</v>
+        <v>12.064018439634</v>
       </c>
       <c r="AW28" t="n">
-        <v>17.66120889914166</v>
+        <v>13.96280308508509</v>
       </c>
       <c r="AX28" t="n">
-        <v>17.00656815240627</v>
+        <v>10.39770680327002</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>32.16419029711603</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.231763134873073</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>9.339697990832745</v>
+        <v>25.8990586661432</v>
       </c>
       <c r="F29" t="n">
-        <v>33.48873236464645</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25.02897992376267</v>
+        <v>1.08951467309024</v>
       </c>
       <c r="H29" t="n">
-        <v>7.549662395153683</v>
+        <v>37.25591386356366</v>
       </c>
       <c r="I29" t="n">
-        <v>35.58092724683053</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>21.53749145618821</v>
+        <v>47.60909007849895</v>
       </c>
       <c r="K29" t="n">
-        <v>59.33364872710461</v>
+        <v>45.32252922058902</v>
       </c>
       <c r="L29" t="n">
-        <v>10.33239624394771</v>
+        <v>41.21730429871931</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07804656186034</v>
+        <v>6.431679472949707</v>
       </c>
       <c r="N29" t="n">
-        <v>60.18678231119402</v>
+        <v>8.71999130077573</v>
       </c>
       <c r="O29" t="n">
-        <v>88.39392340156471</v>
+        <v>69.77349991316706</v>
       </c>
       <c r="P29" t="n">
-        <v>6.470256943638026</v>
+        <v>60.46754344781972</v>
       </c>
       <c r="Q29" t="n">
-        <v>81.45728307865271</v>
+        <v>139.9300167475414</v>
       </c>
       <c r="R29" t="n">
-        <v>15.38030000726617</v>
+        <v>84.97535403262526</v>
       </c>
       <c r="S29" t="n">
-        <v>33.53139750802056</v>
+        <v>53.72995242806297</v>
       </c>
       <c r="T29" t="n">
-        <v>27.87964266833928</v>
+        <v>93.35798709540555</v>
       </c>
       <c r="U29" t="n">
-        <v>42.75922956094914</v>
+        <v>57.93740161924723</v>
       </c>
       <c r="V29" t="n">
-        <v>61.04684487033776</v>
+        <v>16.09433293806369</v>
       </c>
       <c r="W29" t="n">
-        <v>47.80699410679578</v>
+        <v>109.008956491472</v>
       </c>
       <c r="X29" t="n">
-        <v>34.22869421206325</v>
+        <v>39.21244461542314</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.23737485527595</v>
+        <v>58.92689978249228</v>
       </c>
       <c r="Z29" t="n">
-        <v>52.85751872483692</v>
+        <v>18.72222398080854</v>
       </c>
       <c r="AA29" t="n">
-        <v>30.53300945400352</v>
+        <v>18.16406962356844</v>
       </c>
       <c r="AB29" t="n">
-        <v>29.14880724633388</v>
+        <v>23.16655718668436</v>
       </c>
       <c r="AC29" t="n">
-        <v>86.03462822571761</v>
+        <v>48.9697736813402</v>
       </c>
       <c r="AD29" t="n">
-        <v>60.50377056147956</v>
+        <v>24.69621774029282</v>
       </c>
       <c r="AE29" t="n">
-        <v>21.54419691196169</v>
+        <v>60.20331068577779</v>
       </c>
       <c r="AF29" t="n">
-        <v>22.24560942117404</v>
+        <v>48.1173724564445</v>
       </c>
       <c r="AG29" t="n">
-        <v>38.97579103436566</v>
+        <v>27.56572176284437</v>
       </c>
       <c r="AH29" t="n">
-        <v>21.36953737299348</v>
+        <v>33.20023060674756</v>
       </c>
       <c r="AI29" t="n">
-        <v>18.92083568193421</v>
+        <v>62.85769080060956</v>
       </c>
       <c r="AJ29" t="n">
-        <v>80.21076596558412</v>
+        <v>49.99083394556789</v>
       </c>
       <c r="AK29" t="n">
-        <v>80.73150083724209</v>
+        <v>16.50655026609975</v>
       </c>
       <c r="AL29" t="n">
-        <v>36.84043558689631</v>
+        <v>32.0004434678556</v>
       </c>
       <c r="AM29" t="n">
-        <v>13.02395688703549</v>
+        <v>15.47121953300511</v>
       </c>
       <c r="AN29" t="n">
-        <v>46.96591831176175</v>
+        <v>22.37377078142038</v>
       </c>
       <c r="AO29" t="n">
-        <v>11.10893664978096</v>
+        <v>7.594945025005673</v>
       </c>
       <c r="AP29" t="n">
-        <v>11.69635946273679</v>
+        <v>27.38759324044147</v>
       </c>
       <c r="AQ29" t="n">
-        <v>21.18428877805746</v>
+        <v>21.92960053685214</v>
       </c>
       <c r="AR29" t="n">
-        <v>8.572194077829636</v>
+        <v>3.784304549067926</v>
       </c>
       <c r="AS29" t="n">
-        <v>23.742130281659</v>
+        <v>30.68245417469884</v>
       </c>
       <c r="AT29" t="n">
-        <v>9.128490317756514</v>
+        <v>40.49701787933066</v>
       </c>
       <c r="AU29" t="n">
-        <v>45.44273780268265</v>
+        <v>30.8370797571253</v>
       </c>
       <c r="AV29" t="n">
-        <v>32.58549170117967</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>2.049010818869586</v>
+        <v>26.66019295981589</v>
       </c>
       <c r="AX29" t="n">
-        <v>16.18979123715474</v>
+        <v>24.22958015299336</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4516523321410201</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>7.38701945665435</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.351767337789281</v>
+        <v>6.536915537804463</v>
       </c>
       <c r="F30" t="n">
-        <v>5.464648746004832</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4.356208329493414</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6.821253218217761</v>
+        <v>6.947149090318607</v>
       </c>
       <c r="I30" t="n">
-        <v>49.3426105072844</v>
+        <v>7.580833975173991</v>
       </c>
       <c r="J30" t="n">
-        <v>4.435570333009887</v>
+        <v>23.64803713647222</v>
       </c>
       <c r="K30" t="n">
-        <v>7.017703796680745</v>
+        <v>0.022253858496736</v>
       </c>
       <c r="L30" t="n">
-        <v>7.466715992264563</v>
+        <v>17.00705417016265</v>
       </c>
       <c r="M30" t="n">
-        <v>28.10968590073676</v>
+        <v>63.33546275670146</v>
       </c>
       <c r="N30" t="n">
-        <v>38.97332434060399</v>
+        <v>38.07688581171326</v>
       </c>
       <c r="O30" t="n">
-        <v>93.78126910732512</v>
+        <v>72.11372442650274</v>
       </c>
       <c r="P30" t="n">
-        <v>4.375988403074981</v>
+        <v>12.42466896256836</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.18164745117764</v>
+        <v>51.65342302941796</v>
       </c>
       <c r="R30" t="n">
-        <v>28.3595332349634</v>
+        <v>13.59318970211728</v>
       </c>
       <c r="S30" t="n">
-        <v>59.68373744461827</v>
+        <v>13.05963661506856</v>
       </c>
       <c r="T30" t="n">
-        <v>13.62136656988648</v>
+        <v>7.627440228181539</v>
       </c>
       <c r="U30" t="n">
-        <v>22.64935307584877</v>
+        <v>27.87885556274903</v>
       </c>
       <c r="V30" t="n">
-        <v>15.59773965196872</v>
+        <v>33.0252383738092</v>
       </c>
       <c r="W30" t="n">
-        <v>17.03735809085705</v>
+        <v>19.07198030380181</v>
       </c>
       <c r="X30" t="n">
-        <v>123.722895741739</v>
+        <v>27.1161949197586</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.18095592464217</v>
+        <v>13.83585030386157</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.4198835526382</v>
+        <v>21.96516301930541</v>
       </c>
       <c r="AA30" t="n">
-        <v>10.57561596662293</v>
+        <v>15.5670228166976</v>
       </c>
       <c r="AB30" t="n">
-        <v>22.52778684122211</v>
+        <v>17.83454807813033</v>
       </c>
       <c r="AC30" t="n">
-        <v>26.07241352994425</v>
+        <v>16.61346805057067</v>
       </c>
       <c r="AD30" t="n">
-        <v>9.861511515397012</v>
+        <v>13.44140272625384</v>
       </c>
       <c r="AE30" t="n">
-        <v>3.037632242258971</v>
+        <v>14.17325732950384</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.62975717876127</v>
+        <v>14.77297563665715</v>
       </c>
       <c r="AG30" t="n">
-        <v>11.53054352966082</v>
+        <v>16.852982660317</v>
       </c>
       <c r="AH30" t="n">
-        <v>6.951008019716347</v>
+        <v>2.997211112726101</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.098526245616906</v>
+        <v>18.33769180111362</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10.6175878821234</v>
+        <v>8.309777670579011</v>
       </c>
       <c r="AK30" t="n">
-        <v>2.664764692451799</v>
+        <v>3.924366683078308</v>
       </c>
       <c r="AL30" t="n">
-        <v>4.517697817661345</v>
+        <v>8.914659144177524</v>
       </c>
       <c r="AM30" t="n">
-        <v>5.627186091238073</v>
+        <v>8.364378615783341</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.652477079299778</v>
+        <v>1.985143353553461</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.976289088444976</v>
+        <v>2.034444912396006</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.7190883002809958</v>
+        <v>2.577483015029996</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.600931454490368</v>
+        <v>3.289363504860451</v>
       </c>
       <c r="AR30" t="n">
-        <v>5.285725889659209</v>
+        <v>1.782114537011758</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.249095297302659</v>
+        <v>2.580344878634406</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.030052943088857</v>
+        <v>1.787303298536305</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.423231898900016</v>
+        <v>3.536417980033963</v>
       </c>
       <c r="AV30" t="n">
-        <v>3.068155013936537</v>
+        <v>3.892775816807651</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.9654406803827094</v>
+        <v>23.92545791284798</v>
       </c>
       <c r="AX30" t="n">
-        <v>3.140136712061345</v>
+        <v>3.408778273785593</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>68.69659147458765</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>25.86829602196441</v>
+        <v>4.859745532219923</v>
       </c>
       <c r="E31" t="n">
-        <v>8.036456531382091</v>
+        <v>8.59014329272404</v>
       </c>
       <c r="F31" t="n">
-        <v>10.2666883481008</v>
+        <v>24.82926505944285</v>
       </c>
       <c r="G31" t="n">
-        <v>5.823702376935612</v>
+        <v>47.31488802723899</v>
       </c>
       <c r="H31" t="n">
-        <v>82.13273835637931</v>
+        <v>10.26391186577055</v>
       </c>
       <c r="I31" t="n">
-        <v>49.43506669538479</v>
+        <v>40.8302718594842</v>
       </c>
       <c r="J31" t="n">
-        <v>14.18157655294697</v>
+        <v>9.58567235499971</v>
       </c>
       <c r="K31" t="n">
-        <v>23.16367261998517</v>
+        <v>40.88794500693653</v>
       </c>
       <c r="L31" t="n">
-        <v>8.798592620822069</v>
+        <v>14.75411832958376</v>
       </c>
       <c r="M31" t="n">
-        <v>24.47606907649863</v>
+        <v>6.195867984868032</v>
       </c>
       <c r="N31" t="n">
-        <v>65.88547955288627</v>
+        <v>28.45250485234047</v>
       </c>
       <c r="O31" t="n">
-        <v>60.59079663840857</v>
+        <v>15.85197369795693</v>
       </c>
       <c r="P31" t="n">
-        <v>46.1678079915942</v>
+        <v>98.47082769664263</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.82477893217554</v>
+        <v>45.85412293497509</v>
       </c>
       <c r="R31" t="n">
-        <v>109.4855944149203</v>
+        <v>88.27046710863189</v>
       </c>
       <c r="S31" t="n">
-        <v>60.37155342673841</v>
+        <v>50.70294508782165</v>
       </c>
       <c r="T31" t="n">
-        <v>32.08155536418725</v>
+        <v>21.13117708794902</v>
       </c>
       <c r="U31" t="n">
-        <v>23.74242876340681</v>
+        <v>25.14065007141343</v>
       </c>
       <c r="V31" t="n">
-        <v>8.469216443595293</v>
+        <v>29.21931962707234</v>
       </c>
       <c r="W31" t="n">
-        <v>6.224205383966869</v>
+        <v>0.2921104820566407</v>
       </c>
       <c r="X31" t="n">
-        <v>6.323619269049842</v>
+        <v>22.2275670543443</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.084368305913738</v>
+        <v>4.939593031940077</v>
       </c>
       <c r="Z31" t="n">
-        <v>4.798320461413559</v>
+        <v>10.59625030713297</v>
       </c>
       <c r="AA31" t="n">
-        <v>12.90987772108341</v>
+        <v>18.59991648230452</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.041208948444164</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>6.236946126332827</v>
+        <v>5.450307417622562</v>
       </c>
       <c r="AD31" t="n">
-        <v>21.0761144098973</v>
+        <v>9.725833411629145</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.26729346929678</v>
+        <v>44.88117095466271</v>
       </c>
       <c r="AF31" t="n">
-        <v>2.014580380317139</v>
+        <v>9.497107397661269</v>
       </c>
       <c r="AG31" t="n">
-        <v>17.13291192344386</v>
+        <v>11.30845059850574</v>
       </c>
       <c r="AH31" t="n">
-        <v>5.605116080852036</v>
+        <v>18.34385656163595</v>
       </c>
       <c r="AI31" t="n">
-        <v>3.646967383276253</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22.71827488205139</v>
+        <v>18.24774291817138</v>
       </c>
       <c r="AK31" t="n">
-        <v>13.66540336869709</v>
+        <v>7.821355703892097</v>
       </c>
       <c r="AL31" t="n">
-        <v>21.38321847438991</v>
+        <v>2.630115818034755</v>
       </c>
       <c r="AM31" t="n">
-        <v>2.622350852081647</v>
+        <v>8.560894638765951</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.588168493866473</v>
+        <v>17.06050091227116</v>
       </c>
       <c r="AO31" t="n">
-        <v>126.9850279527835</v>
+        <v>4.87795831841685</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.4072994356925635</v>
+        <v>0</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.97580715596131</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>2.751257221098485</v>
+        <v>9.24438406878004</v>
       </c>
       <c r="AS31" t="n">
-        <v>6.201593231381596</v>
+        <v>13.38386323076279</v>
       </c>
       <c r="AT31" t="n">
-        <v>4.061089169869216</v>
+        <v>11.37521283549437</v>
       </c>
       <c r="AU31" t="n">
-        <v>12.68230179292817</v>
+        <v>9.75725485614271</v>
       </c>
       <c r="AV31" t="n">
-        <v>2.892750738250854</v>
+        <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>3.973347618195144</v>
+        <v>8.346583019612586</v>
       </c>
       <c r="AX31" t="n">
-        <v>7.916711453829282</v>
+        <v>10.38539623728813</v>
       </c>
     </row>
   </sheetData>
